--- a/speed-comparison-master/data/middleTRNew/MiddleTRNew.xlsx
+++ b/speed-comparison-master/data/middleTRNew/MiddleTRNew.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Student\ED-Assignment\speed-comparison-master\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youyasushi/Desktop/UCT/Year 2/STA2005S/ED Project/speed-comparison-master/data/middleTRNew/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBCBFF1-2046-4D7B-95A3-7F4798227ED3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{138A1643-321F-5743-A099-C8638D9146B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>C</t>
   </si>
@@ -106,9 +106,6 @@
     <t>383.4964066666666</t>
   </si>
   <si>
-    <t>473.79067999999995</t>
-  </si>
-  <si>
     <t>392.9250266666666</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>357.67083333333335</t>
   </si>
   <si>
-    <t>431.1397866666667</t>
-  </si>
-  <si>
     <t>434.40590000000003</t>
   </si>
   <si>
@@ -274,9 +268,6 @@
     <t>760.0442999999999</t>
   </si>
   <si>
-    <t>805.61044</t>
-  </si>
-  <si>
     <t>778.0431666666667</t>
   </si>
   <si>
@@ -376,9 +367,6 @@
     <t>3205.2069399999996</t>
   </si>
   <si>
-    <t>3495.404666666667</t>
-  </si>
-  <si>
     <t>74.4627199999995</t>
   </si>
   <si>
@@ -439,9 +427,6 @@
     <t>8046.358753333334</t>
   </si>
   <si>
-    <t>8647.631360000001</t>
-  </si>
-  <si>
     <t>8049.023019999999</t>
   </si>
   <si>
@@ -518,9 +503,6 @@
   </si>
   <si>
     <t>1858.8000133333335</t>
-  </si>
-  <si>
-    <t>1968.9265999999998</t>
   </si>
   <si>
     <t>1722.1296866666662</t>
@@ -599,7 +581,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -752,7 +734,7 @@
                   <c:v>1858.8000133333335</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1968.9265999999998</c:v>
+                  <c:v>1868.9266</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1795,12 +1777,12 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1820,558 +1802,558 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>41</v>
+      <c r="B9">
+        <v>431.139786666666</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E19" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>373.79067999999899</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22">
+        <v>765.61044000000004</v>
+      </c>
+      <c r="D22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22">
+        <v>8047.6313600000003</v>
+      </c>
+      <c r="F22">
+        <v>1868.92659999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23">
+        <v>3195.40466666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
         <v>81</v>
       </c>
-      <c r="D21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" t="s">
         <v>136</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" t="s">
-        <v>171</v>
-      </c>
-      <c r="E22" t="s">
-        <v>137</v>
-      </c>
-      <c r="F22" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" t="s">
-        <v>140</v>
-      </c>
-      <c r="F26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" t="s">
-        <v>141</v>
-      </c>
-      <c r="F27" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" t="s">
-        <v>142</v>
-      </c>
-      <c r="F28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" t="s">
-        <v>143</v>
-      </c>
-      <c r="F29" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/speed-comparison-master/data/middleTRNew/MiddleTRNew.xlsx
+++ b/speed-comparison-master/data/middleTRNew/MiddleTRNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youyasushi/Desktop/UCT/Year 2/STA2005S/ED Project/speed-comparison-master/data/middleTRNew/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{138A1643-321F-5743-A099-C8638D9146B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3972030E-A07F-FE4B-B776-2470EC6BCAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="167">
   <si>
     <t>C</t>
   </si>
@@ -524,6 +524,9 @@
   </si>
   <si>
     <t>3182.596673333333</t>
+  </si>
+  <si>
+    <t>NOCLT</t>
   </si>
 </sst>
 </file>
@@ -1774,15 +1777,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:O451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1801,8 +1804,29 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1821,8 +1845,26 @@
       <c r="F2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>416.23009999999999</v>
+      </c>
+      <c r="K2">
+        <v>298.01909999999998</v>
+      </c>
+      <c r="L2">
+        <v>764.48979999999995</v>
+      </c>
+      <c r="M2">
+        <v>3153.9445000000001</v>
+      </c>
+      <c r="N2">
+        <v>9829.2991000000002</v>
+      </c>
+      <c r="O2">
+        <v>6899.9468999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1841,8 +1883,26 @@
       <c r="F3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>341.59440000000001</v>
+      </c>
+      <c r="K3">
+        <v>304.3152</v>
+      </c>
+      <c r="L3">
+        <v>761.694199999999</v>
+      </c>
+      <c r="M3">
+        <v>3161.7905999999998</v>
+      </c>
+      <c r="N3">
+        <v>8049.6180999999997</v>
+      </c>
+      <c r="O3">
+        <v>1602.1931999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1861,8 +1921,26 @@
       <c r="F4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>388.28149999999999</v>
+      </c>
+      <c r="K4">
+        <v>325.20060000000001</v>
+      </c>
+      <c r="L4">
+        <v>763.846</v>
+      </c>
+      <c r="M4">
+        <v>3173.7570000000001</v>
+      </c>
+      <c r="N4">
+        <v>8070.0898999999999</v>
+      </c>
+      <c r="O4">
+        <v>1491.9919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1881,8 +1959,26 @@
       <c r="F5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>315.04320000000001</v>
+      </c>
+      <c r="K5">
+        <v>298.47800000000001</v>
+      </c>
+      <c r="L5">
+        <v>791.4873</v>
+      </c>
+      <c r="M5">
+        <v>3235.6803999999902</v>
+      </c>
+      <c r="N5">
+        <v>8051.4998999999998</v>
+      </c>
+      <c r="O5">
+        <v>1528.1224999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1901,8 +1997,26 @@
       <c r="F6" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>314.49520000000001</v>
+      </c>
+      <c r="K6">
+        <v>302.903899999999</v>
+      </c>
+      <c r="L6">
+        <v>741.92279999999903</v>
+      </c>
+      <c r="M6">
+        <v>3172.7745999999902</v>
+      </c>
+      <c r="N6">
+        <v>8109.9639999999999</v>
+      </c>
+      <c r="O6">
+        <v>1647.3659</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1921,8 +2035,26 @@
       <c r="F7" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>314.88650000000001</v>
+      </c>
+      <c r="K7">
+        <v>297.45609999999999</v>
+      </c>
+      <c r="L7">
+        <v>777.95269999999903</v>
+      </c>
+      <c r="M7">
+        <v>3173.6758</v>
+      </c>
+      <c r="N7">
+        <v>8038.8751999999904</v>
+      </c>
+      <c r="O7">
+        <v>1587.2681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1941,8 +2073,26 @@
       <c r="F8" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>323.66730000000001</v>
+      </c>
+      <c r="K8">
+        <v>300.5179</v>
+      </c>
+      <c r="L8">
+        <v>765.5258</v>
+      </c>
+      <c r="M8">
+        <v>3152.2312999999999</v>
+      </c>
+      <c r="N8">
+        <v>8042.4883</v>
+      </c>
+      <c r="O8">
+        <v>1579.8225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1961,8 +2111,26 @@
       <c r="F9" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>1155.575</v>
+      </c>
+      <c r="K9">
+        <v>295.45049999999998</v>
+      </c>
+      <c r="L9">
+        <v>776.98009999999999</v>
+      </c>
+      <c r="M9">
+        <v>3172.0061000000001</v>
+      </c>
+      <c r="N9">
+        <v>8045.4484999999904</v>
+      </c>
+      <c r="O9">
+        <v>1530.2203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1981,8 +2149,26 @@
       <c r="F10" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>313.509199999999</v>
+      </c>
+      <c r="K10">
+        <v>583.30489999999998</v>
+      </c>
+      <c r="L10">
+        <v>763.75900000000001</v>
+      </c>
+      <c r="M10">
+        <v>3169.7648999999901</v>
+      </c>
+      <c r="N10">
+        <v>8030.9204999999902</v>
+      </c>
+      <c r="O10">
+        <v>1580.0003999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2001,8 +2187,26 @@
       <c r="F11" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>326.760099999999</v>
+      </c>
+      <c r="K11">
+        <v>312.0804</v>
+      </c>
+      <c r="L11">
+        <v>784.93020000000001</v>
+      </c>
+      <c r="M11">
+        <v>3154.4132999999902</v>
+      </c>
+      <c r="N11">
+        <v>8039.7415000000001</v>
+      </c>
+      <c r="O11">
+        <v>2473.1943000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2021,8 +2225,26 @@
       <c r="F12" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>313.73649999999998</v>
+      </c>
+      <c r="K12">
+        <v>312.597499999999</v>
+      </c>
+      <c r="L12">
+        <v>764.84609999999998</v>
+      </c>
+      <c r="M12">
+        <v>3170.2720999999901</v>
+      </c>
+      <c r="N12">
+        <v>8052.0418</v>
+      </c>
+      <c r="O12">
+        <v>1570.9714999999901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2041,8 +2263,26 @@
       <c r="F13" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>311.95049999999998</v>
+      </c>
+      <c r="K13">
+        <v>297.76329999999899</v>
+      </c>
+      <c r="L13">
+        <v>748.51130000000001</v>
+      </c>
+      <c r="M13">
+        <v>3164.3726999999999</v>
+      </c>
+      <c r="N13">
+        <v>8133.1444999999903</v>
+      </c>
+      <c r="O13">
+        <v>1671.8683999999901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2061,8 +2301,26 @@
       <c r="F14" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>312.8929</v>
+      </c>
+      <c r="K14">
+        <v>297.9547</v>
+      </c>
+      <c r="L14">
+        <v>749.05409999999995</v>
+      </c>
+      <c r="M14">
+        <v>3157.9289999999901</v>
+      </c>
+      <c r="N14">
+        <v>8041.3998999999903</v>
+      </c>
+      <c r="O14">
+        <v>1802.6333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2081,8 +2339,26 @@
       <c r="F15" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>312.726</v>
+      </c>
+      <c r="K15">
+        <v>296.98649999999998</v>
+      </c>
+      <c r="L15">
+        <v>778.19069999999999</v>
+      </c>
+      <c r="M15">
+        <v>3174.75</v>
+      </c>
+      <c r="N15">
+        <v>8045.3047999999999</v>
+      </c>
+      <c r="O15">
+        <v>1786.8859</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2101,8 +2377,26 @@
       <c r="F16" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>311.60649999999998</v>
+      </c>
+      <c r="K16">
+        <v>313.99449999999899</v>
+      </c>
+      <c r="L16">
+        <v>769.64479999999901</v>
+      </c>
+      <c r="M16">
+        <v>3165.1783</v>
+      </c>
+      <c r="N16">
+        <v>8037.1048000000001</v>
+      </c>
+      <c r="O16">
+        <v>1758.7123999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2121,8 +2415,26 @@
       <c r="F17" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>316.18969999999899</v>
+      </c>
+      <c r="K17">
+        <v>304.447</v>
+      </c>
+      <c r="L17">
+        <v>740.49810000000002</v>
+      </c>
+      <c r="M17">
+        <v>3173.4375</v>
+      </c>
+      <c r="N17">
+        <v>8108.6351999999997</v>
+      </c>
+      <c r="O17">
+        <v>1710.1209999999901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -2141,8 +2453,26 @@
       <c r="F18" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>596.63059999999996</v>
+      </c>
+      <c r="K18">
+        <v>671.34309999999903</v>
+      </c>
+      <c r="L18">
+        <v>766.594099999999</v>
+      </c>
+      <c r="M18">
+        <v>3152.8126999999999</v>
+      </c>
+      <c r="N18">
+        <v>8040.7402999999904</v>
+      </c>
+      <c r="O18">
+        <v>1741.0982999999901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2161,8 +2491,26 @@
       <c r="F19" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>342.719999999999</v>
+      </c>
+      <c r="K19">
+        <v>304.927899999999</v>
+      </c>
+      <c r="L19">
+        <v>739.94869999999901</v>
+      </c>
+      <c r="M19">
+        <v>3170.6749999999902</v>
+      </c>
+      <c r="N19">
+        <v>8050.5166999999901</v>
+      </c>
+      <c r="O19">
+        <v>1736.42099999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2181,8 +2529,26 @@
       <c r="F20" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>333.77409999999998</v>
+      </c>
+      <c r="K20">
+        <v>302.1404</v>
+      </c>
+      <c r="L20">
+        <v>785.46960000000001</v>
+      </c>
+      <c r="M20">
+        <v>3174.3773999999999</v>
+      </c>
+      <c r="N20">
+        <v>8036.2122999999901</v>
+      </c>
+      <c r="O20">
+        <v>2470.6680999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2201,8 +2567,26 @@
       <c r="F21" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <v>323.83389999999901</v>
+      </c>
+      <c r="K21">
+        <v>305.5539</v>
+      </c>
+      <c r="L21">
+        <v>769.28210000000001</v>
+      </c>
+      <c r="M21">
+        <v>3173.9209999999998</v>
+      </c>
+      <c r="N21">
+        <v>8054.902</v>
+      </c>
+      <c r="O21">
+        <v>1752.75799999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>373.79067999999899</v>
       </c>
@@ -2221,8 +2605,26 @@
       <c r="F22">
         <v>1868.92659999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>314.28219999999999</v>
+      </c>
+      <c r="K22">
+        <v>324.22479999999899</v>
+      </c>
+      <c r="L22">
+        <v>747.59679999999901</v>
+      </c>
+      <c r="M22">
+        <v>3152.2017999999998</v>
+      </c>
+      <c r="N22">
+        <v>8056.0068999999903</v>
+      </c>
+      <c r="O22">
+        <v>1728.135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -2235,8 +2637,26 @@
       <c r="D23">
         <v>3195.40466666666</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <v>316.99669999999998</v>
+      </c>
+      <c r="K23">
+        <v>304.25549999999998</v>
+      </c>
+      <c r="L23">
+        <v>778.05859999999996</v>
+      </c>
+      <c r="M23">
+        <v>3155.7235999999998</v>
+      </c>
+      <c r="N23">
+        <v>8034.6839999999902</v>
+      </c>
+      <c r="O23">
+        <v>1714.5752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2255,8 +2675,26 @@
       <c r="F24" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <v>313.16210000000001</v>
+      </c>
+      <c r="K24">
+        <v>305.65449999999998</v>
+      </c>
+      <c r="L24">
+        <v>742.69619999999998</v>
+      </c>
+      <c r="M24">
+        <v>3172.5351999999998</v>
+      </c>
+      <c r="N24">
+        <v>8044.6371999999901</v>
+      </c>
+      <c r="O24">
+        <v>1663.6353999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2275,8 +2713,26 @@
       <c r="F25" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>312.91550000000001</v>
+      </c>
+      <c r="K25">
+        <v>302.226</v>
+      </c>
+      <c r="L25">
+        <v>744.06020000000001</v>
+      </c>
+      <c r="M25">
+        <v>3162.2916999999902</v>
+      </c>
+      <c r="N25">
+        <v>8069.9898999999996</v>
+      </c>
+      <c r="O25">
+        <v>1592.3406</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2295,8 +2751,26 @@
       <c r="F26" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <v>326.50219999999899</v>
+      </c>
+      <c r="K26">
+        <v>324.3442</v>
+      </c>
+      <c r="L26">
+        <v>782.17250000000001</v>
+      </c>
+      <c r="M26">
+        <v>3150.7541999999999</v>
+      </c>
+      <c r="N26">
+        <v>8018.7891999999902</v>
+      </c>
+      <c r="O26">
+        <v>1812.5934</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2315,8 +2789,26 @@
       <c r="F27" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>602.95159999999998</v>
+      </c>
+      <c r="K27">
+        <v>1481.2637999999999</v>
+      </c>
+      <c r="L27">
+        <v>789.00159999999903</v>
+      </c>
+      <c r="M27">
+        <v>3162.6623</v>
+      </c>
+      <c r="N27">
+        <v>8062.3580999999904</v>
+      </c>
+      <c r="O27">
+        <v>1710.5042999999901</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2335,8 +2827,26 @@
       <c r="F28" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <v>315.8854</v>
+      </c>
+      <c r="K28">
+        <v>305.61619999999999</v>
+      </c>
+      <c r="L28">
+        <v>776.77620000000002</v>
+      </c>
+      <c r="M28">
+        <v>3149.5855999999999</v>
+      </c>
+      <c r="N28">
+        <v>8039.4219999999996</v>
+      </c>
+      <c r="O28">
+        <v>1688.2333999999901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -2354,6 +2864,8461 @@
       </c>
       <c r="F29" t="s">
         <v>164</v>
+      </c>
+      <c r="J29">
+        <v>332.74520000000001</v>
+      </c>
+      <c r="K29">
+        <v>302.3784</v>
+      </c>
+      <c r="L29">
+        <v>773.58999999999901</v>
+      </c>
+      <c r="M29">
+        <v>3163.4919999999902</v>
+      </c>
+      <c r="N29">
+        <v>8028.2981</v>
+      </c>
+      <c r="O29">
+        <v>2619.3098</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>302.512799999999</v>
+      </c>
+      <c r="K30">
+        <v>307.32060000000001</v>
+      </c>
+      <c r="L30">
+        <v>776.84559999999999</v>
+      </c>
+      <c r="M30">
+        <v>3181.7316999999998</v>
+      </c>
+      <c r="N30">
+        <v>8034.1143999999904</v>
+      </c>
+      <c r="O30">
+        <v>1787.6460999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <v>310.92410000000001</v>
+      </c>
+      <c r="K31">
+        <v>303.8734</v>
+      </c>
+      <c r="L31">
+        <v>756.80329999999901</v>
+      </c>
+      <c r="M31">
+        <v>3178.9676999999901</v>
+      </c>
+      <c r="N31">
+        <v>8030.6151</v>
+      </c>
+      <c r="O31">
+        <v>1918.9379999999901</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <v>306.145299999999</v>
+      </c>
+      <c r="K32">
+        <v>298.885999999999</v>
+      </c>
+      <c r="L32">
+        <v>746.28129999999999</v>
+      </c>
+      <c r="M32">
+        <v>3159.4942999999998</v>
+      </c>
+      <c r="N32">
+        <v>8075.2161999999998</v>
+      </c>
+      <c r="O32">
+        <v>1708.0105999999901</v>
+      </c>
+    </row>
+    <row r="33" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <v>300.49709999999999</v>
+      </c>
+      <c r="K33">
+        <v>301.03120000000001</v>
+      </c>
+      <c r="L33">
+        <v>775.66499999999996</v>
+      </c>
+      <c r="M33">
+        <v>3171.7257999999902</v>
+      </c>
+      <c r="N33">
+        <v>8070.7394999999997</v>
+      </c>
+      <c r="O33">
+        <v>1727.6303</v>
+      </c>
+    </row>
+    <row r="34" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <v>309.44529999999997</v>
+      </c>
+      <c r="K34">
+        <v>303.73570000000001</v>
+      </c>
+      <c r="L34">
+        <v>753.04469999999901</v>
+      </c>
+      <c r="M34">
+        <v>3186.0571</v>
+      </c>
+      <c r="N34">
+        <v>8048.7426999999998</v>
+      </c>
+      <c r="O34">
+        <v>1514.21989999999</v>
+      </c>
+    </row>
+    <row r="35" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <v>305.14589999999998</v>
+      </c>
+      <c r="K35">
+        <v>299.58999999999997</v>
+      </c>
+      <c r="L35">
+        <v>755.47429999999997</v>
+      </c>
+      <c r="M35">
+        <v>3168.7972</v>
+      </c>
+      <c r="N35">
+        <v>8097.8729999999996</v>
+      </c>
+      <c r="O35">
+        <v>1906.1662999999901</v>
+      </c>
+    </row>
+    <row r="36" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <v>1123.0681999999999</v>
+      </c>
+      <c r="K36">
+        <v>576.9162</v>
+      </c>
+      <c r="L36">
+        <v>754.22730000000001</v>
+      </c>
+      <c r="M36">
+        <v>3190.5544</v>
+      </c>
+      <c r="N36">
+        <v>8223.5067999999992</v>
+      </c>
+      <c r="O36">
+        <v>1786.4458</v>
+      </c>
+    </row>
+    <row r="37" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <v>319.688099999999</v>
+      </c>
+      <c r="K37">
+        <v>765.49599999999998</v>
+      </c>
+      <c r="L37">
+        <v>830.38159999999903</v>
+      </c>
+      <c r="M37">
+        <v>3252.8143</v>
+      </c>
+      <c r="N37">
+        <v>8059.848</v>
+      </c>
+      <c r="O37">
+        <v>1789.9820999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J38">
+        <v>314.116299999999</v>
+      </c>
+      <c r="K38">
+        <v>308.617899999999</v>
+      </c>
+      <c r="L38">
+        <v>857.31589999999903</v>
+      </c>
+      <c r="M38">
+        <v>3183.8570999999902</v>
+      </c>
+      <c r="N38">
+        <v>8071.0967999999903</v>
+      </c>
+      <c r="O38">
+        <v>1769.48259999999</v>
+      </c>
+    </row>
+    <row r="39" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <v>304.744699999999</v>
+      </c>
+      <c r="K39">
+        <v>313.62389999999999</v>
+      </c>
+      <c r="L39">
+        <v>750.16499999999996</v>
+      </c>
+      <c r="M39">
+        <v>3171.9114999999902</v>
+      </c>
+      <c r="N39">
+        <v>8070.1741999999904</v>
+      </c>
+      <c r="O39">
+        <v>2578.7914999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J40">
+        <v>306.06439999999998</v>
+      </c>
+      <c r="K40">
+        <v>304.18439999999998</v>
+      </c>
+      <c r="L40">
+        <v>753.08069999999998</v>
+      </c>
+      <c r="M40">
+        <v>3183.1551999999901</v>
+      </c>
+      <c r="N40">
+        <v>8064.3257999999996</v>
+      </c>
+      <c r="O40">
+        <v>1765.8299</v>
+      </c>
+    </row>
+    <row r="41" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <v>301.60050000000001</v>
+      </c>
+      <c r="K41">
+        <v>294.166</v>
+      </c>
+      <c r="L41">
+        <v>759.01499999999999</v>
+      </c>
+      <c r="M41">
+        <v>3155.6262999999999</v>
+      </c>
+      <c r="N41">
+        <v>8058.0259999999998</v>
+      </c>
+      <c r="O41">
+        <v>1770.2382</v>
+      </c>
+    </row>
+    <row r="42" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J42">
+        <v>302.1739</v>
+      </c>
+      <c r="K42">
+        <v>294.3032</v>
+      </c>
+      <c r="L42">
+        <v>759.13019999999995</v>
+      </c>
+      <c r="M42">
+        <v>3168.7945</v>
+      </c>
+      <c r="N42">
+        <v>8065.2439999999997</v>
+      </c>
+      <c r="O42">
+        <v>1846.2075</v>
+      </c>
+    </row>
+    <row r="43" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J43">
+        <v>301.09549999999899</v>
+      </c>
+      <c r="K43">
+        <v>294.96359999999999</v>
+      </c>
+      <c r="L43">
+        <v>746.79589999999996</v>
+      </c>
+      <c r="M43">
+        <v>3165.6671999999999</v>
+      </c>
+      <c r="N43">
+        <v>8045.2918999999902</v>
+      </c>
+      <c r="O43">
+        <v>1642.4571999999901</v>
+      </c>
+    </row>
+    <row r="44" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J44">
+        <v>295.21809999999999</v>
+      </c>
+      <c r="K44">
+        <v>299.7398</v>
+      </c>
+      <c r="L44">
+        <v>734.20129999999995</v>
+      </c>
+      <c r="M44">
+        <v>3186.2947999999901</v>
+      </c>
+      <c r="N44">
+        <v>8046.4306999999999</v>
+      </c>
+      <c r="O44">
+        <v>1839.14019999999</v>
+      </c>
+    </row>
+    <row r="45" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <v>1185.5533</v>
+      </c>
+      <c r="K45">
+        <v>593.53419999999903</v>
+      </c>
+      <c r="L45">
+        <v>763.75469999999996</v>
+      </c>
+      <c r="M45">
+        <v>3151.7898</v>
+      </c>
+      <c r="N45">
+        <v>8048.9737999999998</v>
+      </c>
+      <c r="O45">
+        <v>1870.1379999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J46">
+        <v>302.04499999999899</v>
+      </c>
+      <c r="K46">
+        <v>301.80019999999899</v>
+      </c>
+      <c r="L46">
+        <v>778.66199999999901</v>
+      </c>
+      <c r="M46">
+        <v>3154.7842999999998</v>
+      </c>
+      <c r="N46">
+        <v>8048.3413</v>
+      </c>
+      <c r="O46">
+        <v>1809.549</v>
+      </c>
+    </row>
+    <row r="47" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J47">
+        <v>299.03769999999997</v>
+      </c>
+      <c r="K47">
+        <v>301.686499999999</v>
+      </c>
+      <c r="L47">
+        <v>737.3596</v>
+      </c>
+      <c r="M47">
+        <v>3171.4674</v>
+      </c>
+      <c r="N47">
+        <v>8042.6993999999904</v>
+      </c>
+      <c r="O47">
+        <v>1806.7006999999901</v>
+      </c>
+    </row>
+    <row r="48" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J48">
+        <v>308.49019999999899</v>
+      </c>
+      <c r="K48">
+        <v>301.83019999999999</v>
+      </c>
+      <c r="L48">
+        <v>779.66199999999901</v>
+      </c>
+      <c r="M48">
+        <v>3260.8681999999999</v>
+      </c>
+      <c r="N48">
+        <v>8083.2024999999903</v>
+      </c>
+      <c r="O48">
+        <v>2695.9490000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J49">
+        <v>308.9375</v>
+      </c>
+      <c r="K49">
+        <v>290.85939999999999</v>
+      </c>
+      <c r="L49">
+        <v>754.24429999999995</v>
+      </c>
+      <c r="M49">
+        <v>3235.3395</v>
+      </c>
+      <c r="N49">
+        <v>8046.0111999999999</v>
+      </c>
+      <c r="O49">
+        <v>1730.2395999999901</v>
+      </c>
+    </row>
+    <row r="50" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J50">
+        <v>313.155699999999</v>
+      </c>
+      <c r="K50">
+        <v>293.61259999999999</v>
+      </c>
+      <c r="L50">
+        <v>771.82510000000002</v>
+      </c>
+      <c r="M50">
+        <v>3170.1059</v>
+      </c>
+      <c r="N50">
+        <v>8067.9834999999903</v>
+      </c>
+      <c r="O50">
+        <v>1922.0255</v>
+      </c>
+    </row>
+    <row r="51" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J51">
+        <v>299.87029999999999</v>
+      </c>
+      <c r="K51">
+        <v>299.178799999999</v>
+      </c>
+      <c r="L51">
+        <v>740.61759999999902</v>
+      </c>
+      <c r="M51">
+        <v>3162.5477999999998</v>
+      </c>
+      <c r="N51">
+        <v>8043.2092999999904</v>
+      </c>
+      <c r="O51">
+        <v>1718.1695999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J52">
+        <v>300.52959999999899</v>
+      </c>
+      <c r="K52">
+        <v>296.5129</v>
+      </c>
+      <c r="L52">
+        <v>739.71839999999997</v>
+      </c>
+      <c r="M52">
+        <v>3171.0771</v>
+      </c>
+      <c r="N52">
+        <v>8061.2317999999996</v>
+      </c>
+      <c r="O52">
+        <v>1721.8773999999901</v>
+      </c>
+    </row>
+    <row r="53" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J53">
+        <v>299.17859999999899</v>
+      </c>
+      <c r="K53">
+        <v>298.769599999999</v>
+      </c>
+      <c r="L53">
+        <v>774.24329999999998</v>
+      </c>
+      <c r="M53">
+        <v>3188.3901000000001</v>
+      </c>
+      <c r="N53">
+        <v>8048.3705</v>
+      </c>
+      <c r="O53">
+        <v>1862.962</v>
+      </c>
+    </row>
+    <row r="54" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J54">
+        <v>293.113599999999</v>
+      </c>
+      <c r="K54">
+        <v>576.24609999999996</v>
+      </c>
+      <c r="L54">
+        <v>743.14519999999902</v>
+      </c>
+      <c r="M54">
+        <v>3140.9719999999902</v>
+      </c>
+      <c r="N54">
+        <v>8035.9800999999998</v>
+      </c>
+      <c r="O54">
+        <v>1687.3860999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J55">
+        <v>576.66639999999995</v>
+      </c>
+      <c r="K55">
+        <v>296.91460000000001</v>
+      </c>
+      <c r="L55">
+        <v>762.41289999999901</v>
+      </c>
+      <c r="M55">
+        <v>3146.2680999999998</v>
+      </c>
+      <c r="N55">
+        <v>8056.8310999999903</v>
+      </c>
+      <c r="O55">
+        <v>1813.7002</v>
+      </c>
+    </row>
+    <row r="56" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J56">
+        <v>297.25259999999997</v>
+      </c>
+      <c r="K56">
+        <v>295.56369999999998</v>
+      </c>
+      <c r="L56">
+        <v>780.51249999999902</v>
+      </c>
+      <c r="M56">
+        <v>3159.2477999999901</v>
+      </c>
+      <c r="N56">
+        <v>8062.1323999999904</v>
+      </c>
+      <c r="O56">
+        <v>1728.0046</v>
+      </c>
+    </row>
+    <row r="57" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J57">
+        <v>311.15989999999999</v>
+      </c>
+      <c r="K57">
+        <v>324.007399999999</v>
+      </c>
+      <c r="L57">
+        <v>763.47899999999902</v>
+      </c>
+      <c r="M57">
+        <v>3154.7228999999902</v>
+      </c>
+      <c r="N57">
+        <v>8054.5292999999901</v>
+      </c>
+      <c r="O57">
+        <v>2616.8906999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J58">
+        <v>307.27339999999998</v>
+      </c>
+      <c r="K58">
+        <v>296.22980000000001</v>
+      </c>
+      <c r="L58">
+        <v>745.18759999999997</v>
+      </c>
+      <c r="M58">
+        <v>3148.8960999999999</v>
+      </c>
+      <c r="N58">
+        <v>8040.6638999999996</v>
+      </c>
+      <c r="O58">
+        <v>1693.11759999999</v>
+      </c>
+    </row>
+    <row r="59" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J59">
+        <v>304.64299999999997</v>
+      </c>
+      <c r="K59">
+        <v>302.51130000000001</v>
+      </c>
+      <c r="L59">
+        <v>740.75659999999903</v>
+      </c>
+      <c r="M59">
+        <v>3171.3362999999999</v>
+      </c>
+      <c r="N59">
+        <v>8059.9573</v>
+      </c>
+      <c r="O59">
+        <v>1630.9745</v>
+      </c>
+    </row>
+    <row r="60" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J60">
+        <v>296.80090000000001</v>
+      </c>
+      <c r="K60">
+        <v>292.56349999999998</v>
+      </c>
+      <c r="L60">
+        <v>747.12829999999997</v>
+      </c>
+      <c r="M60">
+        <v>3153.3566000000001</v>
+      </c>
+      <c r="N60">
+        <v>8056.1390999999903</v>
+      </c>
+      <c r="O60">
+        <v>1807.7983999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J61">
+        <v>297.31139999999999</v>
+      </c>
+      <c r="K61">
+        <v>294.25450000000001</v>
+      </c>
+      <c r="L61">
+        <v>772.365399999999</v>
+      </c>
+      <c r="M61">
+        <v>3175.0025000000001</v>
+      </c>
+      <c r="N61">
+        <v>8054.1695</v>
+      </c>
+      <c r="O61">
+        <v>1774.6436999999901</v>
+      </c>
+    </row>
+    <row r="62" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J62">
+        <v>301.36649999999997</v>
+      </c>
+      <c r="K62">
+        <v>293.87439999999998</v>
+      </c>
+      <c r="L62">
+        <v>780.61279999999999</v>
+      </c>
+      <c r="M62">
+        <v>3153.6846999999998</v>
+      </c>
+      <c r="N62">
+        <v>8061.6452999999901</v>
+      </c>
+      <c r="O62">
+        <v>1720.7102</v>
+      </c>
+    </row>
+    <row r="63" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J63">
+        <v>1129.1474000000001</v>
+      </c>
+      <c r="K63">
+        <v>578.25419999999997</v>
+      </c>
+      <c r="L63">
+        <v>776.01319999999998</v>
+      </c>
+      <c r="M63">
+        <v>3165.9838999999902</v>
+      </c>
+      <c r="N63">
+        <v>8058.2522999999901</v>
+      </c>
+      <c r="O63">
+        <v>1632.8396</v>
+      </c>
+    </row>
+    <row r="64" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J64">
+        <v>311.09299999999899</v>
+      </c>
+      <c r="K64">
+        <v>298.04570000000001</v>
+      </c>
+      <c r="L64">
+        <v>775.71969999999999</v>
+      </c>
+      <c r="M64">
+        <v>3165.4411</v>
+      </c>
+      <c r="N64">
+        <v>8047.6891999999998</v>
+      </c>
+      <c r="O64">
+        <v>1793.9395999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J65">
+        <v>298.38829999999899</v>
+      </c>
+      <c r="K65">
+        <v>311.121299999999</v>
+      </c>
+      <c r="L65">
+        <v>749.70150000000001</v>
+      </c>
+      <c r="M65">
+        <v>3171.9803999999999</v>
+      </c>
+      <c r="N65">
+        <v>8100.8365999999996</v>
+      </c>
+      <c r="O65">
+        <v>2452.6203999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J66">
+        <v>313.25700000000001</v>
+      </c>
+      <c r="K66">
+        <v>297.4853</v>
+      </c>
+      <c r="L66">
+        <v>754.64170000000001</v>
+      </c>
+      <c r="M66">
+        <v>3156.5412999999999</v>
+      </c>
+      <c r="N66">
+        <v>8038.4205999999904</v>
+      </c>
+      <c r="O66">
+        <v>1823.6784</v>
+      </c>
+    </row>
+    <row r="67" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J67">
+        <v>294.27870000000001</v>
+      </c>
+      <c r="K67">
+        <v>296.77659999999997</v>
+      </c>
+      <c r="L67">
+        <v>750.41919999999902</v>
+      </c>
+      <c r="M67">
+        <v>3167.8602999999998</v>
+      </c>
+      <c r="N67">
+        <v>8046.1297999999997</v>
+      </c>
+      <c r="O67">
+        <v>1732.2684999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J68">
+        <v>325.62199999999899</v>
+      </c>
+      <c r="K68">
+        <v>295.623999999999</v>
+      </c>
+      <c r="L68">
+        <v>768.76369999999997</v>
+      </c>
+      <c r="M68">
+        <v>3144.4321999999902</v>
+      </c>
+      <c r="N68">
+        <v>8029.1425999999901</v>
+      </c>
+      <c r="O68">
+        <v>1725.2201</v>
+      </c>
+    </row>
+    <row r="69" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J69">
+        <v>304.00119999999998</v>
+      </c>
+      <c r="K69">
+        <v>288.994699999999</v>
+      </c>
+      <c r="L69">
+        <v>735.8125</v>
+      </c>
+      <c r="M69">
+        <v>3150.9094999999902</v>
+      </c>
+      <c r="N69">
+        <v>8047.8721999999998</v>
+      </c>
+      <c r="O69">
+        <v>1831.34039999999</v>
+      </c>
+    </row>
+    <row r="70" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J70">
+        <v>298.89179999999999</v>
+      </c>
+      <c r="K70">
+        <v>292.74879999999899</v>
+      </c>
+      <c r="L70">
+        <v>740.83949999999902</v>
+      </c>
+      <c r="M70">
+        <v>3148.268</v>
+      </c>
+      <c r="N70">
+        <v>8033.7835999999998</v>
+      </c>
+      <c r="O70">
+        <v>1696.7441999999901</v>
+      </c>
+    </row>
+    <row r="71" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J71">
+        <v>304.47199999999998</v>
+      </c>
+      <c r="K71">
+        <v>302.716599999999</v>
+      </c>
+      <c r="L71">
+        <v>782.18020000000001</v>
+      </c>
+      <c r="M71">
+        <v>3154.9921999999901</v>
+      </c>
+      <c r="N71">
+        <v>8042.9178999999904</v>
+      </c>
+      <c r="O71">
+        <v>1714.0229999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J72">
+        <v>584.93979999999999</v>
+      </c>
+      <c r="K72">
+        <v>591.30909999999994</v>
+      </c>
+      <c r="L72">
+        <v>793.89679999999998</v>
+      </c>
+      <c r="M72">
+        <v>3162.4697999999999</v>
+      </c>
+      <c r="N72">
+        <v>8030.0549999999903</v>
+      </c>
+      <c r="O72">
+        <v>1791.0579</v>
+      </c>
+    </row>
+    <row r="73" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J73">
+        <v>301.66759999999999</v>
+      </c>
+      <c r="K73">
+        <v>294.53460000000001</v>
+      </c>
+      <c r="L73">
+        <v>796.24450000000002</v>
+      </c>
+      <c r="M73">
+        <v>3172.7662</v>
+      </c>
+      <c r="N73">
+        <v>8039.7370000000001</v>
+      </c>
+      <c r="O73">
+        <v>1798.1586</v>
+      </c>
+    </row>
+    <row r="74" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J74">
+        <v>301.40699999999998</v>
+      </c>
+      <c r="K74">
+        <v>299.38139999999999</v>
+      </c>
+      <c r="L74">
+        <v>846.60129999999901</v>
+      </c>
+      <c r="M74">
+        <v>3160.7051999999999</v>
+      </c>
+      <c r="N74">
+        <v>8057.5065999999997</v>
+      </c>
+      <c r="O74">
+        <v>2518.3009999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J75">
+        <v>310.52929999999998</v>
+      </c>
+      <c r="K75">
+        <v>303.061499999999</v>
+      </c>
+      <c r="L75">
+        <v>773.7527</v>
+      </c>
+      <c r="M75">
+        <v>3154.6284000000001</v>
+      </c>
+      <c r="N75">
+        <v>8057.1747999999998</v>
+      </c>
+      <c r="O75">
+        <v>1660.6824999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J76">
+        <v>298.79820000000001</v>
+      </c>
+      <c r="K76">
+        <v>305.55399999999997</v>
+      </c>
+      <c r="L76">
+        <v>756.56219999999996</v>
+      </c>
+      <c r="M76">
+        <v>3166.4315999999999</v>
+      </c>
+      <c r="N76">
+        <v>8049.5593999999901</v>
+      </c>
+      <c r="O76">
+        <v>1861.9281999999901</v>
+      </c>
+    </row>
+    <row r="77" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J77">
+        <v>293.4631</v>
+      </c>
+      <c r="K77">
+        <v>295.57929999999999</v>
+      </c>
+      <c r="L77">
+        <v>764.85839999999996</v>
+      </c>
+      <c r="M77">
+        <v>3258.1553999999901</v>
+      </c>
+      <c r="N77">
+        <v>8035.0355999999902</v>
+      </c>
+      <c r="O77">
+        <v>1829.6599999999901</v>
+      </c>
+    </row>
+    <row r="78" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J78">
+        <v>295.57619999999997</v>
+      </c>
+      <c r="K78">
+        <v>294.02080000000001</v>
+      </c>
+      <c r="L78">
+        <v>752.78909999999996</v>
+      </c>
+      <c r="M78">
+        <v>3242.0917999999901</v>
+      </c>
+      <c r="N78">
+        <v>8033.5731999999998</v>
+      </c>
+      <c r="O78">
+        <v>1917.3824</v>
+      </c>
+    </row>
+    <row r="79" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J79">
+        <v>293.019399999999</v>
+      </c>
+      <c r="K79">
+        <v>313.77189999999899</v>
+      </c>
+      <c r="L79">
+        <v>754.62459999999999</v>
+      </c>
+      <c r="M79">
+        <v>3241.3307999999902</v>
+      </c>
+      <c r="N79">
+        <v>8318.0092999999997</v>
+      </c>
+      <c r="O79">
+        <v>1751.6817999999901</v>
+      </c>
+    </row>
+    <row r="80" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J80">
+        <v>292.75139999999999</v>
+      </c>
+      <c r="K80">
+        <v>305.01740000000001</v>
+      </c>
+      <c r="L80">
+        <v>751.12569999999903</v>
+      </c>
+      <c r="M80">
+        <v>3216.3125999999902</v>
+      </c>
+      <c r="N80">
+        <v>8075.2307999999903</v>
+      </c>
+      <c r="O80">
+        <v>1781.2476999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J81">
+        <v>1452.5539999999901</v>
+      </c>
+      <c r="K81">
+        <v>306.989499999999</v>
+      </c>
+      <c r="L81">
+        <v>730.83749999999998</v>
+      </c>
+      <c r="M81">
+        <v>3248.0758000000001</v>
+      </c>
+      <c r="N81">
+        <v>8070.1596</v>
+      </c>
+      <c r="O81">
+        <v>1633.8899999999901</v>
+      </c>
+    </row>
+    <row r="82" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J82">
+        <v>300.9443</v>
+      </c>
+      <c r="K82">
+        <v>576.67290000000003</v>
+      </c>
+      <c r="L82">
+        <v>731.98659999999995</v>
+      </c>
+      <c r="M82">
+        <v>3139.0745999999999</v>
+      </c>
+      <c r="N82">
+        <v>8084.7523999999903</v>
+      </c>
+      <c r="O82">
+        <v>1683.96809999999</v>
+      </c>
+    </row>
+    <row r="83" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J83">
+        <v>292.2654</v>
+      </c>
+      <c r="K83">
+        <v>294.55329999999998</v>
+      </c>
+      <c r="L83">
+        <v>760.00389999999902</v>
+      </c>
+      <c r="M83">
+        <v>3148.2341999999999</v>
+      </c>
+      <c r="N83">
+        <v>8064.4053999999996</v>
+      </c>
+      <c r="O83">
+        <v>2626.8184999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J84">
+        <v>294.79309999999998</v>
+      </c>
+      <c r="K84">
+        <v>294.02659999999997</v>
+      </c>
+      <c r="L84">
+        <v>761.86759999999902</v>
+      </c>
+      <c r="M84">
+        <v>3152.8069</v>
+      </c>
+      <c r="N84">
+        <v>8059.5370999999996</v>
+      </c>
+      <c r="O84">
+        <v>1595.3837999999901</v>
+      </c>
+    </row>
+    <row r="85" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J85">
+        <v>294.82380000000001</v>
+      </c>
+      <c r="K85">
+        <v>297.6397</v>
+      </c>
+      <c r="L85">
+        <v>735.56709999999998</v>
+      </c>
+      <c r="M85">
+        <v>3140.2552999999998</v>
+      </c>
+      <c r="N85">
+        <v>8059.4525999999996</v>
+      </c>
+      <c r="O85">
+        <v>1793.87389999999</v>
+      </c>
+    </row>
+    <row r="86" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J86">
+        <v>295.6182</v>
+      </c>
+      <c r="K86">
+        <v>300.015299999999</v>
+      </c>
+      <c r="L86">
+        <v>737.09209999999996</v>
+      </c>
+      <c r="M86">
+        <v>3153.5309999999999</v>
+      </c>
+      <c r="N86">
+        <v>8048.1610999999903</v>
+      </c>
+      <c r="O86">
+        <v>1584.5826999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J87">
+        <v>293.80739999999997</v>
+      </c>
+      <c r="K87">
+        <v>296.999699999999</v>
+      </c>
+      <c r="L87">
+        <v>743.48339999999996</v>
+      </c>
+      <c r="M87">
+        <v>3164.5211999999901</v>
+      </c>
+      <c r="N87">
+        <v>8050.7394999999997</v>
+      </c>
+      <c r="O87">
+        <v>1810.9955</v>
+      </c>
+    </row>
+    <row r="88" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J88">
+        <v>294.22719999999998</v>
+      </c>
+      <c r="K88">
+        <v>294.02409999999998</v>
+      </c>
+      <c r="L88">
+        <v>847.54459999999995</v>
+      </c>
+      <c r="M88">
+        <v>3180.8208999999902</v>
+      </c>
+      <c r="N88">
+        <v>8049.2026999999998</v>
+      </c>
+      <c r="O88">
+        <v>1722.876</v>
+      </c>
+    </row>
+    <row r="89" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J89">
+        <v>298.841599999999</v>
+      </c>
+      <c r="K89">
+        <v>296.21469999999999</v>
+      </c>
+      <c r="L89">
+        <v>725.59709999999995</v>
+      </c>
+      <c r="M89">
+        <v>3163.4514999999901</v>
+      </c>
+      <c r="N89">
+        <v>8037.0704999999998</v>
+      </c>
+      <c r="O89">
+        <v>1679.6984</v>
+      </c>
+    </row>
+    <row r="90" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J90">
+        <v>1132.2566999999999</v>
+      </c>
+      <c r="K90">
+        <v>293.5086</v>
+      </c>
+      <c r="L90">
+        <v>739.88679999999999</v>
+      </c>
+      <c r="M90">
+        <v>3174.9656</v>
+      </c>
+      <c r="N90">
+        <v>8055.3284999999996</v>
+      </c>
+      <c r="O90">
+        <v>1808.018</v>
+      </c>
+    </row>
+    <row r="91" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J91">
+        <v>293.42590000000001</v>
+      </c>
+      <c r="K91">
+        <v>594.65530000000001</v>
+      </c>
+      <c r="L91">
+        <v>746.47429999999997</v>
+      </c>
+      <c r="M91">
+        <v>3175.1569999999901</v>
+      </c>
+      <c r="N91">
+        <v>8050.5245999999997</v>
+      </c>
+      <c r="O91">
+        <v>1748.8302999999901</v>
+      </c>
+    </row>
+    <row r="92" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J92">
+        <v>299.27249999999998</v>
+      </c>
+      <c r="K92">
+        <v>326.57049999999998</v>
+      </c>
+      <c r="L92">
+        <v>750.42869999999903</v>
+      </c>
+      <c r="M92">
+        <v>3168.2572</v>
+      </c>
+      <c r="N92">
+        <v>8077.9510999999902</v>
+      </c>
+      <c r="O92">
+        <v>2569.2774999999901</v>
+      </c>
+    </row>
+    <row r="93" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J93">
+        <v>292.87889999999999</v>
+      </c>
+      <c r="K93">
+        <v>300.12299999999999</v>
+      </c>
+      <c r="L93">
+        <v>771.97569999999996</v>
+      </c>
+      <c r="M93">
+        <v>3145.9087999999902</v>
+      </c>
+      <c r="N93">
+        <v>8096.0796</v>
+      </c>
+      <c r="O93">
+        <v>1533.4439</v>
+      </c>
+    </row>
+    <row r="94" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J94">
+        <v>300.71260000000001</v>
+      </c>
+      <c r="K94">
+        <v>302.65539999999999</v>
+      </c>
+      <c r="L94">
+        <v>783.0548</v>
+      </c>
+      <c r="M94">
+        <v>3148.3218999999999</v>
+      </c>
+      <c r="N94">
+        <v>8048.3236999999999</v>
+      </c>
+      <c r="O94">
+        <v>1591.5672999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J95">
+        <v>296.51459999999997</v>
+      </c>
+      <c r="K95">
+        <v>301.49950000000001</v>
+      </c>
+      <c r="L95">
+        <v>742.26509999999996</v>
+      </c>
+      <c r="M95">
+        <v>3162.0264999999999</v>
+      </c>
+      <c r="N95">
+        <v>8055.0271999999904</v>
+      </c>
+      <c r="O95">
+        <v>1669.3715</v>
+      </c>
+    </row>
+    <row r="96" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J96">
+        <v>302.33499999999998</v>
+      </c>
+      <c r="K96">
+        <v>298.41899999999998</v>
+      </c>
+      <c r="L96">
+        <v>769.0489</v>
+      </c>
+      <c r="M96">
+        <v>3161.4141</v>
+      </c>
+      <c r="N96">
+        <v>8045.5751999999902</v>
+      </c>
+      <c r="O96">
+        <v>1784.4747</v>
+      </c>
+    </row>
+    <row r="97" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J97">
+        <v>293.62950000000001</v>
+      </c>
+      <c r="K97">
+        <v>310.02249999999998</v>
+      </c>
+      <c r="L97">
+        <v>774.94920000000002</v>
+      </c>
+      <c r="M97">
+        <v>3151.5893999999998</v>
+      </c>
+      <c r="N97">
+        <v>8050.9429</v>
+      </c>
+      <c r="O97">
+        <v>1833.6442</v>
+      </c>
+    </row>
+    <row r="98" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J98">
+        <v>292.0797</v>
+      </c>
+      <c r="K98">
+        <v>300.93599999999998</v>
+      </c>
+      <c r="L98">
+        <v>785.97199999999998</v>
+      </c>
+      <c r="M98">
+        <v>3148.9508999999998</v>
+      </c>
+      <c r="N98">
+        <v>8056.2304999999997</v>
+      </c>
+      <c r="O98">
+        <v>1868.9514999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J99">
+        <v>292.9633</v>
+      </c>
+      <c r="K99">
+        <v>1120.8651</v>
+      </c>
+      <c r="L99">
+        <v>756.16579999999999</v>
+      </c>
+      <c r="M99">
+        <v>3152.1086999999902</v>
+      </c>
+      <c r="N99">
+        <v>8045.0355999999902</v>
+      </c>
+      <c r="O99">
+        <v>1750.3674999999901</v>
+      </c>
+    </row>
+    <row r="100" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J100">
+        <v>572.25439999999901</v>
+      </c>
+      <c r="K100">
+        <v>300.383499999999</v>
+      </c>
+      <c r="L100">
+        <v>740.7799</v>
+      </c>
+      <c r="M100">
+        <v>3165.7462</v>
+      </c>
+      <c r="N100">
+        <v>8062.8887999999997</v>
+      </c>
+      <c r="O100">
+        <v>1693.0784999999901</v>
+      </c>
+    </row>
+    <row r="101" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J101">
+        <v>294.910699999999</v>
+      </c>
+      <c r="K101">
+        <v>298.35910000000001</v>
+      </c>
+      <c r="L101">
+        <v>756.50529999999901</v>
+      </c>
+      <c r="M101">
+        <v>3166.5834999999902</v>
+      </c>
+      <c r="N101">
+        <v>8028.2557999999999</v>
+      </c>
+      <c r="O101">
+        <v>2497.982</v>
+      </c>
+    </row>
+    <row r="102" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J102">
+        <v>293.87349999999998</v>
+      </c>
+      <c r="K102">
+        <v>298.536799999999</v>
+      </c>
+      <c r="L102">
+        <v>732.96119999999996</v>
+      </c>
+      <c r="M102">
+        <v>3152.1242999999999</v>
+      </c>
+      <c r="N102">
+        <v>8047.3743999999997</v>
+      </c>
+      <c r="O102">
+        <v>1626.6077</v>
+      </c>
+    </row>
+    <row r="103" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J103">
+        <v>291.7099</v>
+      </c>
+      <c r="K103">
+        <v>304.52019999999999</v>
+      </c>
+      <c r="L103">
+        <v>772.98569999999995</v>
+      </c>
+      <c r="M103">
+        <v>3162.5983999999999</v>
+      </c>
+      <c r="N103">
+        <v>8034.3132999999998</v>
+      </c>
+      <c r="O103">
+        <v>1662.7876999999901</v>
+      </c>
+    </row>
+    <row r="104" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J104">
+        <v>298.75219999999899</v>
+      </c>
+      <c r="K104">
+        <v>301.9862</v>
+      </c>
+      <c r="L104">
+        <v>729.03739999999902</v>
+      </c>
+      <c r="M104">
+        <v>3162.8476999999998</v>
+      </c>
+      <c r="N104">
+        <v>8036.2285999999904</v>
+      </c>
+      <c r="O104">
+        <v>1857.4863</v>
+      </c>
+    </row>
+    <row r="105" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J105">
+        <v>301.96769999999998</v>
+      </c>
+      <c r="K105">
+        <v>300.42070000000001</v>
+      </c>
+      <c r="L105">
+        <v>780.18099999999902</v>
+      </c>
+      <c r="M105">
+        <v>3164.8419999999901</v>
+      </c>
+      <c r="N105">
+        <v>8050.9195</v>
+      </c>
+      <c r="O105">
+        <v>1595.2618</v>
+      </c>
+    </row>
+    <row r="106" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J106">
+        <v>293.06799999999998</v>
+      </c>
+      <c r="K106">
+        <v>299.76499999999999</v>
+      </c>
+      <c r="L106">
+        <v>751.57039999999995</v>
+      </c>
+      <c r="M106">
+        <v>3158.1324999999902</v>
+      </c>
+      <c r="N106">
+        <v>8025.5039999999999</v>
+      </c>
+      <c r="O106">
+        <v>1760.2684999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J107">
+        <v>295.37729999999999</v>
+      </c>
+      <c r="K107">
+        <v>295.67399999999998</v>
+      </c>
+      <c r="L107">
+        <v>738.15829999999903</v>
+      </c>
+      <c r="M107">
+        <v>3164.2509</v>
+      </c>
+      <c r="N107">
+        <v>8063.2691999999997</v>
+      </c>
+      <c r="O107">
+        <v>1648.2085</v>
+      </c>
+    </row>
+    <row r="108" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J108">
+        <v>574.12360000000001</v>
+      </c>
+      <c r="K108">
+        <v>1445.0489</v>
+      </c>
+      <c r="L108">
+        <v>733.70719999999994</v>
+      </c>
+      <c r="M108">
+        <v>3169.7529</v>
+      </c>
+      <c r="N108">
+        <v>8047.9759999999997</v>
+      </c>
+      <c r="O108">
+        <v>1733.433</v>
+      </c>
+    </row>
+    <row r="109" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J109">
+        <v>295.74700000000001</v>
+      </c>
+      <c r="K109">
+        <v>296.2527</v>
+      </c>
+      <c r="L109">
+        <v>780.6816</v>
+      </c>
+      <c r="M109">
+        <v>3170.4152999999901</v>
+      </c>
+      <c r="N109">
+        <v>8058.3652999999904</v>
+      </c>
+      <c r="O109">
+        <v>1794.2318</v>
+      </c>
+    </row>
+    <row r="110" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J110">
+        <v>297.8295</v>
+      </c>
+      <c r="K110">
+        <v>292.10480000000001</v>
+      </c>
+      <c r="L110">
+        <v>744.15390000000002</v>
+      </c>
+      <c r="M110">
+        <v>3167.5117999999902</v>
+      </c>
+      <c r="N110">
+        <v>8107.4108999999999</v>
+      </c>
+      <c r="O110">
+        <v>2604.7444999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J111">
+        <v>298.13979999999998</v>
+      </c>
+      <c r="K111">
+        <v>292.91890000000001</v>
+      </c>
+      <c r="L111">
+        <v>776.06869999999901</v>
+      </c>
+      <c r="M111">
+        <v>3175.0972999999999</v>
+      </c>
+      <c r="N111">
+        <v>8044.2028999999902</v>
+      </c>
+      <c r="O111">
+        <v>1811.4872</v>
+      </c>
+    </row>
+    <row r="112" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J112">
+        <v>306.87909999999999</v>
+      </c>
+      <c r="K112">
+        <v>307.86899999999901</v>
+      </c>
+      <c r="L112">
+        <v>741.66079999999999</v>
+      </c>
+      <c r="M112">
+        <v>3162.1812999999902</v>
+      </c>
+      <c r="N112">
+        <v>8063.4614999999903</v>
+      </c>
+      <c r="O112">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="113" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J113">
+        <v>298.65179999999998</v>
+      </c>
+      <c r="K113">
+        <v>295.98570000000001</v>
+      </c>
+      <c r="L113">
+        <v>747.16779999999903</v>
+      </c>
+      <c r="M113">
+        <v>3163.0279999999998</v>
+      </c>
+      <c r="N113">
+        <v>8048.7617999999902</v>
+      </c>
+      <c r="O113">
+        <v>1657.5859</v>
+      </c>
+    </row>
+    <row r="114" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J114">
+        <v>296.89699999999999</v>
+      </c>
+      <c r="K114">
+        <v>297.85219999999998</v>
+      </c>
+      <c r="L114">
+        <v>752.9665</v>
+      </c>
+      <c r="M114">
+        <v>3233.6616999999901</v>
+      </c>
+      <c r="N114">
+        <v>8060.6174000000001</v>
+      </c>
+      <c r="O114">
+        <v>1893.95909999999</v>
+      </c>
+    </row>
+    <row r="115" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J115">
+        <v>297.27789999999999</v>
+      </c>
+      <c r="K115">
+        <v>295.19839999999999</v>
+      </c>
+      <c r="L115">
+        <v>780.12389999999903</v>
+      </c>
+      <c r="M115">
+        <v>3268.7076999999999</v>
+      </c>
+      <c r="N115">
+        <v>8057.41</v>
+      </c>
+      <c r="O115">
+        <v>1732.6089999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J116">
+        <v>295.66079999999999</v>
+      </c>
+      <c r="K116">
+        <v>292.86250000000001</v>
+      </c>
+      <c r="L116">
+        <v>795.70169999999996</v>
+      </c>
+      <c r="M116">
+        <v>3174.4892999999902</v>
+      </c>
+      <c r="N116">
+        <v>8054.7239</v>
+      </c>
+      <c r="O116">
+        <v>1746.5752</v>
+      </c>
+    </row>
+    <row r="117" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J117">
+        <v>594.87519999999995</v>
+      </c>
+      <c r="K117">
+        <v>1172.8295000000001</v>
+      </c>
+      <c r="L117">
+        <v>780.49009999999998</v>
+      </c>
+      <c r="M117">
+        <v>3152.8944999999999</v>
+      </c>
+      <c r="N117">
+        <v>8077.2873</v>
+      </c>
+      <c r="O117">
+        <v>1743.3842</v>
+      </c>
+    </row>
+    <row r="118" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J118">
+        <v>298.79059999999998</v>
+      </c>
+      <c r="K118">
+        <v>292.90719999999999</v>
+      </c>
+      <c r="L118">
+        <v>736.67669999999998</v>
+      </c>
+      <c r="M118">
+        <v>3181.3577</v>
+      </c>
+      <c r="N118">
+        <v>8043.8772999999901</v>
+      </c>
+      <c r="O118">
+        <v>1727.0675999999901</v>
+      </c>
+    </row>
+    <row r="119" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J119">
+        <v>294.06009999999998</v>
+      </c>
+      <c r="K119">
+        <v>299.18619999999999</v>
+      </c>
+      <c r="L119">
+        <v>740.08989999999994</v>
+      </c>
+      <c r="M119">
+        <v>3165.6857999999902</v>
+      </c>
+      <c r="N119">
+        <v>8053.5946999999996</v>
+      </c>
+      <c r="O119">
+        <v>2594.6824999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J120">
+        <v>293.84039999999999</v>
+      </c>
+      <c r="K120">
+        <v>297.536599999999</v>
+      </c>
+      <c r="L120">
+        <v>743.77719999999999</v>
+      </c>
+      <c r="M120">
+        <v>3184.7896000000001</v>
+      </c>
+      <c r="N120">
+        <v>8049.5580999999902</v>
+      </c>
+      <c r="O120">
+        <v>1789.4661999999901</v>
+      </c>
+    </row>
+    <row r="121" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J121">
+        <v>295.19389999999999</v>
+      </c>
+      <c r="K121">
+        <v>292.87020000000001</v>
+      </c>
+      <c r="L121">
+        <v>778.04229999999995</v>
+      </c>
+      <c r="M121">
+        <v>3170.6950999999999</v>
+      </c>
+      <c r="N121">
+        <v>8049.5297999999902</v>
+      </c>
+      <c r="O121">
+        <v>1733.8099</v>
+      </c>
+    </row>
+    <row r="122" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J122">
+        <v>299.0521</v>
+      </c>
+      <c r="K122">
+        <v>295.80329999999998</v>
+      </c>
+      <c r="L122">
+        <v>753.33429999999998</v>
+      </c>
+      <c r="M122">
+        <v>3160.8588</v>
+      </c>
+      <c r="N122">
+        <v>8046.4267</v>
+      </c>
+      <c r="O122">
+        <v>1749.3116</v>
+      </c>
+    </row>
+    <row r="123" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J123">
+        <v>301.32429999999999</v>
+      </c>
+      <c r="K123">
+        <v>298.51949999999999</v>
+      </c>
+      <c r="L123">
+        <v>760.10910000000001</v>
+      </c>
+      <c r="M123">
+        <v>3154.7466999999901</v>
+      </c>
+      <c r="N123">
+        <v>8042.5962999999902</v>
+      </c>
+      <c r="O123">
+        <v>1573.3876</v>
+      </c>
+    </row>
+    <row r="124" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J124">
+        <v>296.727699999999</v>
+      </c>
+      <c r="K124">
+        <v>300.13499999999999</v>
+      </c>
+      <c r="L124">
+        <v>795.77689999999996</v>
+      </c>
+      <c r="M124">
+        <v>3144.3530999999998</v>
+      </c>
+      <c r="N124">
+        <v>8027.3195999999998</v>
+      </c>
+      <c r="O124">
+        <v>1807.4625999999901</v>
+      </c>
+    </row>
+    <row r="125" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J125">
+        <v>301.78190000000001</v>
+      </c>
+      <c r="K125">
+        <v>295.87779999999998</v>
+      </c>
+      <c r="L125">
+        <v>773.04399999999998</v>
+      </c>
+      <c r="M125">
+        <v>3149.0665999999901</v>
+      </c>
+      <c r="N125">
+        <v>8037.6673000000001</v>
+      </c>
+      <c r="O125">
+        <v>1653.6580999999901</v>
+      </c>
+    </row>
+    <row r="126" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J126">
+        <v>586.79099999999903</v>
+      </c>
+      <c r="K126">
+        <v>1133.692</v>
+      </c>
+      <c r="L126">
+        <v>778.19889999999998</v>
+      </c>
+      <c r="M126">
+        <v>3150.7541999999999</v>
+      </c>
+      <c r="N126">
+        <v>8067.4094999999998</v>
+      </c>
+      <c r="O126">
+        <v>1966.6723</v>
+      </c>
+    </row>
+    <row r="127" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J127">
+        <v>311.54919999999998</v>
+      </c>
+      <c r="K127">
+        <v>297.4171</v>
+      </c>
+      <c r="L127">
+        <v>764.92610000000002</v>
+      </c>
+      <c r="M127">
+        <v>3168.3771999999999</v>
+      </c>
+      <c r="N127">
+        <v>8092.6963999999998</v>
+      </c>
+      <c r="O127">
+        <v>2514.3631</v>
+      </c>
+    </row>
+    <row r="128" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J128">
+        <v>307.41469999999998</v>
+      </c>
+      <c r="K128">
+        <v>295.22559999999999</v>
+      </c>
+      <c r="L128">
+        <v>744.13249999999903</v>
+      </c>
+      <c r="M128">
+        <v>3150.1120000000001</v>
+      </c>
+      <c r="N128">
+        <v>8049.7230999999902</v>
+      </c>
+      <c r="O128">
+        <v>1900.3081999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J129">
+        <v>314.27109999999999</v>
+      </c>
+      <c r="K129">
+        <v>364.357699999999</v>
+      </c>
+      <c r="L129">
+        <v>757.98429999999996</v>
+      </c>
+      <c r="M129">
+        <v>3148.8011999999999</v>
+      </c>
+      <c r="N129">
+        <v>8028.1329999999998</v>
+      </c>
+      <c r="O129">
+        <v>1899.7720999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J130">
+        <v>319.036</v>
+      </c>
+      <c r="K130">
+        <v>295.246299999999</v>
+      </c>
+      <c r="L130">
+        <v>784.87239999999997</v>
+      </c>
+      <c r="M130">
+        <v>3174.6776999999902</v>
+      </c>
+      <c r="N130">
+        <v>8066.0911999999998</v>
+      </c>
+      <c r="O130">
+        <v>1800.6497999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J131">
+        <v>311.12270000000001</v>
+      </c>
+      <c r="K131">
+        <v>297.082099999999</v>
+      </c>
+      <c r="L131">
+        <v>771.58069999999998</v>
+      </c>
+      <c r="M131">
+        <v>3159.6641999999902</v>
+      </c>
+      <c r="N131">
+        <v>8046.6347999999998</v>
+      </c>
+      <c r="O131">
+        <v>1859.2593999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J132">
+        <v>307.2319</v>
+      </c>
+      <c r="K132">
+        <v>306.2407</v>
+      </c>
+      <c r="L132">
+        <v>756.13189999999997</v>
+      </c>
+      <c r="M132">
+        <v>3168.7865999999999</v>
+      </c>
+      <c r="N132">
+        <v>8069.8352999999997</v>
+      </c>
+      <c r="O132">
+        <v>1666.1009999999901</v>
+      </c>
+    </row>
+    <row r="133" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J133">
+        <v>308.41609999999997</v>
+      </c>
+      <c r="K133">
+        <v>298.9692</v>
+      </c>
+      <c r="L133">
+        <v>740.85219999999902</v>
+      </c>
+      <c r="M133">
+        <v>3151.8355999999999</v>
+      </c>
+      <c r="N133">
+        <v>8044.3414999999904</v>
+      </c>
+      <c r="O133">
+        <v>1826.87659999999</v>
+      </c>
+    </row>
+    <row r="134" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J134">
+        <v>319.60489999999999</v>
+      </c>
+      <c r="K134">
+        <v>294.3229</v>
+      </c>
+      <c r="L134">
+        <v>741.76059999999995</v>
+      </c>
+      <c r="M134">
+        <v>3145.2638999999999</v>
+      </c>
+      <c r="N134">
+        <v>8041.8654999999999</v>
+      </c>
+      <c r="O134">
+        <v>1655.9886999999901</v>
+      </c>
+    </row>
+    <row r="135" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J135">
+        <v>582.55039999999997</v>
+      </c>
+      <c r="K135">
+        <v>1445.9358</v>
+      </c>
+      <c r="L135">
+        <v>759.0684</v>
+      </c>
+      <c r="M135">
+        <v>3158.8217999999902</v>
+      </c>
+      <c r="N135">
+        <v>8057.0291999999999</v>
+      </c>
+      <c r="O135">
+        <v>1833.2122999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J136">
+        <v>309.08769999999998</v>
+      </c>
+      <c r="K136">
+        <v>297.263499999999</v>
+      </c>
+      <c r="L136">
+        <v>752.30340000000001</v>
+      </c>
+      <c r="M136">
+        <v>3142.5666999999999</v>
+      </c>
+      <c r="N136">
+        <v>8054.0496999999996</v>
+      </c>
+      <c r="O136">
+        <v>2707.8548999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J137">
+        <v>293.450299999999</v>
+      </c>
+      <c r="K137">
+        <v>293.96319999999997</v>
+      </c>
+      <c r="L137">
+        <v>759.26990000000001</v>
+      </c>
+      <c r="M137">
+        <v>3155.5634</v>
+      </c>
+      <c r="N137">
+        <v>8041.4946999999902</v>
+      </c>
+      <c r="O137">
+        <v>1598.2967999999901</v>
+      </c>
+    </row>
+    <row r="138" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J138">
+        <v>296.207999999999</v>
+      </c>
+      <c r="K138">
+        <v>295.8175</v>
+      </c>
+      <c r="L138">
+        <v>754.17660000000001</v>
+      </c>
+      <c r="M138">
+        <v>3151.9423999999999</v>
+      </c>
+      <c r="N138">
+        <v>8059.9916999999996</v>
+      </c>
+      <c r="O138">
+        <v>1845.31869999999</v>
+      </c>
+    </row>
+    <row r="139" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J139">
+        <v>297.0582</v>
+      </c>
+      <c r="K139">
+        <v>297.879199999999</v>
+      </c>
+      <c r="L139">
+        <v>743.08039999999903</v>
+      </c>
+      <c r="M139">
+        <v>3160.5530999999901</v>
+      </c>
+      <c r="N139">
+        <v>8060.5789999999997</v>
+      </c>
+      <c r="O139">
+        <v>1553.8942999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J140">
+        <v>296.59559999999999</v>
+      </c>
+      <c r="K140">
+        <v>296.0172</v>
+      </c>
+      <c r="L140">
+        <v>735.94449999999995</v>
+      </c>
+      <c r="M140">
+        <v>3171.8752999999901</v>
+      </c>
+      <c r="N140">
+        <v>8040.1205999999902</v>
+      </c>
+      <c r="O140">
+        <v>1890.27699999999</v>
+      </c>
+    </row>
+    <row r="141" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J141">
+        <v>302.34870000000001</v>
+      </c>
+      <c r="K141">
+        <v>294.12630000000001</v>
+      </c>
+      <c r="L141">
+        <v>776.77239999999995</v>
+      </c>
+      <c r="M141">
+        <v>3160.7347999999902</v>
+      </c>
+      <c r="N141">
+        <v>8063.0989999999902</v>
+      </c>
+      <c r="O141">
+        <v>1648.9044999999901</v>
+      </c>
+    </row>
+    <row r="142" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J142">
+        <v>302.2466</v>
+      </c>
+      <c r="K142">
+        <v>301.622399999999</v>
+      </c>
+      <c r="L142">
+        <v>739.41399999999999</v>
+      </c>
+      <c r="M142">
+        <v>3172.2682</v>
+      </c>
+      <c r="N142">
+        <v>8049.1541999999999</v>
+      </c>
+      <c r="O142">
+        <v>1755.5162</v>
+      </c>
+    </row>
+    <row r="143" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J143">
+        <v>301.6234</v>
+      </c>
+      <c r="K143">
+        <v>296.6284</v>
+      </c>
+      <c r="L143">
+        <v>781.71249999999998</v>
+      </c>
+      <c r="M143">
+        <v>3167.1007999999902</v>
+      </c>
+      <c r="N143">
+        <v>8043.4696999999996</v>
+      </c>
+      <c r="O143">
+        <v>1826.1333</v>
+      </c>
+    </row>
+    <row r="144" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J144">
+        <v>575.15699999999902</v>
+      </c>
+      <c r="K144">
+        <v>1190.2142999999901</v>
+      </c>
+      <c r="L144">
+        <v>738.08920000000001</v>
+      </c>
+      <c r="M144">
+        <v>3133.5803000000001</v>
+      </c>
+      <c r="N144">
+        <v>8042.1966999999904</v>
+      </c>
+      <c r="O144">
+        <v>1832.0762999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J145">
+        <v>300.988799999999</v>
+      </c>
+      <c r="K145">
+        <v>299.67739999999998</v>
+      </c>
+      <c r="L145">
+        <v>756.80729999999903</v>
+      </c>
+      <c r="M145">
+        <v>3220.6016999999902</v>
+      </c>
+      <c r="N145">
+        <v>8049.5293999999903</v>
+      </c>
+      <c r="O145">
+        <v>2734.9713999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J146">
+        <v>306.2706</v>
+      </c>
+      <c r="K146">
+        <v>291.08330000000001</v>
+      </c>
+      <c r="L146">
+        <v>776.009399999999</v>
+      </c>
+      <c r="M146">
+        <v>3165.2914999999998</v>
+      </c>
+      <c r="N146">
+        <v>8041.1481999999996</v>
+      </c>
+      <c r="O146">
+        <v>1643.5181</v>
+      </c>
+    </row>
+    <row r="147" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J147">
+        <v>296.48589999999899</v>
+      </c>
+      <c r="K147">
+        <v>297.7971</v>
+      </c>
+      <c r="L147">
+        <v>771.09739999999999</v>
+      </c>
+      <c r="M147">
+        <v>3123.3152</v>
+      </c>
+      <c r="N147">
+        <v>8038.8267999999998</v>
+      </c>
+      <c r="O147">
+        <v>1812.3236999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J148">
+        <v>296.0154</v>
+      </c>
+      <c r="K148">
+        <v>298.245599999999</v>
+      </c>
+      <c r="L148">
+        <v>766.57330000000002</v>
+      </c>
+      <c r="M148">
+        <v>3140.9793999999902</v>
+      </c>
+      <c r="N148">
+        <v>8042.8723</v>
+      </c>
+      <c r="O148">
+        <v>1775.18189999999</v>
+      </c>
+    </row>
+    <row r="149" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J149">
+        <v>300.65469999999999</v>
+      </c>
+      <c r="K149">
+        <v>301.983599999999</v>
+      </c>
+      <c r="L149">
+        <v>770.4873</v>
+      </c>
+      <c r="M149">
+        <v>3168.7754999999902</v>
+      </c>
+      <c r="N149">
+        <v>8041.7860999999903</v>
+      </c>
+      <c r="O149">
+        <v>1637.9480999999901</v>
+      </c>
+    </row>
+    <row r="150" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J150">
+        <v>300.37610000000001</v>
+      </c>
+      <c r="K150">
+        <v>306.792499999999</v>
+      </c>
+      <c r="L150">
+        <v>765.56349999999998</v>
+      </c>
+      <c r="M150">
+        <v>3160.2060999999999</v>
+      </c>
+      <c r="N150">
+        <v>8049.5954999999904</v>
+      </c>
+      <c r="O150">
+        <v>1750.1079999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J151">
+        <v>298.1198</v>
+      </c>
+      <c r="K151">
+        <v>293.84609999999998</v>
+      </c>
+      <c r="L151">
+        <v>739.86689999999999</v>
+      </c>
+      <c r="M151">
+        <v>3168.5901999999901</v>
+      </c>
+      <c r="N151">
+        <v>8062.5325999999995</v>
+      </c>
+      <c r="O151">
+        <v>1722.7992999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J152">
+        <v>302.687399999999</v>
+      </c>
+      <c r="K152">
+        <v>1181.9026999999901</v>
+      </c>
+      <c r="L152">
+        <v>737.02080000000001</v>
+      </c>
+      <c r="M152">
+        <v>3148.7124999999901</v>
+      </c>
+      <c r="N152">
+        <v>8042.8621999999996</v>
+      </c>
+      <c r="O152">
+        <v>1809.7094</v>
+      </c>
+    </row>
+    <row r="153" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J153">
+        <v>638.30219999999997</v>
+      </c>
+      <c r="K153">
+        <v>293.00099999999998</v>
+      </c>
+      <c r="L153">
+        <v>748.38990000000001</v>
+      </c>
+      <c r="M153">
+        <v>3150.1931999999902</v>
+      </c>
+      <c r="N153">
+        <v>8042.8675999999996</v>
+      </c>
+      <c r="O153">
+        <v>1777.0448999999901</v>
+      </c>
+    </row>
+    <row r="154" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J154">
+        <v>310.79899999999998</v>
+      </c>
+      <c r="K154">
+        <v>298.220699999999</v>
+      </c>
+      <c r="L154">
+        <v>745.57399999999996</v>
+      </c>
+      <c r="M154">
+        <v>3152.6637000000001</v>
+      </c>
+      <c r="N154">
+        <v>8034.8099999999904</v>
+      </c>
+      <c r="O154">
+        <v>2838.4191000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J155">
+        <v>299.577799999999</v>
+      </c>
+      <c r="K155">
+        <v>295.23719999999997</v>
+      </c>
+      <c r="L155">
+        <v>750.60419999999999</v>
+      </c>
+      <c r="M155">
+        <v>3155.5808999999999</v>
+      </c>
+      <c r="N155">
+        <v>8058.3261999999904</v>
+      </c>
+      <c r="O155">
+        <v>2033.3718999999901</v>
+      </c>
+    </row>
+    <row r="156" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J156">
+        <v>300.43029999999999</v>
+      </c>
+      <c r="K156">
+        <v>300.58359999999999</v>
+      </c>
+      <c r="L156">
+        <v>797.89109999999903</v>
+      </c>
+      <c r="M156">
+        <v>3153.2166999999999</v>
+      </c>
+      <c r="N156">
+        <v>8076.0315000000001</v>
+      </c>
+      <c r="O156">
+        <v>1970.4474</v>
+      </c>
+    </row>
+    <row r="157" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J157">
+        <v>299.0967</v>
+      </c>
+      <c r="K157">
+        <v>299.60210000000001</v>
+      </c>
+      <c r="L157">
+        <v>743.32729999999901</v>
+      </c>
+      <c r="M157">
+        <v>3151.0477000000001</v>
+      </c>
+      <c r="N157">
+        <v>8063.8527999999997</v>
+      </c>
+      <c r="O157">
+        <v>1635.1753999999901</v>
+      </c>
+    </row>
+    <row r="158" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J158">
+        <v>301.94349999999997</v>
+      </c>
+      <c r="K158">
+        <v>305.35660000000001</v>
+      </c>
+      <c r="L158">
+        <v>747.6336</v>
+      </c>
+      <c r="M158">
+        <v>3168.4416999999999</v>
+      </c>
+      <c r="N158">
+        <v>8044.6682000000001</v>
+      </c>
+      <c r="O158">
+        <v>1716.4601</v>
+      </c>
+    </row>
+    <row r="159" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J159">
+        <v>310.245599999999</v>
+      </c>
+      <c r="K159">
+        <v>296.746299999999</v>
+      </c>
+      <c r="L159">
+        <v>748.61339999999996</v>
+      </c>
+      <c r="M159">
+        <v>3154.4881</v>
+      </c>
+      <c r="N159">
+        <v>8050.6915999999901</v>
+      </c>
+      <c r="O159">
+        <v>1922.33949999999</v>
+      </c>
+    </row>
+    <row r="160" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J160">
+        <v>300.5985</v>
+      </c>
+      <c r="K160">
+        <v>298.5317</v>
+      </c>
+      <c r="L160">
+        <v>763.04689999999903</v>
+      </c>
+      <c r="M160">
+        <v>3163.6529</v>
+      </c>
+      <c r="N160">
+        <v>8045.1290999999901</v>
+      </c>
+      <c r="O160">
+        <v>1734.3483999999901</v>
+      </c>
+    </row>
+    <row r="161" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J161">
+        <v>310.72969999999998</v>
+      </c>
+      <c r="K161">
+        <v>1444.8651</v>
+      </c>
+      <c r="L161">
+        <v>742.12779999999998</v>
+      </c>
+      <c r="M161">
+        <v>3141.6127999999999</v>
+      </c>
+      <c r="N161">
+        <v>8081.8948999999902</v>
+      </c>
+      <c r="O161">
+        <v>1583.3915</v>
+      </c>
+    </row>
+    <row r="162" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J162">
+        <v>613.87559999999996</v>
+      </c>
+      <c r="K162">
+        <v>291.22669999999999</v>
+      </c>
+      <c r="L162">
+        <v>791.36099999999999</v>
+      </c>
+      <c r="M162">
+        <v>3164.0149999999999</v>
+      </c>
+      <c r="N162">
+        <v>8045.4472999999998</v>
+      </c>
+      <c r="O162">
+        <v>1532.596</v>
+      </c>
+    </row>
+    <row r="163" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J163">
+        <v>299.61649999999997</v>
+      </c>
+      <c r="K163">
+        <v>293.06319999999999</v>
+      </c>
+      <c r="L163">
+        <v>756.3827</v>
+      </c>
+      <c r="M163">
+        <v>3161.7469999999998</v>
+      </c>
+      <c r="N163">
+        <v>8044.4155999999903</v>
+      </c>
+      <c r="O163">
+        <v>2720.5402999999901</v>
+      </c>
+    </row>
+    <row r="164" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J164">
+        <v>304.36410000000001</v>
+      </c>
+      <c r="K164">
+        <v>294.56540000000001</v>
+      </c>
+      <c r="L164">
+        <v>744.81200000000001</v>
+      </c>
+      <c r="M164">
+        <v>3176.7289999999998</v>
+      </c>
+      <c r="N164">
+        <v>8078.3921999999902</v>
+      </c>
+      <c r="O164">
+        <v>1729.759</v>
+      </c>
+    </row>
+    <row r="165" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J165">
+        <v>305.47460000000001</v>
+      </c>
+      <c r="K165">
+        <v>295.5444</v>
+      </c>
+      <c r="L165">
+        <v>752.77009999999996</v>
+      </c>
+      <c r="M165">
+        <v>3166.7561000000001</v>
+      </c>
+      <c r="N165">
+        <v>8054.5162</v>
+      </c>
+      <c r="O165">
+        <v>1808.7913999999901</v>
+      </c>
+    </row>
+    <row r="166" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J166">
+        <v>296.62049999999999</v>
+      </c>
+      <c r="K166">
+        <v>295.2543</v>
+      </c>
+      <c r="L166">
+        <v>745.58150000000001</v>
+      </c>
+      <c r="M166">
+        <v>3153.7815999999998</v>
+      </c>
+      <c r="N166">
+        <v>8040.2550999999903</v>
+      </c>
+      <c r="O166">
+        <v>1687.0534</v>
+      </c>
+    </row>
+    <row r="167" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J167">
+        <v>297.49770000000001</v>
+      </c>
+      <c r="K167">
+        <v>295.2534</v>
+      </c>
+      <c r="L167">
+        <v>777.19970000000001</v>
+      </c>
+      <c r="M167">
+        <v>3154.9065000000001</v>
+      </c>
+      <c r="N167">
+        <v>8063.5747999999903</v>
+      </c>
+      <c r="O167">
+        <v>1595.5265999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J168">
+        <v>294.03469999999999</v>
+      </c>
+      <c r="K168">
+        <v>305.16030000000001</v>
+      </c>
+      <c r="L168">
+        <v>791.44740000000002</v>
+      </c>
+      <c r="M168">
+        <v>3167.7356</v>
+      </c>
+      <c r="N168">
+        <v>8085.4030999999904</v>
+      </c>
+      <c r="O168">
+        <v>1613.0744999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J169">
+        <v>297.325099999999</v>
+      </c>
+      <c r="K169">
+        <v>312.88049999999998</v>
+      </c>
+      <c r="L169">
+        <v>772.53089999999997</v>
+      </c>
+      <c r="M169">
+        <v>3160.433</v>
+      </c>
+      <c r="N169">
+        <v>8036.5222999999996</v>
+      </c>
+      <c r="O169">
+        <v>1821.704</v>
+      </c>
+    </row>
+    <row r="170" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J170">
+        <v>572.47029999999995</v>
+      </c>
+      <c r="K170">
+        <v>1171.4108999999901</v>
+      </c>
+      <c r="L170">
+        <v>770.99189999999999</v>
+      </c>
+      <c r="M170">
+        <v>3164.0736999999999</v>
+      </c>
+      <c r="N170">
+        <v>8038.3042999999998</v>
+      </c>
+      <c r="O170">
+        <v>1750.0654999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J171">
+        <v>308.90179999999998</v>
+      </c>
+      <c r="K171">
+        <v>294.1438</v>
+      </c>
+      <c r="L171">
+        <v>767.89659999999901</v>
+      </c>
+      <c r="M171">
+        <v>3145.6352999999999</v>
+      </c>
+      <c r="N171">
+        <v>8066.0900999999903</v>
+      </c>
+      <c r="O171">
+        <v>1717.9458999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J172">
+        <v>294.72399999999999</v>
+      </c>
+      <c r="K172">
+        <v>293.01769999999999</v>
+      </c>
+      <c r="L172">
+        <v>744.37860000000001</v>
+      </c>
+      <c r="M172">
+        <v>3175.7006999999999</v>
+      </c>
+      <c r="N172">
+        <v>8069.6629999999996</v>
+      </c>
+      <c r="O172">
+        <v>1816.91739999999</v>
+      </c>
+    </row>
+    <row r="173" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J173">
+        <v>300.539299999999</v>
+      </c>
+      <c r="K173">
+        <v>298.90530000000001</v>
+      </c>
+      <c r="L173">
+        <v>752.81060000000002</v>
+      </c>
+      <c r="M173">
+        <v>3160.3622999999998</v>
+      </c>
+      <c r="N173">
+        <v>8054.3517999999904</v>
+      </c>
+      <c r="O173">
+        <v>2645.2941000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J174">
+        <v>318.109299999999</v>
+      </c>
+      <c r="K174">
+        <v>303.16219999999998</v>
+      </c>
+      <c r="L174">
+        <v>774.92229999999995</v>
+      </c>
+      <c r="M174">
+        <v>3188.5171</v>
+      </c>
+      <c r="N174">
+        <v>8058.4964</v>
+      </c>
+      <c r="O174">
+        <v>1609.4447</v>
+      </c>
+    </row>
+    <row r="175" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J175">
+        <v>298.78289999999998</v>
+      </c>
+      <c r="K175">
+        <v>294.716399999999</v>
+      </c>
+      <c r="L175">
+        <v>738.48379999999997</v>
+      </c>
+      <c r="M175">
+        <v>3190.7821999999901</v>
+      </c>
+      <c r="N175">
+        <v>8061.9808999999996</v>
+      </c>
+      <c r="O175">
+        <v>1807.6504</v>
+      </c>
+    </row>
+    <row r="176" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J176">
+        <v>390.98559999999998</v>
+      </c>
+      <c r="K176">
+        <v>311.16039999999998</v>
+      </c>
+      <c r="L176">
+        <v>759.74109999999996</v>
+      </c>
+      <c r="M176">
+        <v>3223.6570999999999</v>
+      </c>
+      <c r="N176">
+        <v>8033.8474999999999</v>
+      </c>
+      <c r="O176">
+        <v>1820.0334</v>
+      </c>
+    </row>
+    <row r="177" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J177">
+        <v>303.7407</v>
+      </c>
+      <c r="K177">
+        <v>293.39670000000001</v>
+      </c>
+      <c r="L177">
+        <v>758.39869999999996</v>
+      </c>
+      <c r="M177">
+        <v>3183.7929999999901</v>
+      </c>
+      <c r="N177">
+        <v>8057.1048999999903</v>
+      </c>
+      <c r="O177">
+        <v>2000.8754999999901</v>
+      </c>
+    </row>
+    <row r="178" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J178">
+        <v>304.78469999999999</v>
+      </c>
+      <c r="K178">
+        <v>294.80340000000001</v>
+      </c>
+      <c r="L178">
+        <v>751.3152</v>
+      </c>
+      <c r="M178">
+        <v>3189.2106999999901</v>
+      </c>
+      <c r="N178">
+        <v>8063.1152999999904</v>
+      </c>
+      <c r="O178">
+        <v>1706.396</v>
+      </c>
+    </row>
+    <row r="179" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J179">
+        <v>569.54579999999999</v>
+      </c>
+      <c r="K179">
+        <v>1171.7938999999999</v>
+      </c>
+      <c r="L179">
+        <v>781.73649999999998</v>
+      </c>
+      <c r="M179">
+        <v>3172.2862999999902</v>
+      </c>
+      <c r="N179">
+        <v>8069.1500999999998</v>
+      </c>
+      <c r="O179">
+        <v>1731.35939999999</v>
+      </c>
+    </row>
+    <row r="180" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J180">
+        <v>293.02279999999899</v>
+      </c>
+      <c r="K180">
+        <v>305.50189999999998</v>
+      </c>
+      <c r="L180">
+        <v>764.498999999999</v>
+      </c>
+      <c r="M180">
+        <v>3178.2840999999999</v>
+      </c>
+      <c r="N180">
+        <v>8065.9516999999996</v>
+      </c>
+      <c r="O180">
+        <v>1789.672</v>
+      </c>
+    </row>
+    <row r="181" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J181">
+        <v>295.82490000000001</v>
+      </c>
+      <c r="K181">
+        <v>296.845699999999</v>
+      </c>
+      <c r="L181">
+        <v>752.25400000000002</v>
+      </c>
+      <c r="M181">
+        <v>3175.4310999999998</v>
+      </c>
+      <c r="N181">
+        <v>8041.3383999999996</v>
+      </c>
+      <c r="O181">
+        <v>1749.4161999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J182">
+        <v>295.20639999999997</v>
+      </c>
+      <c r="K182">
+        <v>308.25099999999998</v>
+      </c>
+      <c r="L182">
+        <v>832.26929999999902</v>
+      </c>
+      <c r="M182">
+        <v>3160.6041</v>
+      </c>
+      <c r="N182">
+        <v>8032.9340999999904</v>
+      </c>
+      <c r="O182">
+        <v>2531.2525999999998</v>
+      </c>
+    </row>
+    <row r="183" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J183">
+        <v>291.8956</v>
+      </c>
+      <c r="K183">
+        <v>299.03280000000001</v>
+      </c>
+      <c r="L183">
+        <v>762.63419999999996</v>
+      </c>
+      <c r="M183">
+        <v>3147.7169999999901</v>
+      </c>
+      <c r="N183">
+        <v>8046.0348999999997</v>
+      </c>
+      <c r="O183">
+        <v>1746.9802999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J184">
+        <v>313.53530000000001</v>
+      </c>
+      <c r="K184">
+        <v>300.7593</v>
+      </c>
+      <c r="L184">
+        <v>771.86429999999996</v>
+      </c>
+      <c r="M184">
+        <v>3149.7674999999999</v>
+      </c>
+      <c r="N184">
+        <v>8055.9265999999998</v>
+      </c>
+      <c r="O184">
+        <v>1774.7710999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J185">
+        <v>292.74709999999999</v>
+      </c>
+      <c r="K185">
+        <v>298.56459999999998</v>
+      </c>
+      <c r="L185">
+        <v>795.44679999999903</v>
+      </c>
+      <c r="M185">
+        <v>3146.2215999999999</v>
+      </c>
+      <c r="N185">
+        <v>8039.1189999999997</v>
+      </c>
+      <c r="O185">
+        <v>1714.7798</v>
+      </c>
+    </row>
+    <row r="186" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J186">
+        <v>302.527999999999</v>
+      </c>
+      <c r="K186">
+        <v>298.2627</v>
+      </c>
+      <c r="L186">
+        <v>780.44629999999995</v>
+      </c>
+      <c r="M186">
+        <v>3188.6759999999999</v>
+      </c>
+      <c r="N186">
+        <v>8039.9587999999903</v>
+      </c>
+      <c r="O186">
+        <v>1635.2232999999901</v>
+      </c>
+    </row>
+    <row r="187" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J187">
+        <v>293.21089999999998</v>
+      </c>
+      <c r="K187">
+        <v>299.314199999999</v>
+      </c>
+      <c r="L187">
+        <v>797.90120000000002</v>
+      </c>
+      <c r="M187">
+        <v>3173.9962</v>
+      </c>
+      <c r="N187">
+        <v>8036.1102000000001</v>
+      </c>
+      <c r="O187">
+        <v>1583.7195999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J188">
+        <v>1440.57</v>
+      </c>
+      <c r="K188">
+        <v>576.88260000000002</v>
+      </c>
+      <c r="L188">
+        <v>750.73509999999999</v>
+      </c>
+      <c r="M188">
+        <v>3141.4624999999901</v>
+      </c>
+      <c r="N188">
+        <v>8028.0737999999901</v>
+      </c>
+      <c r="O188">
+        <v>1625.9812999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J189">
+        <v>297.34379999999999</v>
+      </c>
+      <c r="K189">
+        <v>302.01179999999999</v>
+      </c>
+      <c r="L189">
+        <v>778.41219999999998</v>
+      </c>
+      <c r="M189">
+        <v>3150.1054999999901</v>
+      </c>
+      <c r="N189">
+        <v>8050.2954999999902</v>
+      </c>
+      <c r="O189">
+        <v>1675.34489999999</v>
+      </c>
+    </row>
+    <row r="190" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J190">
+        <v>291.034999999999</v>
+      </c>
+      <c r="K190">
+        <v>298.03719999999998</v>
+      </c>
+      <c r="L190">
+        <v>800.06389999999999</v>
+      </c>
+      <c r="M190">
+        <v>3156.7017000000001</v>
+      </c>
+      <c r="N190">
+        <v>8038.9636999999902</v>
+      </c>
+      <c r="O190">
+        <v>1659.1204</v>
+      </c>
+    </row>
+    <row r="191" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J191">
+        <v>301.3546</v>
+      </c>
+      <c r="K191">
+        <v>298.82150000000001</v>
+      </c>
+      <c r="L191">
+        <v>765.82279999999901</v>
+      </c>
+      <c r="M191">
+        <v>3253.9182999999998</v>
+      </c>
+      <c r="N191">
+        <v>8041.8750999999902</v>
+      </c>
+      <c r="O191">
+        <v>2632.5095999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J192">
+        <v>292.18180000000001</v>
+      </c>
+      <c r="K192">
+        <v>300.52330000000001</v>
+      </c>
+      <c r="L192">
+        <v>809.90739999999903</v>
+      </c>
+      <c r="M192">
+        <v>3145.5973999999901</v>
+      </c>
+      <c r="N192">
+        <v>8035.1380999999901</v>
+      </c>
+      <c r="O192">
+        <v>1606.7415999999901</v>
+      </c>
+    </row>
+    <row r="193" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J193">
+        <v>294.062199999999</v>
+      </c>
+      <c r="K193">
+        <v>299.651399999999</v>
+      </c>
+      <c r="L193">
+        <v>779.38379999999995</v>
+      </c>
+      <c r="M193">
+        <v>3170.2093</v>
+      </c>
+      <c r="N193">
+        <v>8049.0703999999996</v>
+      </c>
+      <c r="O193">
+        <v>1790.7442999999901</v>
+      </c>
+    </row>
+    <row r="194" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J194">
+        <v>300.84789999999998</v>
+      </c>
+      <c r="K194">
+        <v>311.968899999999</v>
+      </c>
+      <c r="L194">
+        <v>793.03089999999997</v>
+      </c>
+      <c r="M194">
+        <v>3168.5630999999998</v>
+      </c>
+      <c r="N194">
+        <v>8039.7083999999904</v>
+      </c>
+      <c r="O194">
+        <v>1677.7901999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J195">
+        <v>298.976799999999</v>
+      </c>
+      <c r="K195">
+        <v>306.48820000000001</v>
+      </c>
+      <c r="L195">
+        <v>784.55930000000001</v>
+      </c>
+      <c r="M195">
+        <v>3147.8285999999998</v>
+      </c>
+      <c r="N195">
+        <v>8032.0914999999904</v>
+      </c>
+      <c r="O195">
+        <v>1846.6249</v>
+      </c>
+    </row>
+    <row r="196" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J196">
+        <v>295.69900000000001</v>
+      </c>
+      <c r="K196">
+        <v>366.574199999999</v>
+      </c>
+      <c r="L196">
+        <v>739.13619999999901</v>
+      </c>
+      <c r="M196">
+        <v>3139.3791999999999</v>
+      </c>
+      <c r="N196">
+        <v>8038.9438</v>
+      </c>
+      <c r="O196">
+        <v>1722.0584999999901</v>
+      </c>
+    </row>
+    <row r="197" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J197">
+        <v>1185.3880999999999</v>
+      </c>
+      <c r="K197">
+        <v>603.9375</v>
+      </c>
+      <c r="L197">
+        <v>728.70060000000001</v>
+      </c>
+      <c r="M197">
+        <v>3155.6704</v>
+      </c>
+      <c r="N197">
+        <v>8042.9030999999904</v>
+      </c>
+      <c r="O197">
+        <v>1841.6853999999901</v>
+      </c>
+    </row>
+    <row r="198" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J198">
+        <v>300.73249999999899</v>
+      </c>
+      <c r="K198">
+        <v>308.2722</v>
+      </c>
+      <c r="L198">
+        <v>730.79660000000001</v>
+      </c>
+      <c r="M198">
+        <v>3193.7772</v>
+      </c>
+      <c r="N198">
+        <v>8050.0355</v>
+      </c>
+      <c r="O198">
+        <v>1605.2719</v>
+      </c>
+    </row>
+    <row r="199" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J199">
+        <v>299.2824</v>
+      </c>
+      <c r="K199">
+        <v>307.60730000000001</v>
+      </c>
+      <c r="L199">
+        <v>788.81659999999999</v>
+      </c>
+      <c r="M199">
+        <v>3167.5402999999901</v>
+      </c>
+      <c r="N199">
+        <v>8062.3453999999901</v>
+      </c>
+      <c r="O199">
+        <v>2625.9521999999902</v>
+      </c>
+    </row>
+    <row r="200" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J200">
+        <v>313.79929999999899</v>
+      </c>
+      <c r="K200">
+        <v>297.39229999999998</v>
+      </c>
+      <c r="L200">
+        <v>780.5761</v>
+      </c>
+      <c r="M200">
+        <v>3156.6884999999902</v>
+      </c>
+      <c r="N200">
+        <v>8041.8912</v>
+      </c>
+      <c r="O200">
+        <v>1677.0502999999901</v>
+      </c>
+    </row>
+    <row r="201" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J201">
+        <v>299.00279999999998</v>
+      </c>
+      <c r="K201">
+        <v>323.71690000000001</v>
+      </c>
+      <c r="L201">
+        <v>730.91359999999997</v>
+      </c>
+      <c r="M201">
+        <v>3163.1858999999999</v>
+      </c>
+      <c r="N201">
+        <v>8045.5515999999998</v>
+      </c>
+      <c r="O201">
+        <v>1872.2609</v>
+      </c>
+    </row>
+    <row r="202" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J202">
+        <v>311.15119999999899</v>
+      </c>
+      <c r="K202">
+        <v>307.87729999999999</v>
+      </c>
+      <c r="L202">
+        <v>778.16009999999903</v>
+      </c>
+      <c r="M202">
+        <v>3155.7974999999901</v>
+      </c>
+      <c r="N202">
+        <v>8048.0460999999996</v>
+      </c>
+      <c r="O202">
+        <v>1671.2701</v>
+      </c>
+    </row>
+    <row r="203" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J203">
+        <v>299.32769999999999</v>
+      </c>
+      <c r="K203">
+        <v>299.48579999999998</v>
+      </c>
+      <c r="L203">
+        <v>738.51400000000001</v>
+      </c>
+      <c r="M203">
+        <v>3165.3195000000001</v>
+      </c>
+      <c r="N203">
+        <v>8107.0347999999904</v>
+      </c>
+      <c r="O203">
+        <v>1526.3601999999901</v>
+      </c>
+    </row>
+    <row r="204" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J204">
+        <v>298.661799999999</v>
+      </c>
+      <c r="K204">
+        <v>298.552199999999</v>
+      </c>
+      <c r="L204">
+        <v>764.99579999999901</v>
+      </c>
+      <c r="M204">
+        <v>3170.402</v>
+      </c>
+      <c r="N204">
+        <v>8049.2781999999997</v>
+      </c>
+      <c r="O204">
+        <v>1647.9911999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J205">
+        <v>353.826899999999</v>
+      </c>
+      <c r="K205">
+        <v>296.0795</v>
+      </c>
+      <c r="L205">
+        <v>742.98410000000001</v>
+      </c>
+      <c r="M205">
+        <v>3153.7529999999902</v>
+      </c>
+      <c r="N205">
+        <v>8042.1022999999996</v>
+      </c>
+      <c r="O205">
+        <v>1821.26249999999</v>
+      </c>
+    </row>
+    <row r="206" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J206">
+        <v>1116.9793</v>
+      </c>
+      <c r="K206">
+        <v>582.06700000000001</v>
+      </c>
+      <c r="L206">
+        <v>778.20719999999994</v>
+      </c>
+      <c r="M206">
+        <v>3148.1390999999999</v>
+      </c>
+      <c r="N206">
+        <v>8116.4932999999901</v>
+      </c>
+      <c r="O206">
+        <v>1642.0593999999901</v>
+      </c>
+    </row>
+    <row r="207" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J207">
+        <v>295.4307</v>
+      </c>
+      <c r="K207">
+        <v>298.68599999999998</v>
+      </c>
+      <c r="L207">
+        <v>736.67700000000002</v>
+      </c>
+      <c r="M207">
+        <v>3165.1846</v>
+      </c>
+      <c r="N207">
+        <v>8060.66</v>
+      </c>
+      <c r="O207">
+        <v>1859.29599999999</v>
+      </c>
+    </row>
+    <row r="208" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J208">
+        <v>303.0489</v>
+      </c>
+      <c r="K208">
+        <v>305.1096</v>
+      </c>
+      <c r="L208">
+        <v>802.7704</v>
+      </c>
+      <c r="M208">
+        <v>3151.7513999999901</v>
+      </c>
+      <c r="N208">
+        <v>8038.7257999999902</v>
+      </c>
+      <c r="O208">
+        <v>2769.7149999999901</v>
+      </c>
+    </row>
+    <row r="209" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J209">
+        <v>324.45359999999999</v>
+      </c>
+      <c r="K209">
+        <v>298.21179999999998</v>
+      </c>
+      <c r="L209">
+        <v>727.36749999999995</v>
+      </c>
+      <c r="M209">
+        <v>3142.9526999999998</v>
+      </c>
+      <c r="N209">
+        <v>8041.2585999999901</v>
+      </c>
+      <c r="O209">
+        <v>1728.4136999999901</v>
+      </c>
+    </row>
+    <row r="210" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J210">
+        <v>323.70330000000001</v>
+      </c>
+      <c r="K210">
+        <v>309.18610000000001</v>
+      </c>
+      <c r="L210">
+        <v>755.189199999999</v>
+      </c>
+      <c r="M210">
+        <v>3139.1062999999999</v>
+      </c>
+      <c r="N210">
+        <v>8042.0065999999997</v>
+      </c>
+      <c r="O210">
+        <v>1840.4384</v>
+      </c>
+    </row>
+    <row r="211" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J211">
+        <v>297.341599999999</v>
+      </c>
+      <c r="K211">
+        <v>299.0018</v>
+      </c>
+      <c r="L211">
+        <v>764.45539999999903</v>
+      </c>
+      <c r="M211">
+        <v>3154.1931</v>
+      </c>
+      <c r="N211">
+        <v>8066.3363999999901</v>
+      </c>
+      <c r="O211">
+        <v>1683.6312</v>
+      </c>
+    </row>
+    <row r="212" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J212">
+        <v>312.95079999999899</v>
+      </c>
+      <c r="K212">
+        <v>296.76609999999999</v>
+      </c>
+      <c r="L212">
+        <v>760.24669999999901</v>
+      </c>
+      <c r="M212">
+        <v>3153.1700999999998</v>
+      </c>
+      <c r="N212">
+        <v>8036.1058999999996</v>
+      </c>
+      <c r="O212">
+        <v>1882.90649999999</v>
+      </c>
+    </row>
+    <row r="213" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J213">
+        <v>296.77589999999998</v>
+      </c>
+      <c r="K213">
+        <v>299.44059999999899</v>
+      </c>
+      <c r="L213">
+        <v>765.19650000000001</v>
+      </c>
+      <c r="M213">
+        <v>3138.1704</v>
+      </c>
+      <c r="N213">
+        <v>8047.4566999999997</v>
+      </c>
+      <c r="O213">
+        <v>1671.0963999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J214">
+        <v>297.34039999999999</v>
+      </c>
+      <c r="K214">
+        <v>310.3897</v>
+      </c>
+      <c r="L214">
+        <v>786.716399999999</v>
+      </c>
+      <c r="M214">
+        <v>3193.9852999999998</v>
+      </c>
+      <c r="N214">
+        <v>8032.2250999999997</v>
+      </c>
+      <c r="O214">
+        <v>1811.1177</v>
+      </c>
+    </row>
+    <row r="215" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J215">
+        <v>1377.7661000000001</v>
+      </c>
+      <c r="K215">
+        <v>297.45569999999998</v>
+      </c>
+      <c r="L215">
+        <v>772.86879999999996</v>
+      </c>
+      <c r="M215">
+        <v>3171.5857999999998</v>
+      </c>
+      <c r="N215">
+        <v>8024.2795999999998</v>
+      </c>
+      <c r="O215">
+        <v>1719.7726</v>
+      </c>
+    </row>
+    <row r="216" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J216">
+        <v>295.31979999999999</v>
+      </c>
+      <c r="K216">
+        <v>582.26530000000002</v>
+      </c>
+      <c r="L216">
+        <v>760.97129999999902</v>
+      </c>
+      <c r="M216">
+        <v>3174.0699999999902</v>
+      </c>
+      <c r="N216">
+        <v>8049.5879999999997</v>
+      </c>
+      <c r="O216">
+        <v>1912.8900999999901</v>
+      </c>
+    </row>
+    <row r="217" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J217">
+        <v>305.28149999999999</v>
+      </c>
+      <c r="K217">
+        <v>306.15010000000001</v>
+      </c>
+      <c r="L217">
+        <v>731.40639999999996</v>
+      </c>
+      <c r="M217">
+        <v>3161.9708000000001</v>
+      </c>
+      <c r="N217">
+        <v>8034.8772999999901</v>
+      </c>
+      <c r="O217">
+        <v>2719.5375999999901</v>
+      </c>
+    </row>
+    <row r="218" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J218">
+        <v>303.61419999999998</v>
+      </c>
+      <c r="K218">
+        <v>301.67829999999998</v>
+      </c>
+      <c r="L218">
+        <v>757.95859999999902</v>
+      </c>
+      <c r="M218">
+        <v>3153.0938999999998</v>
+      </c>
+      <c r="N218">
+        <v>8063.299</v>
+      </c>
+      <c r="O218">
+        <v>1678.7438</v>
+      </c>
+    </row>
+    <row r="219" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J219">
+        <v>305.4151</v>
+      </c>
+      <c r="K219">
+        <v>301.94389999999999</v>
+      </c>
+      <c r="L219">
+        <v>762.6078</v>
+      </c>
+      <c r="M219">
+        <v>3163.3897999999999</v>
+      </c>
+      <c r="N219">
+        <v>8052.1039999999903</v>
+      </c>
+      <c r="O219">
+        <v>1835.4786999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J220">
+        <v>297.920199999999</v>
+      </c>
+      <c r="K220">
+        <v>300.29289999999997</v>
+      </c>
+      <c r="L220">
+        <v>786.1703</v>
+      </c>
+      <c r="M220">
+        <v>3146.2666999999901</v>
+      </c>
+      <c r="N220">
+        <v>8047.6454999999996</v>
+      </c>
+      <c r="O220">
+        <v>1598.2321999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J221">
+        <v>294.32979999999998</v>
+      </c>
+      <c r="K221">
+        <v>305.756699999999</v>
+      </c>
+      <c r="L221">
+        <v>828.67639999999994</v>
+      </c>
+      <c r="M221">
+        <v>3165.2675999999901</v>
+      </c>
+      <c r="N221">
+        <v>8032.1674999999996</v>
+      </c>
+      <c r="O221">
+        <v>1803.0603999999901</v>
+      </c>
+    </row>
+    <row r="222" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J222">
+        <v>305.52269999999999</v>
+      </c>
+      <c r="K222">
+        <v>303.98509999999999</v>
+      </c>
+      <c r="L222">
+        <v>760.796999999999</v>
+      </c>
+      <c r="M222">
+        <v>3146.3636999999999</v>
+      </c>
+      <c r="N222">
+        <v>8051.5355</v>
+      </c>
+      <c r="O222">
+        <v>1599.32409999999</v>
+      </c>
+    </row>
+    <row r="223" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J223">
+        <v>294.93950000000001</v>
+      </c>
+      <c r="K223">
+        <v>300.93349999999998</v>
+      </c>
+      <c r="L223">
+        <v>738.0548</v>
+      </c>
+      <c r="M223">
+        <v>3148.6499999999901</v>
+      </c>
+      <c r="N223">
+        <v>8040.9592999999904</v>
+      </c>
+      <c r="O223">
+        <v>1794.8116</v>
+      </c>
+    </row>
+    <row r="224" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J224">
+        <v>1131.3606</v>
+      </c>
+      <c r="K224">
+        <v>300.45389999999998</v>
+      </c>
+      <c r="L224">
+        <v>778.91609999999901</v>
+      </c>
+      <c r="M224">
+        <v>3229.2331999999901</v>
+      </c>
+      <c r="N224">
+        <v>8044.9058999999997</v>
+      </c>
+      <c r="O224">
+        <v>1737.80599999999</v>
+      </c>
+    </row>
+    <row r="225" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J225">
+        <v>293.920199999999</v>
+      </c>
+      <c r="K225">
+        <v>585.21780000000001</v>
+      </c>
+      <c r="L225">
+        <v>778.23689999999999</v>
+      </c>
+      <c r="M225">
+        <v>3244.8280999999902</v>
+      </c>
+      <c r="N225">
+        <v>8100.2572999999902</v>
+      </c>
+      <c r="O225">
+        <v>1725.7853</v>
+      </c>
+    </row>
+    <row r="226" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J226">
+        <v>296.148899999999</v>
+      </c>
+      <c r="K226">
+        <v>300.6995</v>
+      </c>
+      <c r="L226">
+        <v>735.07830000000001</v>
+      </c>
+      <c r="M226">
+        <v>3150.6702</v>
+      </c>
+      <c r="N226">
+        <v>8038.6333999999997</v>
+      </c>
+      <c r="O226">
+        <v>2627.8620999999998</v>
+      </c>
+    </row>
+    <row r="227" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J227">
+        <v>301.383299999999</v>
+      </c>
+      <c r="K227">
+        <v>301.81889999999999</v>
+      </c>
+      <c r="L227">
+        <v>780.52710000000002</v>
+      </c>
+      <c r="M227">
+        <v>3173.6347999999998</v>
+      </c>
+      <c r="N227">
+        <v>8050.3264999999901</v>
+      </c>
+      <c r="O227">
+        <v>1709.0617</v>
+      </c>
+    </row>
+    <row r="228" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J228">
+        <v>362.9588</v>
+      </c>
+      <c r="K228">
+        <v>296.983599999999</v>
+      </c>
+      <c r="L228">
+        <v>762.72269999999901</v>
+      </c>
+      <c r="M228">
+        <v>3168.1610000000001</v>
+      </c>
+      <c r="N228">
+        <v>8038.7693999999901</v>
+      </c>
+      <c r="O228">
+        <v>1637.9324999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J229">
+        <v>308.52109999999999</v>
+      </c>
+      <c r="K229">
+        <v>298.4461</v>
+      </c>
+      <c r="L229">
+        <v>730.18700000000001</v>
+      </c>
+      <c r="M229">
+        <v>3147.8870999999999</v>
+      </c>
+      <c r="N229">
+        <v>8037.6399999999903</v>
+      </c>
+      <c r="O229">
+        <v>1636.9407999999901</v>
+      </c>
+    </row>
+    <row r="230" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J230">
+        <v>316.78989999999999</v>
+      </c>
+      <c r="K230">
+        <v>293.311499999999</v>
+      </c>
+      <c r="L230">
+        <v>769.84899999999902</v>
+      </c>
+      <c r="M230">
+        <v>3144.6133</v>
+      </c>
+      <c r="N230">
+        <v>8047.6453999999903</v>
+      </c>
+      <c r="O230">
+        <v>1864.2695999999901</v>
+      </c>
+    </row>
+    <row r="231" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J231">
+        <v>309.3338</v>
+      </c>
+      <c r="K231">
+        <v>300.09960000000001</v>
+      </c>
+      <c r="L231">
+        <v>773.83539999999903</v>
+      </c>
+      <c r="M231">
+        <v>3143.2610999999902</v>
+      </c>
+      <c r="N231">
+        <v>8050.9043999999903</v>
+      </c>
+      <c r="O231">
+        <v>1682.3495</v>
+      </c>
+    </row>
+    <row r="232" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J232">
+        <v>1124.933</v>
+      </c>
+      <c r="K232">
+        <v>302.293399999999</v>
+      </c>
+      <c r="L232">
+        <v>752.68949999999995</v>
+      </c>
+      <c r="M232">
+        <v>3176.4420999999902</v>
+      </c>
+      <c r="N232">
+        <v>8037.8129999999901</v>
+      </c>
+      <c r="O232">
+        <v>1735.4955</v>
+      </c>
+    </row>
+    <row r="233" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J233">
+        <v>311.20339999999999</v>
+      </c>
+      <c r="K233">
+        <v>299.92899999999997</v>
+      </c>
+      <c r="L233">
+        <v>772.82939999999996</v>
+      </c>
+      <c r="M233">
+        <v>3145.4189999999999</v>
+      </c>
+      <c r="N233">
+        <v>8039.1562999999996</v>
+      </c>
+      <c r="O233">
+        <v>1657.1751999999999</v>
+      </c>
+    </row>
+    <row r="234" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J234">
+        <v>297.25540000000001</v>
+      </c>
+      <c r="K234">
+        <v>580.87540000000001</v>
+      </c>
+      <c r="L234">
+        <v>772.01419999999996</v>
+      </c>
+      <c r="M234">
+        <v>3146.8842</v>
+      </c>
+      <c r="N234">
+        <v>8058.1979999999903</v>
+      </c>
+      <c r="O234">
+        <v>1686.3824</v>
+      </c>
+    </row>
+    <row r="235" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J235">
+        <v>299.27170000000001</v>
+      </c>
+      <c r="K235">
+        <v>326.118799999999</v>
+      </c>
+      <c r="L235">
+        <v>753.67399999999998</v>
+      </c>
+      <c r="M235">
+        <v>3152.9141999999902</v>
+      </c>
+      <c r="N235">
+        <v>8040.6782999999996</v>
+      </c>
+      <c r="O235">
+        <v>2681.9013</v>
+      </c>
+    </row>
+    <row r="236" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J236">
+        <v>298.03059999999999</v>
+      </c>
+      <c r="K236">
+        <v>291.627399999999</v>
+      </c>
+      <c r="L236">
+        <v>778.21039999999903</v>
+      </c>
+      <c r="M236">
+        <v>3169.1401999999998</v>
+      </c>
+      <c r="N236">
+        <v>8056.7305999999999</v>
+      </c>
+      <c r="O236">
+        <v>1717.7503999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J237">
+        <v>309.501499999999</v>
+      </c>
+      <c r="K237">
+        <v>295.535699999999</v>
+      </c>
+      <c r="L237">
+        <v>744.42239999999902</v>
+      </c>
+      <c r="M237">
+        <v>3165.6378</v>
+      </c>
+      <c r="N237">
+        <v>8048.9709999999995</v>
+      </c>
+      <c r="O237">
+        <v>1562.2447</v>
+      </c>
+    </row>
+    <row r="238" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J238">
+        <v>296.972499999999</v>
+      </c>
+      <c r="K238">
+        <v>306.211199999999</v>
+      </c>
+      <c r="L238">
+        <v>754.08389999999997</v>
+      </c>
+      <c r="M238">
+        <v>3153.0796999999998</v>
+      </c>
+      <c r="N238">
+        <v>8035.4189999999999</v>
+      </c>
+      <c r="O238">
+        <v>1763.6832999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J239">
+        <v>298.38619999999997</v>
+      </c>
+      <c r="K239">
+        <v>307.058999999999</v>
+      </c>
+      <c r="L239">
+        <v>780.41099999999994</v>
+      </c>
+      <c r="M239">
+        <v>3185.9982999999902</v>
+      </c>
+      <c r="N239">
+        <v>8032.0734999999904</v>
+      </c>
+      <c r="O239">
+        <v>1688.6935999999901</v>
+      </c>
+    </row>
+    <row r="240" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J240">
+        <v>303.7688</v>
+      </c>
+      <c r="K240">
+        <v>294.84469999999999</v>
+      </c>
+      <c r="L240">
+        <v>745.90039999999999</v>
+      </c>
+      <c r="M240">
+        <v>3167.3838000000001</v>
+      </c>
+      <c r="N240">
+        <v>8034.3642</v>
+      </c>
+      <c r="O240">
+        <v>1886.53699999999</v>
+      </c>
+    </row>
+    <row r="241" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J241">
+        <v>1399.6996999999999</v>
+      </c>
+      <c r="K241">
+        <v>294.10719999999998</v>
+      </c>
+      <c r="L241">
+        <v>738.38459999999998</v>
+      </c>
+      <c r="M241">
+        <v>3159.7882</v>
+      </c>
+      <c r="N241">
+        <v>8037.0854999999901</v>
+      </c>
+      <c r="O241">
+        <v>1598.6822999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J242">
+        <v>305.99789999999899</v>
+      </c>
+      <c r="K242">
+        <v>301.12790000000001</v>
+      </c>
+      <c r="L242">
+        <v>779.78639999999996</v>
+      </c>
+      <c r="M242">
+        <v>3237.1380999999901</v>
+      </c>
+      <c r="N242">
+        <v>8040.7437999999902</v>
+      </c>
+      <c r="O242">
+        <v>1621.8896999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J243">
+        <v>308.04289999999997</v>
+      </c>
+      <c r="K243">
+        <v>596.57889999999998</v>
+      </c>
+      <c r="L243">
+        <v>780.97119999999995</v>
+      </c>
+      <c r="M243">
+        <v>3264.5668999999998</v>
+      </c>
+      <c r="N243">
+        <v>8040.8732999999902</v>
+      </c>
+      <c r="O243">
+        <v>1581.6571999999901</v>
+      </c>
+    </row>
+    <row r="244" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J244">
+        <v>309.62689999999998</v>
+      </c>
+      <c r="K244">
+        <v>304.87809999999899</v>
+      </c>
+      <c r="L244">
+        <v>765.1807</v>
+      </c>
+      <c r="M244">
+        <v>3157.2866999999901</v>
+      </c>
+      <c r="N244">
+        <v>8043.9800999999998</v>
+      </c>
+      <c r="O244">
+        <v>1806.1553999999901</v>
+      </c>
+    </row>
+    <row r="245" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J245">
+        <v>301.80849999999998</v>
+      </c>
+      <c r="K245">
+        <v>306.32929999999999</v>
+      </c>
+      <c r="L245">
+        <v>754.98879999999997</v>
+      </c>
+      <c r="M245">
+        <v>3155.2393999999999</v>
+      </c>
+      <c r="N245">
+        <v>8033.3880999999901</v>
+      </c>
+      <c r="O245">
+        <v>2636.5785999999998</v>
+      </c>
+    </row>
+    <row r="246" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J246">
+        <v>318.74119999999999</v>
+      </c>
+      <c r="K246">
+        <v>297.19639999999998</v>
+      </c>
+      <c r="L246">
+        <v>743.11749999999995</v>
+      </c>
+      <c r="M246">
+        <v>3161.9258</v>
+      </c>
+      <c r="N246">
+        <v>8023.2215999999999</v>
+      </c>
+      <c r="O246">
+        <v>1734.4170999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J247">
+        <v>298.35149999999999</v>
+      </c>
+      <c r="K247">
+        <v>295.4348</v>
+      </c>
+      <c r="L247">
+        <v>768.24079999999901</v>
+      </c>
+      <c r="M247">
+        <v>3153.2974999999901</v>
+      </c>
+      <c r="N247">
+        <v>8088.3951999999999</v>
+      </c>
+      <c r="O247">
+        <v>1778.6142</v>
+      </c>
+    </row>
+    <row r="248" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J248">
+        <v>310.88049999999998</v>
+      </c>
+      <c r="K248">
+        <v>305.56189999999998</v>
+      </c>
+      <c r="L248">
+        <v>755.92559999999901</v>
+      </c>
+      <c r="M248">
+        <v>3182.1549</v>
+      </c>
+      <c r="N248">
+        <v>8066.8314</v>
+      </c>
+      <c r="O248">
+        <v>1688.8459</v>
+      </c>
+    </row>
+    <row r="249" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J249">
+        <v>305.81029999999998</v>
+      </c>
+      <c r="K249">
+        <v>296.701899999999</v>
+      </c>
+      <c r="L249">
+        <v>737.80509999999902</v>
+      </c>
+      <c r="M249">
+        <v>3167.0776999999998</v>
+      </c>
+      <c r="N249">
+        <v>8041.2986999999903</v>
+      </c>
+      <c r="O249">
+        <v>1728.3314</v>
+      </c>
+    </row>
+    <row r="250" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J250">
+        <v>310.47800000000001</v>
+      </c>
+      <c r="K250">
+        <v>298.23759999999999</v>
+      </c>
+      <c r="L250">
+        <v>747.39699999999903</v>
+      </c>
+      <c r="M250">
+        <v>3290.3462999999902</v>
+      </c>
+      <c r="N250">
+        <v>8032.1816999999901</v>
+      </c>
+      <c r="O250">
+        <v>1746.51789999999</v>
+      </c>
+    </row>
+    <row r="251" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J251">
+        <v>590.86059999999998</v>
+      </c>
+      <c r="K251">
+        <v>294.19209999999998</v>
+      </c>
+      <c r="L251">
+        <v>780.55539999999996</v>
+      </c>
+      <c r="M251">
+        <v>3152.9594999999999</v>
+      </c>
+      <c r="N251">
+        <v>8049.7638999999999</v>
+      </c>
+      <c r="O251">
+        <v>1750.4628</v>
+      </c>
+    </row>
+    <row r="252" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J252">
+        <v>308.06729999999999</v>
+      </c>
+      <c r="K252">
+        <v>581.89850000000001</v>
+      </c>
+      <c r="L252">
+        <v>753.07529999999997</v>
+      </c>
+      <c r="M252">
+        <v>3160.5409999999902</v>
+      </c>
+      <c r="N252">
+        <v>8050.5274999999901</v>
+      </c>
+      <c r="O252">
+        <v>1767.0935999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J253">
+        <v>312.4117</v>
+      </c>
+      <c r="K253">
+        <v>293.297899999999</v>
+      </c>
+      <c r="L253">
+        <v>770.30229999999995</v>
+      </c>
+      <c r="M253">
+        <v>3244.6911</v>
+      </c>
+      <c r="N253">
+        <v>8060.4461999999903</v>
+      </c>
+      <c r="O253">
+        <v>1788.3065999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J254">
+        <v>308.99939999999998</v>
+      </c>
+      <c r="K254">
+        <v>297.32589999999999</v>
+      </c>
+      <c r="L254">
+        <v>768.81269999999995</v>
+      </c>
+      <c r="M254">
+        <v>3186.9231</v>
+      </c>
+      <c r="N254">
+        <v>8044.9922999999999</v>
+      </c>
+      <c r="O254">
+        <v>2592.4562999999998</v>
+      </c>
+    </row>
+    <row r="255" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J255">
+        <v>312.19189999999998</v>
+      </c>
+      <c r="K255">
+        <v>301.8279</v>
+      </c>
+      <c r="L255">
+        <v>763.55439999999999</v>
+      </c>
+      <c r="M255">
+        <v>3150.6118999999999</v>
+      </c>
+      <c r="N255">
+        <v>8049.8098999999902</v>
+      </c>
+      <c r="O255">
+        <v>1744.5318</v>
+      </c>
+    </row>
+    <row r="256" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J256">
+        <v>311.69319999999999</v>
+      </c>
+      <c r="K256">
+        <v>297.44880000000001</v>
+      </c>
+      <c r="L256">
+        <v>767.40179999999998</v>
+      </c>
+      <c r="M256">
+        <v>3158.7026000000001</v>
+      </c>
+      <c r="N256">
+        <v>8084.8838999999998</v>
+      </c>
+      <c r="O256">
+        <v>1687.0265999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J257">
+        <v>312.54489999999998</v>
+      </c>
+      <c r="K257">
+        <v>299.48829999999998</v>
+      </c>
+      <c r="L257">
+        <v>778.47709999999995</v>
+      </c>
+      <c r="M257">
+        <v>3232.3541999999902</v>
+      </c>
+      <c r="N257">
+        <v>8027.3989999999903</v>
+      </c>
+      <c r="O257">
+        <v>1654.6231</v>
+      </c>
+    </row>
+    <row r="258" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J258">
+        <v>305.26209999999998</v>
+      </c>
+      <c r="K258">
+        <v>303.042699999999</v>
+      </c>
+      <c r="L258">
+        <v>774.41719999999998</v>
+      </c>
+      <c r="M258">
+        <v>3162.1270999999902</v>
+      </c>
+      <c r="N258">
+        <v>8044.0335999999998</v>
+      </c>
+      <c r="O258">
+        <v>1653.1600999999901</v>
+      </c>
+    </row>
+    <row r="259" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J259">
+        <v>1377.6965</v>
+      </c>
+      <c r="K259">
+        <v>296.98339999999899</v>
+      </c>
+      <c r="L259">
+        <v>752.19150000000002</v>
+      </c>
+      <c r="M259">
+        <v>3164.3932</v>
+      </c>
+      <c r="N259">
+        <v>8042.9336999999996</v>
+      </c>
+      <c r="O259">
+        <v>1712.7895999999901</v>
+      </c>
+    </row>
+    <row r="260" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J260">
+        <v>293.65280000000001</v>
+      </c>
+      <c r="K260">
+        <v>596.93869999999902</v>
+      </c>
+      <c r="L260">
+        <v>775.295199999999</v>
+      </c>
+      <c r="M260">
+        <v>3158.3363999999901</v>
+      </c>
+      <c r="N260">
+        <v>8044.0009</v>
+      </c>
+      <c r="O260">
+        <v>1640.8518999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J261">
+        <v>296.54849999999999</v>
+      </c>
+      <c r="K261">
+        <v>308.905699999999</v>
+      </c>
+      <c r="L261">
+        <v>740.75209999999902</v>
+      </c>
+      <c r="M261">
+        <v>3180.7460999999998</v>
+      </c>
+      <c r="N261">
+        <v>8042.6212999999998</v>
+      </c>
+      <c r="O261">
+        <v>1714.6116999999999</v>
+      </c>
+    </row>
+    <row r="262" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J262">
+        <v>308.17259999999999</v>
+      </c>
+      <c r="K262">
+        <v>298.192399999999</v>
+      </c>
+      <c r="L262">
+        <v>798.8057</v>
+      </c>
+      <c r="M262">
+        <v>3157.3817999999901</v>
+      </c>
+      <c r="N262">
+        <v>8045.4508999999998</v>
+      </c>
+      <c r="O262">
+        <v>2630.1282000000001</v>
+      </c>
+    </row>
+    <row r="263" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J263">
+        <v>304.3263</v>
+      </c>
+      <c r="K263">
+        <v>300.15539999999999</v>
+      </c>
+      <c r="L263">
+        <v>765.11939999999902</v>
+      </c>
+      <c r="M263">
+        <v>3156.308</v>
+      </c>
+      <c r="N263">
+        <v>8069.6052999999902</v>
+      </c>
+      <c r="O263">
+        <v>1686.9869999999901</v>
+      </c>
+    </row>
+    <row r="264" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J264">
+        <v>305.63900000000001</v>
+      </c>
+      <c r="K264">
+        <v>298.13</v>
+      </c>
+      <c r="L264">
+        <v>734.77949999999998</v>
+      </c>
+      <c r="M264">
+        <v>3153.9686999999999</v>
+      </c>
+      <c r="N264">
+        <v>8036.8697999999904</v>
+      </c>
+      <c r="O264">
+        <v>1707.4589999999901</v>
+      </c>
+    </row>
+    <row r="265" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J265">
+        <v>297.93029999999999</v>
+      </c>
+      <c r="K265">
+        <v>307.255099999999</v>
+      </c>
+      <c r="L265">
+        <v>739.37169999999901</v>
+      </c>
+      <c r="M265">
+        <v>3258.5396999999998</v>
+      </c>
+      <c r="N265">
+        <v>8063.3117999999904</v>
+      </c>
+      <c r="O265">
+        <v>1794.23259999999</v>
+      </c>
+    </row>
+    <row r="266" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J266">
+        <v>327.26979999999998</v>
+      </c>
+      <c r="K266">
+        <v>299.35379999999998</v>
+      </c>
+      <c r="L266">
+        <v>764.27649999999903</v>
+      </c>
+      <c r="M266">
+        <v>3142.1569</v>
+      </c>
+      <c r="N266">
+        <v>8040.5262999999904</v>
+      </c>
+      <c r="O266">
+        <v>1728.6757</v>
+      </c>
+    </row>
+    <row r="267" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J267">
+        <v>307.98669999999998</v>
+      </c>
+      <c r="K267">
+        <v>297.7423</v>
+      </c>
+      <c r="L267">
+        <v>745.37270000000001</v>
+      </c>
+      <c r="M267">
+        <v>3157.6608999999999</v>
+      </c>
+      <c r="N267">
+        <v>8055.2145999999902</v>
+      </c>
+      <c r="O267">
+        <v>1625.3396</v>
+      </c>
+    </row>
+    <row r="268" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J268">
+        <v>1404.9528</v>
+      </c>
+      <c r="K268">
+        <v>315.98989999999998</v>
+      </c>
+      <c r="L268">
+        <v>780.39969999999903</v>
+      </c>
+      <c r="M268">
+        <v>3183.0115999999998</v>
+      </c>
+      <c r="N268">
+        <v>8078.0201999999999</v>
+      </c>
+      <c r="O268">
+        <v>1649.1479999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J269">
+        <v>291.26119999999997</v>
+      </c>
+      <c r="K269">
+        <v>635.88709999999901</v>
+      </c>
+      <c r="L269">
+        <v>746.28409999999997</v>
+      </c>
+      <c r="M269">
+        <v>3184.2003999999902</v>
+      </c>
+      <c r="N269">
+        <v>8050.8919999999998</v>
+      </c>
+      <c r="O269">
+        <v>1587.7592</v>
+      </c>
+    </row>
+    <row r="270" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J270">
+        <v>310.69630000000001</v>
+      </c>
+      <c r="K270">
+        <v>308.0034</v>
+      </c>
+      <c r="L270">
+        <v>749.68449999999996</v>
+      </c>
+      <c r="M270">
+        <v>3154.4395</v>
+      </c>
+      <c r="N270">
+        <v>8040.4569999999903</v>
+      </c>
+      <c r="O270">
+        <v>1954.2261999999901</v>
+      </c>
+    </row>
+    <row r="271" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J271">
+        <v>298.24019999999899</v>
+      </c>
+      <c r="K271">
+        <v>300.8159</v>
+      </c>
+      <c r="L271">
+        <v>755.03800000000001</v>
+      </c>
+      <c r="M271">
+        <v>3229.5142999999998</v>
+      </c>
+      <c r="N271">
+        <v>8018.259</v>
+      </c>
+      <c r="O271">
+        <v>2510.2770999999998</v>
+      </c>
+    </row>
+    <row r="272" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J272">
+        <v>296.17329999999998</v>
+      </c>
+      <c r="K272">
+        <v>295.59100000000001</v>
+      </c>
+      <c r="L272">
+        <v>778.82639999999901</v>
+      </c>
+      <c r="M272">
+        <v>3228.8844999999901</v>
+      </c>
+      <c r="N272">
+        <v>8100.1058999999996</v>
+      </c>
+      <c r="O272">
+        <v>1904.1768999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J273">
+        <v>303.39749999999998</v>
+      </c>
+      <c r="K273">
+        <v>318.185</v>
+      </c>
+      <c r="L273">
+        <v>747.60169999999903</v>
+      </c>
+      <c r="M273">
+        <v>3238.3370999999902</v>
+      </c>
+      <c r="N273">
+        <v>8061.2388000000001</v>
+      </c>
+      <c r="O273">
+        <v>1735.8339999999901</v>
+      </c>
+    </row>
+    <row r="274" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J274">
+        <v>296.57619999999997</v>
+      </c>
+      <c r="K274">
+        <v>307.50889999999998</v>
+      </c>
+      <c r="L274">
+        <v>742.41109999999901</v>
+      </c>
+      <c r="M274">
+        <v>3278.3116999999902</v>
+      </c>
+      <c r="N274">
+        <v>8056.1458999999904</v>
+      </c>
+      <c r="O274">
+        <v>1886.0628999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J275">
+        <v>296.33229999999998</v>
+      </c>
+      <c r="K275">
+        <v>301.68579999999997</v>
+      </c>
+      <c r="L275">
+        <v>754.82510000000002</v>
+      </c>
+      <c r="M275">
+        <v>3265.0003999999999</v>
+      </c>
+      <c r="N275">
+        <v>8037.4438</v>
+      </c>
+      <c r="O275">
+        <v>1765.2193</v>
+      </c>
+    </row>
+    <row r="276" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J276">
+        <v>297.4221</v>
+      </c>
+      <c r="K276">
+        <v>298.61439999999999</v>
+      </c>
+      <c r="L276">
+        <v>760.44269999999995</v>
+      </c>
+      <c r="M276">
+        <v>3200.1134999999999</v>
+      </c>
+      <c r="N276">
+        <v>8069.7093999999997</v>
+      </c>
+      <c r="O276">
+        <v>1720.2131999999999</v>
+      </c>
+    </row>
+    <row r="277" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J277">
+        <v>1115.0763999999999</v>
+      </c>
+      <c r="K277">
+        <v>310.09089999999998</v>
+      </c>
+      <c r="L277">
+        <v>740.34460000000001</v>
+      </c>
+      <c r="M277">
+        <v>3178.9665</v>
+      </c>
+      <c r="N277">
+        <v>8063.5914999999904</v>
+      </c>
+      <c r="O277">
+        <v>1688.9213999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J278">
+        <v>300.94319999999999</v>
+      </c>
+      <c r="K278">
+        <v>306.10829999999999</v>
+      </c>
+      <c r="L278">
+        <v>742.20979999999997</v>
+      </c>
+      <c r="M278">
+        <v>3173.6678999999999</v>
+      </c>
+      <c r="N278">
+        <v>8023.3015999999998</v>
+      </c>
+      <c r="O278">
+        <v>1708.6588999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J279">
+        <v>302.78719999999998</v>
+      </c>
+      <c r="K279">
+        <v>580.82819999999901</v>
+      </c>
+      <c r="L279">
+        <v>759.601799999999</v>
+      </c>
+      <c r="M279">
+        <v>3161.1653999999999</v>
+      </c>
+      <c r="N279">
+        <v>8046.5983999999999</v>
+      </c>
+      <c r="O279">
+        <v>1774.63839999999</v>
+      </c>
+    </row>
+    <row r="280" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J280">
+        <v>304.59620000000001</v>
+      </c>
+      <c r="K280">
+        <v>299.722299999999</v>
+      </c>
+      <c r="L280">
+        <v>762.68759999999997</v>
+      </c>
+      <c r="M280">
+        <v>3146.3398999999999</v>
+      </c>
+      <c r="N280">
+        <v>8125.2055</v>
+      </c>
+      <c r="O280">
+        <v>2677.0040999999901</v>
+      </c>
+    </row>
+    <row r="281" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J281">
+        <v>296.61259999999999</v>
+      </c>
+      <c r="K281">
+        <v>302.93340000000001</v>
+      </c>
+      <c r="L281">
+        <v>778.51659999999902</v>
+      </c>
+      <c r="M281">
+        <v>3173.4168</v>
+      </c>
+      <c r="N281">
+        <v>8098.3471</v>
+      </c>
+      <c r="O281">
+        <v>1707.1342</v>
+      </c>
+    </row>
+    <row r="282" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J282">
+        <v>305.91999999999899</v>
+      </c>
+      <c r="K282">
+        <v>320.6275</v>
+      </c>
+      <c r="L282">
+        <v>758.15940000000001</v>
+      </c>
+      <c r="M282">
+        <v>3192.8739999999998</v>
+      </c>
+      <c r="N282">
+        <v>8037.4897999999903</v>
+      </c>
+      <c r="O282">
+        <v>1780.4949999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J283">
+        <v>297.85649999999998</v>
+      </c>
+      <c r="K283">
+        <v>343.624699999999</v>
+      </c>
+      <c r="L283">
+        <v>767.99270000000001</v>
+      </c>
+      <c r="M283">
+        <v>3168.9481000000001</v>
+      </c>
+      <c r="N283">
+        <v>8040.9269999999997</v>
+      </c>
+      <c r="O283">
+        <v>1564.7623999999901</v>
+      </c>
+    </row>
+    <row r="284" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J284">
+        <v>301.73249999999899</v>
+      </c>
+      <c r="K284">
+        <v>309.38389999999998</v>
+      </c>
+      <c r="L284">
+        <v>773.78399999999999</v>
+      </c>
+      <c r="M284">
+        <v>3180.7752</v>
+      </c>
+      <c r="N284">
+        <v>8035.5761999999904</v>
+      </c>
+      <c r="O284">
+        <v>1885.26799999999</v>
+      </c>
+    </row>
+    <row r="285" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J285">
+        <v>303.58589999999998</v>
+      </c>
+      <c r="K285">
+        <v>309.47269999999997</v>
+      </c>
+      <c r="L285">
+        <v>738.74699999999996</v>
+      </c>
+      <c r="M285">
+        <v>3150.1470999999901</v>
+      </c>
+      <c r="N285">
+        <v>8111.6104999999998</v>
+      </c>
+      <c r="O285">
+        <v>1726.8995</v>
+      </c>
+    </row>
+    <row r="286" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J286">
+        <v>1112.6576</v>
+      </c>
+      <c r="K286">
+        <v>311.726599999999</v>
+      </c>
+      <c r="L286">
+        <v>763.9529</v>
+      </c>
+      <c r="M286">
+        <v>3157.0086999999999</v>
+      </c>
+      <c r="N286">
+        <v>8037.0940000000001</v>
+      </c>
+      <c r="O286">
+        <v>1807.7338</v>
+      </c>
+    </row>
+    <row r="287" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J287">
+        <v>313.08339999999998</v>
+      </c>
+      <c r="K287">
+        <v>597.48979999999995</v>
+      </c>
+      <c r="L287">
+        <v>749.9479</v>
+      </c>
+      <c r="M287">
+        <v>3168.9213999999902</v>
+      </c>
+      <c r="N287">
+        <v>8048.5556999999999</v>
+      </c>
+      <c r="O287">
+        <v>1566.2319</v>
+      </c>
+    </row>
+    <row r="288" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J288">
+        <v>311.8947</v>
+      </c>
+      <c r="K288">
+        <v>291.63470000000001</v>
+      </c>
+      <c r="L288">
+        <v>756.53489999999999</v>
+      </c>
+      <c r="M288">
+        <v>3166.2608999999902</v>
+      </c>
+      <c r="N288">
+        <v>8036.7268999999997</v>
+      </c>
+      <c r="O288">
+        <v>1728.7003</v>
+      </c>
+    </row>
+    <row r="289" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J289">
+        <v>309.51229999999998</v>
+      </c>
+      <c r="K289">
+        <v>302.39400000000001</v>
+      </c>
+      <c r="L289">
+        <v>751.15249999999901</v>
+      </c>
+      <c r="M289">
+        <v>3170.3375999999998</v>
+      </c>
+      <c r="N289">
+        <v>8044.7046</v>
+      </c>
+      <c r="O289">
+        <v>2627.8465000000001</v>
+      </c>
+    </row>
+    <row r="290" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J290">
+        <v>318.4203</v>
+      </c>
+      <c r="K290">
+        <v>297.14569999999998</v>
+      </c>
+      <c r="L290">
+        <v>745.54660000000001</v>
+      </c>
+      <c r="M290">
+        <v>3181.1702999999902</v>
+      </c>
+      <c r="N290">
+        <v>8033.4069999999901</v>
+      </c>
+      <c r="O290">
+        <v>1665.0476999999901</v>
+      </c>
+    </row>
+    <row r="291" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J291">
+        <v>308.425399999999</v>
+      </c>
+      <c r="K291">
+        <v>296.4477</v>
+      </c>
+      <c r="L291">
+        <v>776.46199999999999</v>
+      </c>
+      <c r="M291">
+        <v>3164.5121999999901</v>
+      </c>
+      <c r="N291">
+        <v>8039.8249999999998</v>
+      </c>
+      <c r="O291">
+        <v>1672.0101</v>
+      </c>
+    </row>
+    <row r="292" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J292">
+        <v>318.661799999999</v>
+      </c>
+      <c r="K292">
+        <v>299.67910000000001</v>
+      </c>
+      <c r="L292">
+        <v>773.37090000000001</v>
+      </c>
+      <c r="M292">
+        <v>3160.7447999999999</v>
+      </c>
+      <c r="N292">
+        <v>8051.1846999999998</v>
+      </c>
+      <c r="O292">
+        <v>1974.6902</v>
+      </c>
+    </row>
+    <row r="293" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J293">
+        <v>309.23390000000001</v>
+      </c>
+      <c r="K293">
+        <v>293.82560000000001</v>
+      </c>
+      <c r="L293">
+        <v>738.01139999999998</v>
+      </c>
+      <c r="M293">
+        <v>3178.7071000000001</v>
+      </c>
+      <c r="N293">
+        <v>8025.6992</v>
+      </c>
+      <c r="O293">
+        <v>1807.0527999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J294">
+        <v>306.749699999999</v>
+      </c>
+      <c r="K294">
+        <v>293.73649999999998</v>
+      </c>
+      <c r="L294">
+        <v>747.41390000000001</v>
+      </c>
+      <c r="M294">
+        <v>3169.7214999999901</v>
+      </c>
+      <c r="N294">
+        <v>8043.6815999999999</v>
+      </c>
+      <c r="O294">
+        <v>1793.6584</v>
+      </c>
+    </row>
+    <row r="295" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J295">
+        <v>1387.7293999999999</v>
+      </c>
+      <c r="K295">
+        <v>301.01389999999998</v>
+      </c>
+      <c r="L295">
+        <v>776.36849999999902</v>
+      </c>
+      <c r="M295">
+        <v>3176.6111999999998</v>
+      </c>
+      <c r="N295">
+        <v>8048.9017999999996</v>
+      </c>
+      <c r="O295">
+        <v>1764.4098999999901</v>
+      </c>
+    </row>
+    <row r="296" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J296">
+        <v>310.76749999999998</v>
+      </c>
+      <c r="K296">
+        <v>593.62779999999998</v>
+      </c>
+      <c r="L296">
+        <v>770.34309999999903</v>
+      </c>
+      <c r="M296">
+        <v>3161.6116999999999</v>
+      </c>
+      <c r="N296">
+        <v>8047.2999999999902</v>
+      </c>
+      <c r="O296">
+        <v>1820.36849999999</v>
+      </c>
+    </row>
+    <row r="297" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J297">
+        <v>309.2353</v>
+      </c>
+      <c r="K297">
+        <v>298.02670000000001</v>
+      </c>
+      <c r="L297">
+        <v>777.814199999999</v>
+      </c>
+      <c r="M297">
+        <v>3159.0344999999902</v>
+      </c>
+      <c r="N297">
+        <v>8051.6711999999998</v>
+      </c>
+      <c r="O297">
+        <v>1833.7366</v>
+      </c>
+    </row>
+    <row r="298" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J298">
+        <v>305.564199999999</v>
+      </c>
+      <c r="K298">
+        <v>296.79750000000001</v>
+      </c>
+      <c r="L298">
+        <v>767.01729999999998</v>
+      </c>
+      <c r="M298">
+        <v>3169.0981999999999</v>
+      </c>
+      <c r="N298">
+        <v>8058.9304999999904</v>
+      </c>
+      <c r="O298">
+        <v>2556.4337999999998</v>
+      </c>
+    </row>
+    <row r="299" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J299">
+        <v>311.23329999999999</v>
+      </c>
+      <c r="K299">
+        <v>296.97309999999999</v>
+      </c>
+      <c r="L299">
+        <v>770.79089999999997</v>
+      </c>
+      <c r="M299">
+        <v>3164.5373</v>
+      </c>
+      <c r="N299">
+        <v>8061.2185999999901</v>
+      </c>
+      <c r="O299">
+        <v>1598.8429999999901</v>
+      </c>
+    </row>
+    <row r="300" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J300">
+        <v>310.54660000000001</v>
+      </c>
+      <c r="K300">
+        <v>296.9359</v>
+      </c>
+      <c r="L300">
+        <v>763.40809999999999</v>
+      </c>
+      <c r="M300">
+        <v>3167.8748000000001</v>
+      </c>
+      <c r="N300">
+        <v>8059.5857999999998</v>
+      </c>
+      <c r="O300">
+        <v>1663.9857</v>
+      </c>
+    </row>
+    <row r="301" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J301">
+        <v>321.38829999999899</v>
+      </c>
+      <c r="K301">
+        <v>301.66030000000001</v>
+      </c>
+      <c r="L301">
+        <v>736.48230000000001</v>
+      </c>
+      <c r="M301">
+        <v>3187.8042999999998</v>
+      </c>
+      <c r="N301">
+        <v>8043.9886999999999</v>
+      </c>
+      <c r="O301">
+        <v>1808.9848</v>
+      </c>
+    </row>
+    <row r="302" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J302">
+        <v>307.474099999999</v>
+      </c>
+      <c r="K302">
+        <v>295.03949999999998</v>
+      </c>
+      <c r="L302">
+        <v>758.77710000000002</v>
+      </c>
+      <c r="M302">
+        <v>3156.5121999999901</v>
+      </c>
+      <c r="N302">
+        <v>8033.9272999999903</v>
+      </c>
+      <c r="O302">
+        <v>1744.37389999999</v>
+      </c>
+    </row>
+    <row r="303" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J303">
+        <v>292.84190000000001</v>
+      </c>
+      <c r="K303">
+        <v>301.670199999999</v>
+      </c>
+      <c r="L303">
+        <v>794.04499999999996</v>
+      </c>
+      <c r="M303">
+        <v>3165.3258999999998</v>
+      </c>
+      <c r="N303">
+        <v>8037.1472999999996</v>
+      </c>
+      <c r="O303">
+        <v>1586.0020999999999</v>
+      </c>
+    </row>
+    <row r="304" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J304">
+        <v>1434.1346999999901</v>
+      </c>
+      <c r="K304">
+        <v>296.2978</v>
+      </c>
+      <c r="L304">
+        <v>752.35889999999995</v>
+      </c>
+      <c r="M304">
+        <v>3159.0816999999902</v>
+      </c>
+      <c r="N304">
+        <v>8057.6614</v>
+      </c>
+      <c r="O304">
+        <v>1797.8144</v>
+      </c>
+    </row>
+    <row r="305" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J305">
+        <v>296.88749999999999</v>
+      </c>
+      <c r="K305">
+        <v>574.99400000000003</v>
+      </c>
+      <c r="L305">
+        <v>763.67769999999996</v>
+      </c>
+      <c r="M305">
+        <v>3151.0288</v>
+      </c>
+      <c r="N305">
+        <v>8036.7028999999902</v>
+      </c>
+      <c r="O305">
+        <v>1667.5915</v>
+      </c>
+    </row>
+    <row r="306" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J306">
+        <v>305.16559999999998</v>
+      </c>
+      <c r="K306">
+        <v>299.99109999999899</v>
+      </c>
+      <c r="L306">
+        <v>758.45780000000002</v>
+      </c>
+      <c r="M306">
+        <v>3156.4020999999998</v>
+      </c>
+      <c r="N306">
+        <v>8026.9504999999999</v>
+      </c>
+      <c r="O306">
+        <v>1849.3655999999901</v>
+      </c>
+    </row>
+    <row r="307" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J307">
+        <v>295.3032</v>
+      </c>
+      <c r="K307">
+        <v>296.6431</v>
+      </c>
+      <c r="L307">
+        <v>766.62270000000001</v>
+      </c>
+      <c r="M307">
+        <v>3153.2105999999999</v>
+      </c>
+      <c r="N307">
+        <v>8055.1651999999904</v>
+      </c>
+      <c r="O307">
+        <v>2439.3231000000001</v>
+      </c>
+    </row>
+    <row r="308" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J308">
+        <v>297.29939999999999</v>
+      </c>
+      <c r="K308">
+        <v>293.16899999999998</v>
+      </c>
+      <c r="L308">
+        <v>793.40509999999995</v>
+      </c>
+      <c r="M308">
+        <v>3168.3575000000001</v>
+      </c>
+      <c r="N308">
+        <v>8043.3697999999904</v>
+      </c>
+      <c r="O308">
+        <v>1788.7047</v>
+      </c>
+    </row>
+    <row r="309" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J309">
+        <v>296.97710000000001</v>
+      </c>
+      <c r="K309">
+        <v>296.77850000000001</v>
+      </c>
+      <c r="L309">
+        <v>779.03530000000001</v>
+      </c>
+      <c r="M309">
+        <v>3172.5070999999998</v>
+      </c>
+      <c r="N309">
+        <v>8046.6529</v>
+      </c>
+      <c r="O309">
+        <v>1584.8442</v>
+      </c>
+    </row>
+    <row r="310" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J310">
+        <v>295.43239999999997</v>
+      </c>
+      <c r="K310">
+        <v>293.377399999999</v>
+      </c>
+      <c r="L310">
+        <v>782.30949999999996</v>
+      </c>
+      <c r="M310">
+        <v>3158.4213</v>
+      </c>
+      <c r="N310">
+        <v>8040.9236999999903</v>
+      </c>
+      <c r="O310">
+        <v>1944.3371999999999</v>
+      </c>
+    </row>
+    <row r="311" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J311">
+        <v>296.894399999999</v>
+      </c>
+      <c r="K311">
+        <v>300.43209999999999</v>
+      </c>
+      <c r="L311">
+        <v>778.15109999999902</v>
+      </c>
+      <c r="M311">
+        <v>3169.3869</v>
+      </c>
+      <c r="N311">
+        <v>8062.2208000000001</v>
+      </c>
+      <c r="O311">
+        <v>1830.7640999999901</v>
+      </c>
+    </row>
+    <row r="312" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J312">
+        <v>296.10739999999998</v>
+      </c>
+      <c r="K312">
+        <v>298.438099999999</v>
+      </c>
+      <c r="L312">
+        <v>794.58259999999996</v>
+      </c>
+      <c r="M312">
+        <v>3196.4209999999998</v>
+      </c>
+      <c r="N312">
+        <v>8049.8113999999996</v>
+      </c>
+      <c r="O312">
+        <v>1655.8194999999901</v>
+      </c>
+    </row>
+    <row r="313" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J313">
+        <v>1114.2639999999999</v>
+      </c>
+      <c r="K313">
+        <v>296.21199999999999</v>
+      </c>
+      <c r="L313">
+        <v>769.42779999999902</v>
+      </c>
+      <c r="M313">
+        <v>3188.0816</v>
+      </c>
+      <c r="N313">
+        <v>8058.3826999999901</v>
+      </c>
+      <c r="O313">
+        <v>1661.876</v>
+      </c>
+    </row>
+    <row r="314" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J314">
+        <v>303.65809999999999</v>
+      </c>
+      <c r="K314">
+        <v>579.92779999999902</v>
+      </c>
+      <c r="L314">
+        <v>808.93200000000002</v>
+      </c>
+      <c r="M314">
+        <v>5628.4378999999999</v>
+      </c>
+      <c r="N314">
+        <v>8859.1692000000003</v>
+      </c>
+      <c r="O314">
+        <v>1975.7726</v>
+      </c>
+    </row>
+    <row r="315" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J315">
+        <v>661.38019999999995</v>
+      </c>
+      <c r="K315">
+        <v>692.96669999999995</v>
+      </c>
+      <c r="L315">
+        <v>1111.9303</v>
+      </c>
+      <c r="M315">
+        <v>6275.6457</v>
+      </c>
+      <c r="N315">
+        <v>13540.3014</v>
+      </c>
+      <c r="O315">
+        <v>3977.5803999999998</v>
+      </c>
+    </row>
+    <row r="316" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J316">
+        <v>613.04020000000003</v>
+      </c>
+      <c r="K316">
+        <v>589.69489999999996</v>
+      </c>
+      <c r="L316">
+        <v>872.44369999999901</v>
+      </c>
+      <c r="M316">
+        <v>6840.1297999999997</v>
+      </c>
+      <c r="N316">
+        <v>10766.0839</v>
+      </c>
+      <c r="O316">
+        <v>2029.7296999999901</v>
+      </c>
+    </row>
+    <row r="317" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J317">
+        <v>625.82299999999998</v>
+      </c>
+      <c r="K317">
+        <v>615.32399999999996</v>
+      </c>
+      <c r="L317">
+        <v>1496.79869999999</v>
+      </c>
+      <c r="M317">
+        <v>6744.6598999999997</v>
+      </c>
+      <c r="N317">
+        <v>17941.276399999999</v>
+      </c>
+      <c r="O317">
+        <v>3278.6873000000001</v>
+      </c>
+    </row>
+    <row r="318" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J318">
+        <v>638.50889999999902</v>
+      </c>
+      <c r="K318">
+        <v>618.59460000000001</v>
+      </c>
+      <c r="L318">
+        <v>1497.4349</v>
+      </c>
+      <c r="M318">
+        <v>7295.7604000000001</v>
+      </c>
+      <c r="N318">
+        <v>18302.713799999899</v>
+      </c>
+      <c r="O318">
+        <v>3299.4816000000001</v>
+      </c>
+    </row>
+    <row r="319" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J319">
+        <v>1722.9466</v>
+      </c>
+      <c r="K319">
+        <v>914.14170000000001</v>
+      </c>
+      <c r="L319">
+        <v>1538.76339999999</v>
+      </c>
+      <c r="M319">
+        <v>7231.0164999999997</v>
+      </c>
+      <c r="N319">
+        <v>18392.0075</v>
+      </c>
+      <c r="O319">
+        <v>3315.3336999999901</v>
+      </c>
+    </row>
+    <row r="320" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J320">
+        <v>665.78890000000001</v>
+      </c>
+      <c r="K320">
+        <v>631.32249999999999</v>
+      </c>
+      <c r="L320">
+        <v>1610.4458999999999</v>
+      </c>
+      <c r="M320">
+        <v>7305.1818999999996</v>
+      </c>
+      <c r="N320">
+        <v>18951.7389999999</v>
+      </c>
+      <c r="O320">
+        <v>4237.5937999999996</v>
+      </c>
+    </row>
+    <row r="321" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J321">
+        <v>669.47320000000002</v>
+      </c>
+      <c r="K321">
+        <v>611.60309999999902</v>
+      </c>
+      <c r="L321">
+        <v>1548.0071</v>
+      </c>
+      <c r="M321">
+        <v>7051.2219999999998</v>
+      </c>
+      <c r="N321">
+        <v>18518.6185</v>
+      </c>
+      <c r="O321">
+        <v>3338.5196999999998</v>
+      </c>
+    </row>
+    <row r="322" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J322">
+        <v>658.47939999999903</v>
+      </c>
+      <c r="K322">
+        <v>669.83849999999995</v>
+      </c>
+      <c r="L322">
+        <v>1539.6867999999999</v>
+      </c>
+      <c r="M322">
+        <v>3201.5261999999998</v>
+      </c>
+      <c r="N322">
+        <v>11376.5592</v>
+      </c>
+      <c r="O322">
+        <v>3519.1592999999998</v>
+      </c>
+    </row>
+    <row r="323" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J323">
+        <v>335.56809999999899</v>
+      </c>
+      <c r="K323">
+        <v>302.391899999999</v>
+      </c>
+      <c r="L323">
+        <v>780.6979</v>
+      </c>
+      <c r="M323">
+        <v>3198.4870000000001</v>
+      </c>
+      <c r="N323">
+        <v>8072.6589999999997</v>
+      </c>
+      <c r="O323">
+        <v>1575.8833999999999</v>
+      </c>
+    </row>
+    <row r="324" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J324">
+        <v>1150.6341</v>
+      </c>
+      <c r="K324">
+        <v>574.56269999999995</v>
+      </c>
+      <c r="L324">
+        <v>737.53919999999903</v>
+      </c>
+      <c r="M324">
+        <v>3178.3835999999901</v>
+      </c>
+      <c r="N324">
+        <v>8051.0168999999996</v>
+      </c>
+      <c r="O324">
+        <v>1580.9983999999999</v>
+      </c>
+    </row>
+    <row r="325" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J325">
+        <v>316.7645</v>
+      </c>
+      <c r="K325">
+        <v>298.9162</v>
+      </c>
+      <c r="L325">
+        <v>791.45939999999996</v>
+      </c>
+      <c r="M325">
+        <v>3157.904</v>
+      </c>
+      <c r="N325">
+        <v>8046.4829999999902</v>
+      </c>
+      <c r="O325">
+        <v>1531.8045999999999</v>
+      </c>
+    </row>
+    <row r="326" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J326">
+        <v>316.89830000000001</v>
+      </c>
+      <c r="K326">
+        <v>311.44040000000001</v>
+      </c>
+      <c r="L326">
+        <v>763.38919999999996</v>
+      </c>
+      <c r="M326">
+        <v>3162.6972000000001</v>
+      </c>
+      <c r="N326">
+        <v>8067.5113999999903</v>
+      </c>
+      <c r="O326">
+        <v>2550.2581999999902</v>
+      </c>
+    </row>
+    <row r="327" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J327">
+        <v>313.2346</v>
+      </c>
+      <c r="K327">
+        <v>299.37430000000001</v>
+      </c>
+      <c r="L327">
+        <v>777.20240000000001</v>
+      </c>
+      <c r="M327">
+        <v>3165.5560999999998</v>
+      </c>
+      <c r="N327">
+        <v>8051.5883999999996</v>
+      </c>
+      <c r="O327">
+        <v>1688.3022999999901</v>
+      </c>
+    </row>
+    <row r="328" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J328">
+        <v>317.90069999999997</v>
+      </c>
+      <c r="K328">
+        <v>302.97899999999998</v>
+      </c>
+      <c r="L328">
+        <v>755.52419999999995</v>
+      </c>
+      <c r="M328">
+        <v>3184.2707999999998</v>
+      </c>
+      <c r="N328">
+        <v>8056.0632999999998</v>
+      </c>
+      <c r="O328">
+        <v>1560.1704</v>
+      </c>
+    </row>
+    <row r="329" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J329">
+        <v>326.44119999999998</v>
+      </c>
+      <c r="K329">
+        <v>313.62599999999998</v>
+      </c>
+      <c r="L329">
+        <v>726.87090000000001</v>
+      </c>
+      <c r="M329">
+        <v>3169.5560999999998</v>
+      </c>
+      <c r="N329">
+        <v>8040.6850999999997</v>
+      </c>
+      <c r="O329">
+        <v>1652.8785</v>
+      </c>
+    </row>
+    <row r="330" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J330">
+        <v>314.04300000000001</v>
+      </c>
+      <c r="K330">
+        <v>299.55770000000001</v>
+      </c>
+      <c r="L330">
+        <v>722.68729999999903</v>
+      </c>
+      <c r="M330">
+        <v>3148.3687</v>
+      </c>
+      <c r="N330">
+        <v>8053.3607999999904</v>
+      </c>
+      <c r="O330">
+        <v>1604.2233999999901</v>
+      </c>
+    </row>
+    <row r="331" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J331">
+        <v>314.30869999999999</v>
+      </c>
+      <c r="K331">
+        <v>298.27089999999998</v>
+      </c>
+      <c r="L331">
+        <v>743.92179999999996</v>
+      </c>
+      <c r="M331">
+        <v>3236.4795999999901</v>
+      </c>
+      <c r="N331">
+        <v>8268.4450999999899</v>
+      </c>
+      <c r="O331">
+        <v>1545.4156</v>
+      </c>
+    </row>
+    <row r="332" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J332">
+        <v>578.16660000000002</v>
+      </c>
+      <c r="K332">
+        <v>308.1662</v>
+      </c>
+      <c r="L332">
+        <v>751.34780000000001</v>
+      </c>
+      <c r="M332">
+        <v>3171.2033999999999</v>
+      </c>
+      <c r="N332">
+        <v>8040.1796999999997</v>
+      </c>
+      <c r="O332">
+        <v>1541.6210999999901</v>
+      </c>
+    </row>
+    <row r="333" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J333">
+        <v>296.4769</v>
+      </c>
+      <c r="K333">
+        <v>645.226</v>
+      </c>
+      <c r="L333">
+        <v>804.84339999999997</v>
+      </c>
+      <c r="M333">
+        <v>3145.9105999999902</v>
+      </c>
+      <c r="N333">
+        <v>8052.6317999999901</v>
+      </c>
+      <c r="O333">
+        <v>1596.7491</v>
+      </c>
+    </row>
+    <row r="334" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J334">
+        <v>295.30759999999998</v>
+      </c>
+      <c r="K334">
+        <v>294.8639</v>
+      </c>
+      <c r="L334">
+        <v>750.90219999999999</v>
+      </c>
+      <c r="M334">
+        <v>3181.7500999999902</v>
+      </c>
+      <c r="N334">
+        <v>8054.7215999999999</v>
+      </c>
+      <c r="O334">
+        <v>2504.4594999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J335">
+        <v>301.564899999999</v>
+      </c>
+      <c r="K335">
+        <v>292.87860000000001</v>
+      </c>
+      <c r="L335">
+        <v>785.82830000000001</v>
+      </c>
+      <c r="M335">
+        <v>3165.5303999999901</v>
+      </c>
+      <c r="N335">
+        <v>8053.3798999999999</v>
+      </c>
+      <c r="O335">
+        <v>1543.4727</v>
+      </c>
+    </row>
+    <row r="336" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J336">
+        <v>297.00559999999899</v>
+      </c>
+      <c r="K336">
+        <v>299.09639999999899</v>
+      </c>
+      <c r="L336">
+        <v>802.63029999999901</v>
+      </c>
+      <c r="M336">
+        <v>3155.0023999999999</v>
+      </c>
+      <c r="N336">
+        <v>8053.6750999999904</v>
+      </c>
+      <c r="O336">
+        <v>1601.9241999999999</v>
+      </c>
+    </row>
+    <row r="337" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J337">
+        <v>297.569899999999</v>
+      </c>
+      <c r="K337">
+        <v>298.32130000000001</v>
+      </c>
+      <c r="L337">
+        <v>760.45699999999999</v>
+      </c>
+      <c r="M337">
+        <v>3149.6635999999999</v>
+      </c>
+      <c r="N337">
+        <v>8058.8555999999999</v>
+      </c>
+      <c r="O337">
+        <v>1546.2627</v>
+      </c>
+    </row>
+    <row r="338" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J338">
+        <v>301.90690000000001</v>
+      </c>
+      <c r="K338">
+        <v>295.77859999999998</v>
+      </c>
+      <c r="L338">
+        <v>781.88760000000002</v>
+      </c>
+      <c r="M338">
+        <v>3183.5589</v>
+      </c>
+      <c r="N338">
+        <v>8042.8139999999903</v>
+      </c>
+      <c r="O338">
+        <v>1729.1815999999999</v>
+      </c>
+    </row>
+    <row r="339" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J339">
+        <v>296.32</v>
+      </c>
+      <c r="K339">
+        <v>302.445099999999</v>
+      </c>
+      <c r="L339">
+        <v>779.72449999999901</v>
+      </c>
+      <c r="M339">
+        <v>3185.3126999999999</v>
+      </c>
+      <c r="N339">
+        <v>8049.9893999999904</v>
+      </c>
+      <c r="O339">
+        <v>1616.6902</v>
+      </c>
+    </row>
+    <row r="340" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J340">
+        <v>299.84199999999998</v>
+      </c>
+      <c r="K340">
+        <v>327.71429999999998</v>
+      </c>
+      <c r="L340">
+        <v>765.17039999999997</v>
+      </c>
+      <c r="M340">
+        <v>3167.8966999999998</v>
+      </c>
+      <c r="N340">
+        <v>8046.8146999999999</v>
+      </c>
+      <c r="O340">
+        <v>1637.4893</v>
+      </c>
+    </row>
+    <row r="341" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J341">
+        <v>1453.7546</v>
+      </c>
+      <c r="K341">
+        <v>292.6173</v>
+      </c>
+      <c r="L341">
+        <v>800.76189999999997</v>
+      </c>
+      <c r="M341">
+        <v>3161.7404999999999</v>
+      </c>
+      <c r="N341">
+        <v>8034.0157999999901</v>
+      </c>
+      <c r="O341">
+        <v>1635.472</v>
+      </c>
+    </row>
+    <row r="342" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J342">
+        <v>294.6311</v>
+      </c>
+      <c r="K342">
+        <v>587.0421</v>
+      </c>
+      <c r="L342">
+        <v>790.77459999999996</v>
+      </c>
+      <c r="M342">
+        <v>3175.1999000000001</v>
+      </c>
+      <c r="N342">
+        <v>8050.1556</v>
+      </c>
+      <c r="O342">
+        <v>1743.3788999999999</v>
+      </c>
+    </row>
+    <row r="343" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J343">
+        <v>296.637</v>
+      </c>
+      <c r="K343">
+        <v>297.59710000000001</v>
+      </c>
+      <c r="L343">
+        <v>793.94659999999999</v>
+      </c>
+      <c r="M343">
+        <v>3158.6751999999901</v>
+      </c>
+      <c r="N343">
+        <v>8038.8390999999901</v>
+      </c>
+      <c r="O343">
+        <v>2454.0322999999999</v>
+      </c>
+    </row>
+    <row r="344" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J344">
+        <v>294.191699999999</v>
+      </c>
+      <c r="K344">
+        <v>300.629899999999</v>
+      </c>
+      <c r="L344">
+        <v>758.33949999999902</v>
+      </c>
+      <c r="M344">
+        <v>3178.299</v>
+      </c>
+      <c r="N344">
+        <v>8039.3125</v>
+      </c>
+      <c r="O344">
+        <v>1555.8088</v>
+      </c>
+    </row>
+    <row r="345" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J345">
+        <v>297.26339999999999</v>
+      </c>
+      <c r="K345">
+        <v>297.616999999999</v>
+      </c>
+      <c r="L345">
+        <v>765.49249999999995</v>
+      </c>
+      <c r="M345">
+        <v>3149.5300999999999</v>
+      </c>
+      <c r="N345">
+        <v>8051.3183999999901</v>
+      </c>
+      <c r="O345">
+        <v>1540.4399999999901</v>
+      </c>
+    </row>
+    <row r="346" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J346">
+        <v>293.23719999999997</v>
+      </c>
+      <c r="K346">
+        <v>303.63119999999998</v>
+      </c>
+      <c r="L346">
+        <v>778.54089999999997</v>
+      </c>
+      <c r="M346">
+        <v>3198.5751999999902</v>
+      </c>
+      <c r="N346">
+        <v>8068.6421</v>
+      </c>
+      <c r="O346">
+        <v>1584.9629</v>
+      </c>
+    </row>
+    <row r="347" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J347">
+        <v>314.28199999999998</v>
+      </c>
+      <c r="K347">
+        <v>294.12329999999997</v>
+      </c>
+      <c r="L347">
+        <v>767.35050000000001</v>
+      </c>
+      <c r="M347">
+        <v>3160.7044999999998</v>
+      </c>
+      <c r="N347">
+        <v>8059.3604999999998</v>
+      </c>
+      <c r="O347">
+        <v>1812.8870999999999</v>
+      </c>
+    </row>
+    <row r="348" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J348">
+        <v>637.98239999999998</v>
+      </c>
+      <c r="K348">
+        <v>722.046999999999</v>
+      </c>
+      <c r="L348">
+        <v>1640.4712</v>
+      </c>
+      <c r="M348">
+        <v>6978.0847999999996</v>
+      </c>
+      <c r="N348">
+        <v>9951.2793000000001</v>
+      </c>
+      <c r="O348">
+        <v>3281.7338999999902</v>
+      </c>
+    </row>
+    <row r="349" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J349">
+        <v>951.25159999999903</v>
+      </c>
+      <c r="K349">
+        <v>615.69449999999995</v>
+      </c>
+      <c r="L349">
+        <v>1535.3089</v>
+      </c>
+      <c r="M349">
+        <v>6979.7053999999998</v>
+      </c>
+      <c r="N349">
+        <v>18515.482400000001</v>
+      </c>
+      <c r="O349">
+        <v>3219.3471999999902</v>
+      </c>
+    </row>
+    <row r="350" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J350">
+        <v>686.67559999999901</v>
+      </c>
+      <c r="K350">
+        <v>874.04379999999901</v>
+      </c>
+      <c r="L350">
+        <v>1558.8393999999901</v>
+      </c>
+      <c r="M350">
+        <v>6950.1244999999999</v>
+      </c>
+      <c r="N350">
+        <v>18436.7641999999</v>
+      </c>
+      <c r="O350">
+        <v>4235.2555000000002</v>
+      </c>
+    </row>
+    <row r="351" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J351">
+        <v>717.41239999999902</v>
+      </c>
+      <c r="K351">
+        <v>628.13139999999999</v>
+      </c>
+      <c r="L351">
+        <v>1532.8039999999901</v>
+      </c>
+      <c r="M351">
+        <v>7023.6518999999998</v>
+      </c>
+      <c r="N351">
+        <v>18048.7831999999</v>
+      </c>
+      <c r="O351">
+        <v>3421.6488999999901</v>
+      </c>
+    </row>
+    <row r="352" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J352">
+        <v>446.5874</v>
+      </c>
+      <c r="K352">
+        <v>600.28890000000001</v>
+      </c>
+      <c r="L352">
+        <v>1474.9984999999999</v>
+      </c>
+      <c r="M352">
+        <v>4578.9279999999999</v>
+      </c>
+      <c r="N352">
+        <v>17025.435300000001</v>
+      </c>
+      <c r="O352">
+        <v>2207.0356999999999</v>
+      </c>
+    </row>
+    <row r="353" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J353">
+        <v>466.23039999999997</v>
+      </c>
+      <c r="K353">
+        <v>452.655699999999</v>
+      </c>
+      <c r="L353">
+        <v>1357.0062</v>
+      </c>
+      <c r="M353">
+        <v>5732.5216999999902</v>
+      </c>
+      <c r="N353">
+        <v>12358.7709</v>
+      </c>
+      <c r="O353">
+        <v>2408.1295999999902</v>
+      </c>
+    </row>
+    <row r="354" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J354">
+        <v>1618.6618999999901</v>
+      </c>
+      <c r="K354">
+        <v>526.09759999999903</v>
+      </c>
+      <c r="L354">
+        <v>1743.6526999999901</v>
+      </c>
+      <c r="M354">
+        <v>4685.0239000000001</v>
+      </c>
+      <c r="N354">
+        <v>13580.6395999999</v>
+      </c>
+      <c r="O354">
+        <v>2987.4126999999999</v>
+      </c>
+    </row>
+    <row r="355" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J355">
+        <v>580.2423</v>
+      </c>
+      <c r="K355">
+        <v>702.12259999999901</v>
+      </c>
+      <c r="L355">
+        <v>1310.5620999999901</v>
+      </c>
+      <c r="M355">
+        <v>5338.7893999999997</v>
+      </c>
+      <c r="N355">
+        <v>11704.114599999901</v>
+      </c>
+      <c r="O355">
+        <v>3311.9593</v>
+      </c>
+    </row>
+    <row r="356" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J356">
+        <v>638.96190000000001</v>
+      </c>
+      <c r="K356">
+        <v>559.49929999999995</v>
+      </c>
+      <c r="L356">
+        <v>1638.3691999999901</v>
+      </c>
+      <c r="M356">
+        <v>7085.0803999999998</v>
+      </c>
+      <c r="N356">
+        <v>17687.320899999999</v>
+      </c>
+      <c r="O356">
+        <v>3204.7577999999999</v>
+      </c>
+    </row>
+    <row r="357" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J357">
+        <v>497.33859999999999</v>
+      </c>
+      <c r="K357">
+        <v>421.57979999999998</v>
+      </c>
+      <c r="L357">
+        <v>1387.7601999999999</v>
+      </c>
+      <c r="M357">
+        <v>4654.1487999999999</v>
+      </c>
+      <c r="N357">
+        <v>12576.5541999999</v>
+      </c>
+      <c r="O357">
+        <v>2298.9079999999999</v>
+      </c>
+    </row>
+    <row r="358" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J358">
+        <v>699.27139999999997</v>
+      </c>
+      <c r="K358">
+        <v>400.85909999999899</v>
+      </c>
+      <c r="L358">
+        <v>940.15729999999996</v>
+      </c>
+      <c r="M358">
+        <v>7324.4260999999997</v>
+      </c>
+      <c r="N358">
+        <v>13811.613499999999</v>
+      </c>
+      <c r="O358">
+        <v>3300.4947999999999</v>
+      </c>
+    </row>
+    <row r="359" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J359">
+        <v>1508.4260999999999</v>
+      </c>
+      <c r="K359">
+        <v>674.68459999999902</v>
+      </c>
+      <c r="L359">
+        <v>1572.8103999999901</v>
+      </c>
+      <c r="M359">
+        <v>6890.4116999999997</v>
+      </c>
+      <c r="N359">
+        <v>18703.412700000001</v>
+      </c>
+      <c r="O359">
+        <v>3502.4674</v>
+      </c>
+    </row>
+    <row r="360" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J360">
+        <v>723.75209999999902</v>
+      </c>
+      <c r="K360">
+        <v>752.77099999999996</v>
+      </c>
+      <c r="L360">
+        <v>1481.2463</v>
+      </c>
+      <c r="M360">
+        <v>7449.7698999999902</v>
+      </c>
+      <c r="N360">
+        <v>17294.416300000001</v>
+      </c>
+      <c r="O360">
+        <v>3803.8750999999902</v>
+      </c>
+    </row>
+    <row r="361" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J361">
+        <v>698.83949999999902</v>
+      </c>
+      <c r="K361">
+        <v>669.05269999999996</v>
+      </c>
+      <c r="L361">
+        <v>1638.7391</v>
+      </c>
+      <c r="M361">
+        <v>7516.2557999999999</v>
+      </c>
+      <c r="N361">
+        <v>18358.6306</v>
+      </c>
+      <c r="O361">
+        <v>3561.123</v>
+      </c>
+    </row>
+    <row r="362" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J362">
+        <v>687.78469999999902</v>
+      </c>
+      <c r="K362">
+        <v>669.55639999999903</v>
+      </c>
+      <c r="L362">
+        <v>1700.7685999999901</v>
+      </c>
+      <c r="M362">
+        <v>7557.8697999999904</v>
+      </c>
+      <c r="N362">
+        <v>18184.6715</v>
+      </c>
+      <c r="O362">
+        <v>3591.9616999999998</v>
+      </c>
+    </row>
+    <row r="363" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J363">
+        <v>527.40949999999998</v>
+      </c>
+      <c r="K363">
+        <v>781.15149999999903</v>
+      </c>
+      <c r="L363">
+        <v>1808.2735</v>
+      </c>
+      <c r="M363">
+        <v>7308.9802</v>
+      </c>
+      <c r="N363">
+        <v>12250.745199999999</v>
+      </c>
+      <c r="O363">
+        <v>3995.0739999999901</v>
+      </c>
+    </row>
+    <row r="364" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J364">
+        <v>610.68409999999994</v>
+      </c>
+      <c r="K364">
+        <v>308.39389999999997</v>
+      </c>
+      <c r="L364">
+        <v>977.3623</v>
+      </c>
+      <c r="M364">
+        <v>3431.1425999999901</v>
+      </c>
+      <c r="N364">
+        <v>8606.8971999999994</v>
+      </c>
+      <c r="O364">
+        <v>1862.9912999999999</v>
+      </c>
+    </row>
+    <row r="365" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J365">
+        <v>315.33089999999999</v>
+      </c>
+      <c r="K365">
+        <v>593.93240000000003</v>
+      </c>
+      <c r="L365">
+        <v>840.78639999999996</v>
+      </c>
+      <c r="M365">
+        <v>3451.2711999999901</v>
+      </c>
+      <c r="N365">
+        <v>8934.17759999999</v>
+      </c>
+      <c r="O365">
+        <v>1688.0834</v>
+      </c>
+    </row>
+    <row r="366" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J366">
+        <v>302.183799999999</v>
+      </c>
+      <c r="K366">
+        <v>328.09309999999999</v>
+      </c>
+      <c r="L366">
+        <v>855.72559999999999</v>
+      </c>
+      <c r="M366">
+        <v>3123.2716999999998</v>
+      </c>
+      <c r="N366">
+        <v>8526.0661</v>
+      </c>
+      <c r="O366">
+        <v>2500.4942000000001</v>
+      </c>
+    </row>
+    <row r="367" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J367">
+        <v>302.28719999999998</v>
+      </c>
+      <c r="K367">
+        <v>328.59280000000001</v>
+      </c>
+      <c r="L367">
+        <v>839.57269999999903</v>
+      </c>
+      <c r="M367">
+        <v>3247.5213999999901</v>
+      </c>
+      <c r="N367">
+        <v>8634.0949999999993</v>
+      </c>
+      <c r="O367">
+        <v>1608.7908</v>
+      </c>
+    </row>
+    <row r="368" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J368">
+        <v>328.284999999999</v>
+      </c>
+      <c r="K368">
+        <v>304.22489999999999</v>
+      </c>
+      <c r="L368">
+        <v>812.42619999999999</v>
+      </c>
+      <c r="M368">
+        <v>3190.7410999999902</v>
+      </c>
+      <c r="N368">
+        <v>8389.5787999999993</v>
+      </c>
+      <c r="O368">
+        <v>1688.0736999999999</v>
+      </c>
+    </row>
+    <row r="369" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J369">
+        <v>302.1574</v>
+      </c>
+      <c r="K369">
+        <v>328.357699999999</v>
+      </c>
+      <c r="L369">
+        <v>856.2654</v>
+      </c>
+      <c r="M369">
+        <v>3263.3968999999902</v>
+      </c>
+      <c r="N369">
+        <v>8591.2007999999896</v>
+      </c>
+      <c r="O369">
+        <v>1672.10309999999</v>
+      </c>
+    </row>
+    <row r="370" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J370">
+        <v>298.67140000000001</v>
+      </c>
+      <c r="K370">
+        <v>406.094799999999</v>
+      </c>
+      <c r="L370">
+        <v>871.32659999999998</v>
+      </c>
+      <c r="M370">
+        <v>3216.6623</v>
+      </c>
+      <c r="N370">
+        <v>8434.5282999999999</v>
+      </c>
+      <c r="O370">
+        <v>1641.9442999999901</v>
+      </c>
+    </row>
+    <row r="371" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J371">
+        <v>489.43329999999997</v>
+      </c>
+      <c r="K371">
+        <v>320.80340000000001</v>
+      </c>
+      <c r="L371">
+        <v>858.26609999999903</v>
+      </c>
+      <c r="M371">
+        <v>3258.1666999999902</v>
+      </c>
+      <c r="N371">
+        <v>8085.0782999999901</v>
+      </c>
+      <c r="O371">
+        <v>1656.9930999999999</v>
+      </c>
+    </row>
+    <row r="372" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J372">
+        <v>296.84989999999999</v>
+      </c>
+      <c r="K372">
+        <v>302.4248</v>
+      </c>
+      <c r="L372">
+        <v>765.77350000000001</v>
+      </c>
+      <c r="M372">
+        <v>3163.4694999999901</v>
+      </c>
+      <c r="N372">
+        <v>8046.835</v>
+      </c>
+      <c r="O372">
+        <v>1547.5656999999901</v>
+      </c>
+    </row>
+    <row r="373" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J373">
+        <v>1108.6495</v>
+      </c>
+      <c r="K373">
+        <v>300.450999999999</v>
+      </c>
+      <c r="L373">
+        <v>783.491299999999</v>
+      </c>
+      <c r="M373">
+        <v>3230.0056999999902</v>
+      </c>
+      <c r="N373">
+        <v>8036.268</v>
+      </c>
+      <c r="O373">
+        <v>1559.9215999999999</v>
+      </c>
+    </row>
+    <row r="374" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J374">
+        <v>294.8415</v>
+      </c>
+      <c r="K374">
+        <v>580.70219999999995</v>
+      </c>
+      <c r="L374">
+        <v>792.57319999999902</v>
+      </c>
+      <c r="M374">
+        <v>3181.7077999999901</v>
+      </c>
+      <c r="N374">
+        <v>8111.4213999999902</v>
+      </c>
+      <c r="O374">
+        <v>1532.4524999999901</v>
+      </c>
+    </row>
+    <row r="375" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J375">
+        <v>300.31389999999999</v>
+      </c>
+      <c r="K375">
+        <v>295.55119999999999</v>
+      </c>
+      <c r="L375">
+        <v>752.58019999999999</v>
+      </c>
+      <c r="M375">
+        <v>3148.3930999999998</v>
+      </c>
+      <c r="N375">
+        <v>8043.0140999999903</v>
+      </c>
+      <c r="O375">
+        <v>2404.5329999999999</v>
+      </c>
+    </row>
+    <row r="376" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J376">
+        <v>315.05829999999997</v>
+      </c>
+      <c r="K376">
+        <v>301.83349999999899</v>
+      </c>
+      <c r="L376">
+        <v>787.70809999999994</v>
+      </c>
+      <c r="M376">
+        <v>3211.2387999999901</v>
+      </c>
+      <c r="N376">
+        <v>8081.4511999999904</v>
+      </c>
+      <c r="O376">
+        <v>1586.6406999999999</v>
+      </c>
+    </row>
+    <row r="377" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J377">
+        <v>298.796999999999</v>
+      </c>
+      <c r="K377">
+        <v>300.2045</v>
+      </c>
+      <c r="L377">
+        <v>833.60239999999999</v>
+      </c>
+      <c r="M377">
+        <v>3150.4402999999902</v>
+      </c>
+      <c r="N377">
+        <v>8063.0787</v>
+      </c>
+      <c r="O377">
+        <v>1626.2781</v>
+      </c>
+    </row>
+    <row r="378" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J378">
+        <v>297.75029999999998</v>
+      </c>
+      <c r="K378">
+        <v>302.3879</v>
+      </c>
+      <c r="L378">
+        <v>761.78049999999996</v>
+      </c>
+      <c r="M378">
+        <v>3166.7266</v>
+      </c>
+      <c r="N378">
+        <v>8035.2331999999997</v>
+      </c>
+      <c r="O378">
+        <v>1836.1724999999999</v>
+      </c>
+    </row>
+    <row r="379" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J379">
+        <v>296.07329999999899</v>
+      </c>
+      <c r="K379">
+        <v>312.41899999999998</v>
+      </c>
+      <c r="L379">
+        <v>764.17499999999995</v>
+      </c>
+      <c r="M379">
+        <v>3160.1992</v>
+      </c>
+      <c r="N379">
+        <v>8054.1298999999999</v>
+      </c>
+      <c r="O379">
+        <v>1626.3791999999901</v>
+      </c>
+    </row>
+    <row r="380" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J380">
+        <v>296.65269999999998</v>
+      </c>
+      <c r="K380">
+        <v>326.922899999999</v>
+      </c>
+      <c r="L380">
+        <v>762.54989999999998</v>
+      </c>
+      <c r="M380">
+        <v>3149.4836</v>
+      </c>
+      <c r="N380">
+        <v>8061.3995999999997</v>
+      </c>
+      <c r="O380">
+        <v>1537.2705999999901</v>
+      </c>
+    </row>
+    <row r="381" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J381">
+        <v>293.638499999999</v>
+      </c>
+      <c r="K381">
+        <v>308.1798</v>
+      </c>
+      <c r="L381">
+        <v>764.05939999999998</v>
+      </c>
+      <c r="M381">
+        <v>3158.4263000000001</v>
+      </c>
+      <c r="N381">
+        <v>8056.0889999999999</v>
+      </c>
+      <c r="O381">
+        <v>1548.3181</v>
+      </c>
+    </row>
+    <row r="382" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J382">
+        <v>1411.4930999999999</v>
+      </c>
+      <c r="K382">
+        <v>309.0718</v>
+      </c>
+      <c r="L382">
+        <v>769.88589999999999</v>
+      </c>
+      <c r="M382">
+        <v>3151.7919999999999</v>
+      </c>
+      <c r="N382">
+        <v>8073.0522000000001</v>
+      </c>
+      <c r="O382">
+        <v>1674.8338999999901</v>
+      </c>
+    </row>
+    <row r="383" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J383">
+        <v>298.16050000000001</v>
+      </c>
+      <c r="K383">
+        <v>595.86509999999998</v>
+      </c>
+      <c r="L383">
+        <v>760.79509999999902</v>
+      </c>
+      <c r="M383">
+        <v>3195.5623999999998</v>
+      </c>
+      <c r="N383">
+        <v>8190.0052999999998</v>
+      </c>
+      <c r="O383">
+        <v>2451.8076000000001</v>
+      </c>
+    </row>
+    <row r="384" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J384">
+        <v>309.7353</v>
+      </c>
+      <c r="K384">
+        <v>300.921099999999</v>
+      </c>
+      <c r="L384">
+        <v>771.86680000000001</v>
+      </c>
+      <c r="M384">
+        <v>3164.6257999999998</v>
+      </c>
+      <c r="N384">
+        <v>8061.8709999999901</v>
+      </c>
+      <c r="O384">
+        <v>1601.2237</v>
+      </c>
+    </row>
+    <row r="385" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J385">
+        <v>303.786</v>
+      </c>
+      <c r="K385">
+        <v>308.75569999999999</v>
+      </c>
+      <c r="L385">
+        <v>798.09709999999995</v>
+      </c>
+      <c r="M385">
+        <v>3140.4609</v>
+      </c>
+      <c r="N385">
+        <v>8087.4294</v>
+      </c>
+      <c r="O385">
+        <v>1727.6165999999901</v>
+      </c>
+    </row>
+    <row r="386" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J386">
+        <v>299.1121</v>
+      </c>
+      <c r="K386">
+        <v>300.63630000000001</v>
+      </c>
+      <c r="L386">
+        <v>774.9008</v>
+      </c>
+      <c r="M386">
+        <v>3150.4341999999901</v>
+      </c>
+      <c r="N386">
+        <v>8066.7807999999904</v>
+      </c>
+      <c r="O386">
+        <v>1693.9433999999901</v>
+      </c>
+    </row>
+    <row r="387" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J387">
+        <v>296.20889999999901</v>
+      </c>
+      <c r="K387">
+        <v>303.56020000000001</v>
+      </c>
+      <c r="L387">
+        <v>7918.3888999999999</v>
+      </c>
+      <c r="M387">
+        <v>3156.7437</v>
+      </c>
+      <c r="N387">
+        <v>8123.8231999999998</v>
+      </c>
+      <c r="O387">
+        <v>1556.5635</v>
+      </c>
+    </row>
+    <row r="388" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J388">
+        <v>297.392</v>
+      </c>
+      <c r="K388">
+        <v>299.40589999999997</v>
+      </c>
+      <c r="L388">
+        <v>751.56629999999996</v>
+      </c>
+      <c r="M388">
+        <v>3183.6815999999999</v>
+      </c>
+      <c r="N388">
+        <v>8088.0667999999996</v>
+      </c>
+      <c r="O388">
+        <v>1527.9928</v>
+      </c>
+    </row>
+    <row r="389" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J389">
+        <v>305.84519999999998</v>
+      </c>
+      <c r="K389">
+        <v>299.60980000000001</v>
+      </c>
+      <c r="L389">
+        <v>784.61309999999901</v>
+      </c>
+      <c r="M389">
+        <v>3172.9746999999902</v>
+      </c>
+      <c r="N389">
+        <v>8065.4830999999904</v>
+      </c>
+      <c r="O389">
+        <v>1507.3217</v>
+      </c>
+    </row>
+    <row r="390" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J390">
+        <v>592.39359999999999</v>
+      </c>
+      <c r="K390">
+        <v>309.7319</v>
+      </c>
+      <c r="L390">
+        <v>757.28019999999901</v>
+      </c>
+      <c r="M390">
+        <v>3177.5239999999999</v>
+      </c>
+      <c r="N390">
+        <v>8043.4285999999902</v>
+      </c>
+      <c r="O390">
+        <v>1697.2744</v>
+      </c>
+    </row>
+    <row r="391" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J391">
+        <v>299.1456</v>
+      </c>
+      <c r="K391">
+        <v>585.10749999999996</v>
+      </c>
+      <c r="L391">
+        <v>751.37919999999997</v>
+      </c>
+      <c r="M391">
+        <v>3158.7799</v>
+      </c>
+      <c r="N391">
+        <v>8055.2797</v>
+      </c>
+      <c r="O391">
+        <v>2408.5376000000001</v>
+      </c>
+    </row>
+    <row r="392" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J392">
+        <v>298.03960000000001</v>
+      </c>
+      <c r="K392">
+        <v>296.7758</v>
+      </c>
+      <c r="L392">
+        <v>772.8691</v>
+      </c>
+      <c r="M392">
+        <v>3141.5324000000001</v>
+      </c>
+      <c r="N392">
+        <v>8077.3041999999996</v>
+      </c>
+      <c r="O392">
+        <v>1753.8915999999999</v>
+      </c>
+    </row>
+    <row r="393" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J393">
+        <v>296.76329999999899</v>
+      </c>
+      <c r="K393">
+        <v>307.60199999999998</v>
+      </c>
+      <c r="L393">
+        <v>811.05599999999902</v>
+      </c>
+      <c r="M393">
+        <v>3181.0248999999999</v>
+      </c>
+      <c r="N393">
+        <v>8122.0141999999996</v>
+      </c>
+      <c r="O393">
+        <v>1605.1964</v>
+      </c>
+    </row>
+    <row r="394" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J394">
+        <v>293.46170000000001</v>
+      </c>
+      <c r="K394">
+        <v>300.65600000000001</v>
+      </c>
+      <c r="L394">
+        <v>741.46799999999996</v>
+      </c>
+      <c r="M394">
+        <v>3159.9053999999901</v>
+      </c>
+      <c r="N394">
+        <v>8064.9196999999904</v>
+      </c>
+      <c r="O394">
+        <v>1686.5612999999901</v>
+      </c>
+    </row>
+    <row r="395" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J395">
+        <v>299.1968</v>
+      </c>
+      <c r="K395">
+        <v>300.82979999999998</v>
+      </c>
+      <c r="L395">
+        <v>754.83809999999903</v>
+      </c>
+      <c r="M395">
+        <v>3229.1118999999999</v>
+      </c>
+      <c r="N395">
+        <v>8068.7677999999996</v>
+      </c>
+      <c r="O395">
+        <v>1559.1196</v>
+      </c>
+    </row>
+    <row r="396" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J396">
+        <v>301.90710000000001</v>
+      </c>
+      <c r="K396">
+        <v>308.95310000000001</v>
+      </c>
+      <c r="L396">
+        <v>765.21029999999996</v>
+      </c>
+      <c r="M396">
+        <v>3162.5023999999999</v>
+      </c>
+      <c r="N396">
+        <v>8038.2237999999998</v>
+      </c>
+      <c r="O396">
+        <v>1664.6119999999901</v>
+      </c>
+    </row>
+    <row r="397" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J397">
+        <v>297.66379999999998</v>
+      </c>
+      <c r="K397">
+        <v>300.43819999999999</v>
+      </c>
+      <c r="L397">
+        <v>762.02779999999996</v>
+      </c>
+      <c r="M397">
+        <v>3177.4454000000001</v>
+      </c>
+      <c r="N397">
+        <v>8051.3505999999998</v>
+      </c>
+      <c r="O397">
+        <v>1750.1571999999901</v>
+      </c>
+    </row>
+    <row r="398" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J398">
+        <v>298.41229999999899</v>
+      </c>
+      <c r="K398">
+        <v>299.62389999999999</v>
+      </c>
+      <c r="L398">
+        <v>777.93359999999996</v>
+      </c>
+      <c r="M398">
+        <v>3154.0070999999998</v>
+      </c>
+      <c r="N398">
+        <v>8075.5596999999998</v>
+      </c>
+      <c r="O398">
+        <v>1807.1744999999901</v>
+      </c>
+    </row>
+    <row r="399" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J399">
+        <v>1156.9270999999901</v>
+      </c>
+      <c r="K399">
+        <v>309.430399999999</v>
+      </c>
+      <c r="L399">
+        <v>766.25889999999902</v>
+      </c>
+      <c r="M399">
+        <v>3181.9636</v>
+      </c>
+      <c r="N399">
+        <v>8073.7188999999998</v>
+      </c>
+      <c r="O399">
+        <v>1783.4079999999999</v>
+      </c>
+    </row>
+    <row r="400" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J400">
+        <v>295.57470000000001</v>
+      </c>
+      <c r="K400">
+        <v>622.90239999999994</v>
+      </c>
+      <c r="L400">
+        <v>768.27429999999902</v>
+      </c>
+      <c r="M400">
+        <v>3172.0866999999998</v>
+      </c>
+      <c r="N400">
+        <v>8063.32</v>
+      </c>
+      <c r="O400">
+        <v>1640.3796</v>
+      </c>
+    </row>
+    <row r="401" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J401">
+        <v>298.66050000000001</v>
+      </c>
+      <c r="K401">
+        <v>300.88130000000001</v>
+      </c>
+      <c r="L401">
+        <v>800.66359999999997</v>
+      </c>
+      <c r="M401">
+        <v>3149.0101</v>
+      </c>
+      <c r="N401">
+        <v>8042.5163999999904</v>
+      </c>
+      <c r="O401">
+        <v>2634.3200999999999</v>
+      </c>
+    </row>
+    <row r="402" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J402">
+        <v>300.130099999999</v>
+      </c>
+      <c r="K402">
+        <v>300.91109999999998</v>
+      </c>
+      <c r="L402">
+        <v>748.86239999999998</v>
+      </c>
+      <c r="M402">
+        <v>3147.7730999999999</v>
+      </c>
+      <c r="N402">
+        <v>8084.0396999999903</v>
+      </c>
+      <c r="O402">
+        <v>1632.3810999999901</v>
+      </c>
+    </row>
+    <row r="403" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J403">
+        <v>304.37479999999999</v>
+      </c>
+      <c r="K403">
+        <v>303.49539999999899</v>
+      </c>
+      <c r="L403">
+        <v>764.39319999999998</v>
+      </c>
+      <c r="M403">
+        <v>3254.4703999999901</v>
+      </c>
+      <c r="N403">
+        <v>8054.2133999999996</v>
+      </c>
+      <c r="O403">
+        <v>1655.5473</v>
+      </c>
+    </row>
+    <row r="404" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J404">
+        <v>296.9622</v>
+      </c>
+      <c r="K404">
+        <v>310.80070000000001</v>
+      </c>
+      <c r="L404">
+        <v>786.42439999999999</v>
+      </c>
+      <c r="M404">
+        <v>3227.5688</v>
+      </c>
+      <c r="N404">
+        <v>8063.4148999999998</v>
+      </c>
+      <c r="O404">
+        <v>1713.6219999999901</v>
+      </c>
+    </row>
+    <row r="405" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J405">
+        <v>291.99930000000001</v>
+      </c>
+      <c r="K405">
+        <v>298.11959999999999</v>
+      </c>
+      <c r="L405">
+        <v>780.89739999999995</v>
+      </c>
+      <c r="M405">
+        <v>3192.152</v>
+      </c>
+      <c r="N405">
+        <v>8059.5351999999903</v>
+      </c>
+      <c r="O405">
+        <v>1657.6080999999999</v>
+      </c>
+    </row>
+    <row r="406" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J406">
+        <v>293.051099999999</v>
+      </c>
+      <c r="K406">
+        <v>298.85550000000001</v>
+      </c>
+      <c r="L406">
+        <v>760.80340000000001</v>
+      </c>
+      <c r="M406">
+        <v>3197.1843999999901</v>
+      </c>
+      <c r="N406">
+        <v>8053.3741</v>
+      </c>
+      <c r="O406">
+        <v>1665.7854</v>
+      </c>
+    </row>
+    <row r="407" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J407">
+        <v>1408.0499</v>
+      </c>
+      <c r="K407">
+        <v>310.44409999999999</v>
+      </c>
+      <c r="L407">
+        <v>773.55949999999996</v>
+      </c>
+      <c r="M407">
+        <v>3174.2529999999902</v>
+      </c>
+      <c r="N407">
+        <v>8048.0581999999904</v>
+      </c>
+      <c r="O407">
+        <v>1748.4360999999999</v>
+      </c>
+    </row>
+    <row r="408" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J408">
+        <v>304.55349999999999</v>
+      </c>
+      <c r="K408">
+        <v>589.13419999999996</v>
+      </c>
+      <c r="L408">
+        <v>764.171099999999</v>
+      </c>
+      <c r="M408">
+        <v>3151.4056999999998</v>
+      </c>
+      <c r="N408">
+        <v>8044.2920999999997</v>
+      </c>
+      <c r="O408">
+        <v>1537.2541999999901</v>
+      </c>
+    </row>
+    <row r="409" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J409">
+        <v>311.546099999999</v>
+      </c>
+      <c r="K409">
+        <v>308.3356</v>
+      </c>
+      <c r="L409">
+        <v>798.95909999999901</v>
+      </c>
+      <c r="M409">
+        <v>3166.1515999999901</v>
+      </c>
+      <c r="N409">
+        <v>8040.2057999999997</v>
+      </c>
+      <c r="O409">
+        <v>2575.7113999999901</v>
+      </c>
+    </row>
+    <row r="410" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J410">
+        <v>296.54059999999998</v>
+      </c>
+      <c r="K410">
+        <v>300.486999999999</v>
+      </c>
+      <c r="L410">
+        <v>766.30049999999903</v>
+      </c>
+      <c r="M410">
+        <v>3164.5299</v>
+      </c>
+      <c r="N410">
+        <v>8035.4907999999996</v>
+      </c>
+      <c r="O410">
+        <v>1641.492</v>
+      </c>
+    </row>
+    <row r="411" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J411">
+        <v>305.6028</v>
+      </c>
+      <c r="K411">
+        <v>296.667499999999</v>
+      </c>
+      <c r="L411">
+        <v>792.43610000000001</v>
+      </c>
+      <c r="M411">
+        <v>3147.8779999999902</v>
+      </c>
+      <c r="N411">
+        <v>8069.9730999999902</v>
+      </c>
+      <c r="O411">
+        <v>1567.0882999999999</v>
+      </c>
+    </row>
+    <row r="412" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J412">
+        <v>310.06619999999998</v>
+      </c>
+      <c r="K412">
+        <v>343.3152</v>
+      </c>
+      <c r="L412">
+        <v>795.00339999999903</v>
+      </c>
+      <c r="M412">
+        <v>3175.0479999999998</v>
+      </c>
+      <c r="N412">
+        <v>8045.7700999999997</v>
+      </c>
+      <c r="O412">
+        <v>1656.7862</v>
+      </c>
+    </row>
+    <row r="413" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J413">
+        <v>308.5027</v>
+      </c>
+      <c r="K413">
+        <v>656.55029999999999</v>
+      </c>
+      <c r="L413">
+        <v>817.69629999999995</v>
+      </c>
+      <c r="M413">
+        <v>3191.7012</v>
+      </c>
+      <c r="N413">
+        <v>8056.8274999999903</v>
+      </c>
+      <c r="O413">
+        <v>1616.1432</v>
+      </c>
+    </row>
+    <row r="414" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J414">
+        <v>306.10550000000001</v>
+      </c>
+      <c r="K414">
+        <v>328.71499999999997</v>
+      </c>
+      <c r="L414">
+        <v>824.48259999999902</v>
+      </c>
+      <c r="M414">
+        <v>3124.9620999999902</v>
+      </c>
+      <c r="N414">
+        <v>8186.8735999999999</v>
+      </c>
+      <c r="O414">
+        <v>1813.2011</v>
+      </c>
+    </row>
+    <row r="415" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J415">
+        <v>346.330299999999</v>
+      </c>
+      <c r="K415">
+        <v>324.367899999999</v>
+      </c>
+      <c r="L415">
+        <v>812.2663</v>
+      </c>
+      <c r="M415">
+        <v>3160.0340999999999</v>
+      </c>
+      <c r="N415">
+        <v>8280.8999000000003</v>
+      </c>
+      <c r="O415">
+        <v>1717.886</v>
+      </c>
+    </row>
+    <row r="416" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J416">
+        <v>592.78859999999997</v>
+      </c>
+      <c r="K416">
+        <v>327.13459999999998</v>
+      </c>
+      <c r="L416">
+        <v>826.43099999999902</v>
+      </c>
+      <c r="M416">
+        <v>3527.9953</v>
+      </c>
+      <c r="N416">
+        <v>8547.9260999999897</v>
+      </c>
+      <c r="O416">
+        <v>1857.9449999999999</v>
+      </c>
+    </row>
+    <row r="417" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J417">
+        <v>332.13919999999899</v>
+      </c>
+      <c r="K417">
+        <v>588.29279999999903</v>
+      </c>
+      <c r="L417">
+        <v>826.05700000000002</v>
+      </c>
+      <c r="M417">
+        <v>3255.9447999999902</v>
+      </c>
+      <c r="N417">
+        <v>8504.9036999999898</v>
+      </c>
+      <c r="O417">
+        <v>1719.6241</v>
+      </c>
+    </row>
+    <row r="418" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J418">
+        <v>332.95229999999998</v>
+      </c>
+      <c r="K418">
+        <v>307.35509999999999</v>
+      </c>
+      <c r="L418">
+        <v>810.864499999999</v>
+      </c>
+      <c r="M418">
+        <v>3217.1632</v>
+      </c>
+      <c r="N418">
+        <v>8530.03819999999</v>
+      </c>
+      <c r="O418">
+        <v>2561.7678999999998</v>
+      </c>
+    </row>
+    <row r="419" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J419">
+        <v>302.86489999999998</v>
+      </c>
+      <c r="K419">
+        <v>301.6848</v>
+      </c>
+      <c r="L419">
+        <v>841.90109999999902</v>
+      </c>
+      <c r="M419">
+        <v>3233.0814999999998</v>
+      </c>
+      <c r="N419">
+        <v>8436.3814000000002</v>
+      </c>
+      <c r="O419">
+        <v>1718.5906</v>
+      </c>
+    </row>
+    <row r="420" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J420">
+        <v>295.10120000000001</v>
+      </c>
+      <c r="K420">
+        <v>303.08760000000001</v>
+      </c>
+      <c r="L420">
+        <v>808.43380000000002</v>
+      </c>
+      <c r="M420">
+        <v>3174.1794</v>
+      </c>
+      <c r="N420">
+        <v>8296.7129000000004</v>
+      </c>
+      <c r="O420">
+        <v>1674.4938</v>
+      </c>
+    </row>
+    <row r="421" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J421">
+        <v>304.30849999999998</v>
+      </c>
+      <c r="K421">
+        <v>305.87700000000001</v>
+      </c>
+      <c r="L421">
+        <v>810.48680000000002</v>
+      </c>
+      <c r="M421">
+        <v>3227.1027999999901</v>
+      </c>
+      <c r="N421">
+        <v>8513.7682999999997</v>
+      </c>
+      <c r="O421">
+        <v>1733.9294</v>
+      </c>
+    </row>
+    <row r="422" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J422">
+        <v>300.85919999999999</v>
+      </c>
+      <c r="K422">
+        <v>294.80119999999999</v>
+      </c>
+      <c r="L422">
+        <v>752.15019999999902</v>
+      </c>
+      <c r="M422">
+        <v>3192.7651999999998</v>
+      </c>
+      <c r="N422">
+        <v>8189.5499</v>
+      </c>
+      <c r="O422">
+        <v>1604.009</v>
+      </c>
+    </row>
+    <row r="423" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J423">
+        <v>304.13560000000001</v>
+      </c>
+      <c r="K423">
+        <v>301.530699999999</v>
+      </c>
+      <c r="L423">
+        <v>749.36129999999901</v>
+      </c>
+      <c r="M423">
+        <v>3183.5663</v>
+      </c>
+      <c r="N423">
+        <v>8057.5397999999996</v>
+      </c>
+      <c r="O423">
+        <v>1709.8236999999999</v>
+      </c>
+    </row>
+    <row r="424" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J424">
+        <v>298.27170000000001</v>
+      </c>
+      <c r="K424">
+        <v>311.35199999999998</v>
+      </c>
+      <c r="L424">
+        <v>751.77929999999901</v>
+      </c>
+      <c r="M424">
+        <v>3182.3534999999902</v>
+      </c>
+      <c r="N424">
+        <v>8123.1854999999996</v>
+      </c>
+      <c r="O424">
+        <v>1777.7533999999901</v>
+      </c>
+    </row>
+    <row r="425" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J425">
+        <v>296.8623</v>
+      </c>
+      <c r="K425">
+        <v>302.86959999999999</v>
+      </c>
+      <c r="L425">
+        <v>786.68200000000002</v>
+      </c>
+      <c r="M425">
+        <v>3196.3766999999998</v>
+      </c>
+      <c r="N425">
+        <v>8055.1684999999998</v>
+      </c>
+      <c r="O425">
+        <v>1554.6178</v>
+      </c>
+    </row>
+    <row r="426" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J426">
+        <v>1115.5659000000001</v>
+      </c>
+      <c r="K426">
+        <v>585.78480000000002</v>
+      </c>
+      <c r="L426">
+        <v>799.01749999999902</v>
+      </c>
+      <c r="M426">
+        <v>3173.1255999999998</v>
+      </c>
+      <c r="N426">
+        <v>8121.1359999999904</v>
+      </c>
+      <c r="O426">
+        <v>1739.29</v>
+      </c>
+    </row>
+    <row r="427" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J427">
+        <v>300.60969999999998</v>
+      </c>
+      <c r="K427">
+        <v>300.817599999999</v>
+      </c>
+      <c r="L427">
+        <v>753.99189999999999</v>
+      </c>
+      <c r="M427">
+        <v>3183.0045</v>
+      </c>
+      <c r="N427">
+        <v>8066.4393</v>
+      </c>
+      <c r="O427">
+        <v>2463.0531000000001</v>
+      </c>
+    </row>
+    <row r="428" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J428">
+        <v>301.15609999999998</v>
+      </c>
+      <c r="K428">
+        <v>300.756699999999</v>
+      </c>
+      <c r="L428">
+        <v>774.44549999999902</v>
+      </c>
+      <c r="M428">
+        <v>3171.0616999999902</v>
+      </c>
+      <c r="N428">
+        <v>8106.3923999999997</v>
+      </c>
+      <c r="O428">
+        <v>1794.1047999999901</v>
+      </c>
+    </row>
+    <row r="429" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J429">
+        <v>296.61689999999999</v>
+      </c>
+      <c r="K429">
+        <v>300.37819999999999</v>
+      </c>
+      <c r="L429">
+        <v>766.43799999999999</v>
+      </c>
+      <c r="M429">
+        <v>3175.5540999999998</v>
+      </c>
+      <c r="N429">
+        <v>8076.0788999999904</v>
+      </c>
+      <c r="O429">
+        <v>1746.7646999999999</v>
+      </c>
+    </row>
+    <row r="430" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J430">
+        <v>298.11169999999998</v>
+      </c>
+      <c r="K430">
+        <v>310.62639999999999</v>
+      </c>
+      <c r="L430">
+        <v>779.3057</v>
+      </c>
+      <c r="M430">
+        <v>3183.9809999999902</v>
+      </c>
+      <c r="N430">
+        <v>8068.9054999999998</v>
+      </c>
+      <c r="O430">
+        <v>1705.5191</v>
+      </c>
+    </row>
+    <row r="431" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J431">
+        <v>303.85109999999997</v>
+      </c>
+      <c r="K431">
+        <v>304.60109999999997</v>
+      </c>
+      <c r="L431">
+        <v>749.67439999999999</v>
+      </c>
+      <c r="M431">
+        <v>3166.5030999999999</v>
+      </c>
+      <c r="N431">
+        <v>8069.9573</v>
+      </c>
+      <c r="O431">
+        <v>1784.1395</v>
+      </c>
+    </row>
+    <row r="432" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J432">
+        <v>302.1891</v>
+      </c>
+      <c r="K432">
+        <v>300.5385</v>
+      </c>
+      <c r="L432">
+        <v>750.53919999999903</v>
+      </c>
+      <c r="M432">
+        <v>3159.924</v>
+      </c>
+      <c r="N432">
+        <v>8063.3427999999903</v>
+      </c>
+      <c r="O432">
+        <v>1733.6808999999901</v>
+      </c>
+    </row>
+    <row r="433" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J433">
+        <v>298.091399999999</v>
+      </c>
+      <c r="K433">
+        <v>301.33</v>
+      </c>
+      <c r="L433">
+        <v>776.626699999999</v>
+      </c>
+      <c r="M433">
+        <v>3165.4472000000001</v>
+      </c>
+      <c r="N433">
+        <v>8050.8386</v>
+      </c>
+      <c r="O433">
+        <v>1741.1922</v>
+      </c>
+    </row>
+    <row r="434" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J434">
+        <v>294.56709999999998</v>
+      </c>
+      <c r="K434">
+        <v>302.8775</v>
+      </c>
+      <c r="L434">
+        <v>749.65890000000002</v>
+      </c>
+      <c r="M434">
+        <v>3175.7710999999999</v>
+      </c>
+      <c r="N434">
+        <v>8096.5595999999996</v>
+      </c>
+      <c r="O434">
+        <v>1725.7599</v>
+      </c>
+    </row>
+    <row r="435" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J435">
+        <v>1135.1684</v>
+      </c>
+      <c r="K435">
+        <v>593.70460000000003</v>
+      </c>
+      <c r="L435">
+        <v>840.14269999999999</v>
+      </c>
+      <c r="M435">
+        <v>3276.614</v>
+      </c>
+      <c r="N435">
+        <v>8215.6059999999998</v>
+      </c>
+      <c r="O435">
+        <v>1876.7012</v>
+      </c>
+    </row>
+    <row r="436" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J436">
+        <v>303.63130000000001</v>
+      </c>
+      <c r="K436">
+        <v>301.58909999999997</v>
+      </c>
+      <c r="L436">
+        <v>841.918399999999</v>
+      </c>
+      <c r="M436">
+        <v>3184.5258999999901</v>
+      </c>
+      <c r="N436">
+        <v>8242.66679999999</v>
+      </c>
+      <c r="O436">
+        <v>2698.4488999999999</v>
+      </c>
+    </row>
+    <row r="437" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J437">
+        <v>301.00639999999999</v>
+      </c>
+      <c r="K437">
+        <v>308.89769999999999</v>
+      </c>
+      <c r="L437">
+        <v>774.21319999999901</v>
+      </c>
+      <c r="M437">
+        <v>3171.1780999999901</v>
+      </c>
+      <c r="N437">
+        <v>8187.4370999999901</v>
+      </c>
+      <c r="O437">
+        <v>1673.23619999999</v>
+      </c>
+    </row>
+    <row r="438" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J438">
+        <v>299.16460000000001</v>
+      </c>
+      <c r="K438">
+        <v>341.37270000000001</v>
+      </c>
+      <c r="L438">
+        <v>807.296099999999</v>
+      </c>
+      <c r="M438">
+        <v>3373.4629</v>
+      </c>
+      <c r="N438">
+        <v>8546.3534</v>
+      </c>
+      <c r="O438">
+        <v>1797.6228999999901</v>
+      </c>
+    </row>
+    <row r="439" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J439">
+        <v>305.35809999999998</v>
+      </c>
+      <c r="K439">
+        <v>303.52229999999997</v>
+      </c>
+      <c r="L439">
+        <v>832.69740000000002</v>
+      </c>
+      <c r="M439">
+        <v>3208.4866999999999</v>
+      </c>
+      <c r="N439">
+        <v>8499.30259999999</v>
+      </c>
+      <c r="O439">
+        <v>1845.6342999999999</v>
+      </c>
+    </row>
+    <row r="440" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J440">
+        <v>308.96289999999999</v>
+      </c>
+      <c r="K440">
+        <v>357.031599999999</v>
+      </c>
+      <c r="L440">
+        <v>816.05449999999996</v>
+      </c>
+      <c r="M440">
+        <v>3232.8109999999901</v>
+      </c>
+      <c r="N440">
+        <v>8454.7367999999897</v>
+      </c>
+      <c r="O440">
+        <v>1798.2730999999901</v>
+      </c>
+    </row>
+    <row r="441" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J441">
+        <v>296.101599999999</v>
+      </c>
+      <c r="K441">
+        <v>304.11169999999998</v>
+      </c>
+      <c r="L441">
+        <v>786.02189999999996</v>
+      </c>
+      <c r="M441">
+        <v>3160.0459999999998</v>
+      </c>
+      <c r="N441">
+        <v>8226.1523999999899</v>
+      </c>
+      <c r="O441">
+        <v>1694.2267999999999</v>
+      </c>
+    </row>
+    <row r="442" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J442">
+        <v>311.73469999999998</v>
+      </c>
+      <c r="K442">
+        <v>336.75790000000001</v>
+      </c>
+      <c r="L442">
+        <v>794.76279999999997</v>
+      </c>
+      <c r="M442">
+        <v>3107.4568999999901</v>
+      </c>
+      <c r="N442">
+        <v>8281.2847000000002</v>
+      </c>
+      <c r="O442">
+        <v>1798.5063</v>
+      </c>
+    </row>
+    <row r="443" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J443">
+        <v>1126.8691999999901</v>
+      </c>
+      <c r="K443">
+        <v>325.60329999999999</v>
+      </c>
+      <c r="L443">
+        <v>792.29449999999997</v>
+      </c>
+      <c r="M443">
+        <v>3248.7428</v>
+      </c>
+      <c r="N443">
+        <v>8389.5439999999999</v>
+      </c>
+      <c r="O443">
+        <v>1673.3679</v>
+      </c>
+    </row>
+    <row r="444" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J444">
+        <v>301.5274</v>
+      </c>
+      <c r="K444">
+        <v>607.35529999999903</v>
+      </c>
+      <c r="L444">
+        <v>835.822</v>
+      </c>
+      <c r="M444">
+        <v>3217.0252999999998</v>
+      </c>
+      <c r="N444">
+        <v>8546.9832999999999</v>
+      </c>
+      <c r="O444">
+        <v>2687.971</v>
+      </c>
+    </row>
+    <row r="445" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J445">
+        <v>300.70479999999998</v>
+      </c>
+      <c r="K445">
+        <v>327.41050000000001</v>
+      </c>
+      <c r="L445">
+        <v>814.94169999999997</v>
+      </c>
+      <c r="M445">
+        <v>3215.0724999999902</v>
+      </c>
+      <c r="N445">
+        <v>8265.3020999999899</v>
+      </c>
+      <c r="O445">
+        <v>1781.9169999999999</v>
+      </c>
+    </row>
+    <row r="446" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J446">
+        <v>312.4341</v>
+      </c>
+      <c r="K446">
+        <v>320.02339999999998</v>
+      </c>
+      <c r="L446">
+        <v>825.420199999999</v>
+      </c>
+      <c r="M446">
+        <v>3191.6655000000001</v>
+      </c>
+      <c r="N446">
+        <v>8390.5429000000004</v>
+      </c>
+      <c r="O446">
+        <v>1736.8777</v>
+      </c>
+    </row>
+    <row r="447" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J447">
+        <v>327.69219999999899</v>
+      </c>
+      <c r="K447">
+        <v>359.65129999999999</v>
+      </c>
+      <c r="L447">
+        <v>858.70600000000002</v>
+      </c>
+      <c r="M447">
+        <v>3244.6967999999902</v>
+      </c>
+      <c r="N447">
+        <v>8233.8083999999999</v>
+      </c>
+      <c r="O447">
+        <v>1734.3382999999999</v>
+      </c>
+    </row>
+    <row r="448" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J448">
+        <v>301.57</v>
+      </c>
+      <c r="K448">
+        <v>324.29349999999999</v>
+      </c>
+      <c r="L448">
+        <v>836.7663</v>
+      </c>
+      <c r="M448">
+        <v>3156.9397999999901</v>
+      </c>
+      <c r="N448">
+        <v>8389.6878999999899</v>
+      </c>
+      <c r="O448">
+        <v>1781.1822999999999</v>
+      </c>
+    </row>
+    <row r="449" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J449">
+        <v>304.86070000000001</v>
+      </c>
+      <c r="K449">
+        <v>320.469999999999</v>
+      </c>
+      <c r="L449">
+        <v>817.49779999999998</v>
+      </c>
+      <c r="M449">
+        <v>3207.9829</v>
+      </c>
+      <c r="N449">
+        <v>8265.2934000000005</v>
+      </c>
+      <c r="O449">
+        <v>1860.8913</v>
+      </c>
+    </row>
+    <row r="450" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J450">
+        <v>324.15100000000001</v>
+      </c>
+      <c r="K450">
+        <v>318.00409999999999</v>
+      </c>
+      <c r="L450">
+        <v>826.2962</v>
+      </c>
+      <c r="M450">
+        <v>3124.7876999999999</v>
+      </c>
+      <c r="N450">
+        <v>8326.3673999999992</v>
+      </c>
+      <c r="O450">
+        <v>1826.8633</v>
+      </c>
+    </row>
+    <row r="451" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J451">
+        <v>294.6234</v>
+      </c>
+      <c r="L451">
+        <v>787.28980000000001</v>
+      </c>
+      <c r="M451">
+        <v>3217.7491999999902</v>
+      </c>
+      <c r="N451">
+        <v>8087.4854999999998</v>
+      </c>
+      <c r="O451">
+        <v>1775.8908999999901</v>
       </c>
     </row>
   </sheetData>

--- a/speed-comparison-master/data/middleTRNew/MiddleTRNew.xlsx
+++ b/speed-comparison-master/data/middleTRNew/MiddleTRNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youyasushi/Desktop/UCT/Year 2/STA2005S/ED Project/speed-comparison-master/data/middleTRNew/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3972030E-A07F-FE4B-B776-2470EC6BCAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7687A5B-E33D-E84F-88D7-1FB131AA6D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1780,7 +1780,7 @@
   <dimension ref="A1:O451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="O451" sqref="J1:O451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11308,6 +11308,9 @@
       <c r="J451">
         <v>294.6234</v>
       </c>
+      <c r="K451">
+        <v>353.1234</v>
+      </c>
       <c r="L451">
         <v>787.28980000000001</v>
       </c>
